--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4087DDE-33D8-412E-B2E9-AAC06A399CEC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16967CF-CCD1-419E-8621-777B4402121A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="501">
   <si>
     <t>fairness</t>
   </si>
@@ -145,9 +145,6 @@
     <t>referrals_text</t>
   </si>
   <si>
-    <t>Скоро будет добавлена возможность создавать собственную реферальную ссылку. При игре по реферальной ссылке часть дохода от игры будет отправляться владельцу ссылки. Оставьте Вашу почту, мы сообщим, когда данная функция станет доступной.</t>
-  </si>
-  <si>
     <t>how_1</t>
   </si>
   <si>
@@ -370,15 +367,9 @@
     <t>soon</t>
   </si>
   <si>
-    <t>Get rewarded just by referring your friends! Enjoy lifetime rewards just by referring your friends! Receive 0.2% of all their winnings. All rewards are sent out automatically through our smart contracts. Just copy the link above and share it to all your friends!</t>
-  </si>
-  <si>
     <t>Still have questions? Join our &lt;a href="https://t.me/gamesontron" target="_blank"&gt; telegram group&lt;/a&gt; and we'll be more than happy to help!</t>
   </si>
   <si>
-    <t>Получите вознаграждение, просто пригласив своих друзей! Наслаждайтесь наградами, просто распространив ссылку друзьям! Получите 0,2% от всех их выигрышей. Все вознаграждения автоматически отправляются через наши смарт-контракты. Просто скопируй ссылку выше и поделись ею со всеми своими друзьями!</t>
-  </si>
-  <si>
     <t>Есть еще вопросы? Присоединяйтесь к нашей &lt;a href="https://t.me/gamesontron" target="_blank"&gt; телеграмм группе&lt;/a&gt; , и мы будем рады помочь!</t>
   </si>
   <si>
@@ -448,9 +439,6 @@
     <t>转交</t>
   </si>
   <si>
-    <t>通过推荐您的朋友获得奖励!请享受奖励，只需通过向您的朋友推荐链接！获得他们所有中注0.2％的奖励。所有奖励都通过我们的智能合约自动发出。您只需复制上面的链接并分享给您的所有朋友！</t>
-  </si>
-  <si>
     <t>2. 为玩游戏，你必须有TRX，这是TRON网络的主要加密货币。</t>
   </si>
   <si>
@@ -541,9 +529,6 @@
     <t>Referencias</t>
   </si>
   <si>
-    <t>¡Consigue recompensas solo por recomendar a tus amigos! ¡Disfruta de las recompensas de por vida con solo recomendar a tus amigos! Recibe el 0,2% de todas sus ganancias. Todas las recompensas se envían automáticamente a través de nuestros contratos inteligentes. ¡Solo copia el enlace de arriba y compártelo con todos tus amigos!</t>
-  </si>
-  <si>
     <t>2. Para jugar debe poseer TRX, la criptomoneda subyacente que alimenta la red TRON.</t>
   </si>
   <si>
@@ -673,9 +658,6 @@
     <t>추천</t>
   </si>
   <si>
-    <t xml:space="preserve">친구를 추천하여 보상을 받으세요! 친구들에게 링크를 공유하면 전체 수익의 0.2%를 받아보실 수 있습니다. 모든 수익은 자동으로 스마트 계약을 통해 입금됩니다. 상단에 있는 링크를 복사하여 친구들에게 공유해보세요! </t>
-  </si>
-  <si>
     <t>2. 플레이하기 위해서는 TRX를 갖고 있어야 합니다. TRX는 TRON에서 기본적인 암호 화폐입니다.</t>
   </si>
   <si>
@@ -778,9 +760,6 @@
     <t>Yönlendirmeler</t>
   </si>
   <si>
-    <t>Arkadaşlarınızı davet ederek kazanmaya devam edin! Bağlantıyı arkadaşlarınızla paylaşarak ödüllerin tadını çıkarın! Tüm kazançların %0.2'sini alın. Tüm ödüller akıllı sözleşmelerimiz sayesendi otomatik olarak gönderilir. Sadece yukarıdaki bağlantıyı kopyalayın ve tüm arkadaşlarınızla paylaşın!</t>
-  </si>
-  <si>
     <t>1. TRONLink cüzdanınızın olduğundan emin olun. Cüzdan oluşturmak için ayrıntılı bilgiye ulaşmak için &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;tıklayın&lt;/a&gt;.</t>
   </si>
   <si>
@@ -6838,6 +6817,30 @@
   </si>
   <si>
     <t>Следующий уровень:</t>
+  </si>
+  <si>
+    <t>alreadyExist</t>
+  </si>
+  <si>
+    <t>Already exist!</t>
+  </si>
+  <si>
+    <t>copy_link</t>
+  </si>
+  <si>
+    <t>Copy the link</t>
+  </si>
+  <si>
+    <t>Get rewarded just by referring your friends! Enjoy lifetime rewards just by referring your friends! Receive 0.2% of all their BETS. All rewards are sent out automatically through our smart contracts. Just copy the link and share it to all your friends! Enjoy lifetime rewards just by referring your friends! Receive 0.2% of all their bets. All rewards are sent out automatically through our smart contracts. Just copy the link and share it to all your friends! The cost to create a referral link is 8.88 TRX and less than 1 TRX transaction fee. You can create new referral links as many times as you want. Old one will replace automatically.</t>
+  </si>
+  <si>
+    <t>Получите вознаграждение, просто пригласив своих друзей! Получите 0,2% от всех их СТАВОК. Все вознаграждения автоматически отправляются через наши смарт-контракты. Просто скопируйте ссылку и поделитесь ею со всеми своими друзьями! Стоимость создания реферальной ссылки 8.88 TRX и менее 1 TRX комиссия транзакции. Вы можете создавать ссылку неограниченное количество раз, при этом старая ссылка будет заменяться на новую.</t>
+  </si>
+  <si>
+    <t>Уже существует!</t>
+  </si>
+  <si>
+    <t>Копировать ссылку</t>
   </si>
 </sst>
 </file>
@@ -7207,10 +7210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7247,7 +7250,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7335,7 +7338,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7343,7 +7346,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7383,439 +7386,455 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
         <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
         <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s">
-        <v>401</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -7826,10 +7845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DEACF1-94B3-4578-991A-39EBFC8C241F}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:B48"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B77" sqref="A76:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7843,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7851,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7859,7 +7878,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7867,7 +7886,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7875,7 +7894,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7883,7 +7902,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7891,7 +7910,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7899,7 +7918,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7907,7 +7926,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7915,7 +7934,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7923,7 +7942,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7931,7 +7950,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7939,7 +7958,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7947,7 +7966,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7955,7 +7974,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7963,7 +7982,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7971,7 +7990,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7979,7 +7998,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7987,7 +8006,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7995,7 +8014,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8003,439 +8022,455 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s">
-        <v>414</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8446,10 +8481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7CA908-3C1E-4D79-9DF6-337B906FBE61}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8462,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8470,7 +8505,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8478,7 +8513,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8486,7 +8521,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8494,7 +8529,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8502,7 +8537,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8510,7 +8545,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8518,7 +8553,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8526,7 +8561,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8534,7 +8569,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8542,7 +8577,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8550,7 +8585,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8558,7 +8593,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8566,7 +8601,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8574,7 +8609,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8582,7 +8617,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8590,7 +8625,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8598,7 +8633,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8606,7 +8641,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8614,7 +8649,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8622,439 +8657,455 @@
         <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>215</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>453</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9065,10 +9116,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAAE106-8CA5-48F8-A5E8-4759856E6D3C}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9081,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9089,7 +9140,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9097,7 +9148,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9105,7 +9156,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9113,7 +9164,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9121,7 +9172,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9129,7 +9180,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9137,7 +9188,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9145,7 +9196,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9153,7 +9204,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9161,7 +9212,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9169,7 +9220,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9177,7 +9228,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9185,7 +9236,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9193,7 +9244,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9201,7 +9252,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9209,7 +9260,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9217,7 +9268,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9225,7 +9276,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9233,7 +9284,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9241,439 +9292,455 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s">
-        <v>492</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -9684,10 +9751,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C57076-6EA9-455F-BFCD-0976D473D5AF}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:B75"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9724,7 +9791,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9812,7 +9879,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9860,439 +9927,455 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
         <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
         <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
         <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
         <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" t="s">
         <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s">
-        <v>401</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -10303,10 +10386,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0E21DF-7EF2-4106-9614-349E73C42831}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10319,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10327,7 +10410,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10335,7 +10418,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10343,7 +10426,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10351,7 +10434,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10359,7 +10442,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10367,7 +10450,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10375,7 +10458,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10383,7 +10466,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10391,7 +10474,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10399,7 +10482,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10407,7 +10490,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10415,7 +10498,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10423,7 +10506,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10431,7 +10514,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10439,7 +10522,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10447,7 +10530,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10455,7 +10538,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10463,7 +10546,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10471,7 +10554,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10479,439 +10562,455 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>171</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
         <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s">
-        <v>401</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -10922,10 +11021,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9B6D7-78E7-4AEC-84B2-4ECB63BA8E56}">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10938,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10946,7 +11045,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10954,7 +11053,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10962,7 +11061,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10970,7 +11069,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10978,7 +11077,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10986,7 +11085,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10994,7 +11093,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11002,7 +11101,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11010,7 +11109,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11018,7 +11117,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11026,7 +11125,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11034,7 +11133,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11042,7 +11141,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11050,7 +11149,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11058,7 +11157,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11066,7 +11165,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11074,7 +11173,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11082,7 +11181,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11090,7 +11189,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11098,439 +11197,455 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>250</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B45" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B53" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B57" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B66" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B67" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B68" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B72" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B73" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B74" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B75" t="s">
-        <v>401</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>493</v>
+      </c>
+      <c r="B76" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>495</v>
+      </c>
+      <c r="B77" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16967CF-CCD1-419E-8621-777B4402121A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5510E1D3-A1A1-4B18-A291-9D36EEB91286}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="517">
   <si>
     <t>fairness</t>
   </si>
@@ -823,9 +823,6 @@
     <t>Kripto yuva</t>
   </si>
   <si>
-    <t>Kar Payı</t>
-  </si>
-  <si>
     <t>Yakında</t>
   </si>
   <si>
@@ -1021,12 +1018,6 @@
     <t>Congelación</t>
   </si>
   <si>
-    <t>(Oyun</t>
-  </si>
-  <si>
-    <t>Benim için TRX 1 Token 888)</t>
-  </si>
-  <si>
     <t>Aşama:</t>
   </si>
   <si>
@@ -1039,27 +1030,12 @@
     <t>Toplamda</t>
   </si>
   <si>
-    <t>ağda donmuş -</t>
-  </si>
-  <si>
     <t>Mevcut</t>
   </si>
   <si>
-    <t>çekilmiş</t>
-  </si>
-  <si>
-    <t>Donmak</t>
-  </si>
-  <si>
     <t>Dondurulmuş</t>
   </si>
   <si>
-    <t>eritmek</t>
-  </si>
-  <si>
-    <t>Dondurucu</t>
-  </si>
-  <si>
     <t>1. In order to receive dividends, you should freeze your 888 Tokens before the end of a level and unfreeze them after the level ends.&lt;br&gt;2. Dividends will be accrued only to those 888 Tokens which have been frozen.&lt;br&gt;3. One is the minimum number of 888 Tokens that should be frozen.&lt;br&gt;4. When 888 Tokens are unfrozen after the end of the level, dividends will be accrued automatically by an internal transaction through the smart contract.&lt;br&gt;5. If you already have some frozen tokens on your account when freezing a new portion, the previous portion will be automatically unfrozen and the entire number of tokens will be frozen. If dividends have been accrued to the previous portion of tokens, they will be automatically transferred to the player’s wallet by an internal transaction through the smart contract.&lt;br&gt;6. The processes of freezing and unfreezing 888 Tokens will take several TRX, which is why it is necessary to have them in your wallet when making transactions.</t>
   </si>
   <si>
@@ -1072,12 +1048,6 @@
     <t>1. Para receber dividendos, você deve congelar seus 888 Tokens antes do final de um nível e descongelá-los depois que o nível terminar. &lt;br&gt;2. Os dividendos serão acumulados apenas para os 888 Tokens que foram congelados. &lt;br&gt;3. Um é o número mínimo de 888 tokens que devem ser congelados. &lt;br&gt;4. Quando 888 Tokens são descongelados após o final do nível, os dividendos serão acumulados automaticamente por uma transação interna através do contrato inteligente. &lt;br&gt;5. Se você já tiver alguns tokens congelados em sua conta ao congelar uma nova parte, a parte anterior será automaticamente descongelada e o número inteiro de tokens será congelado. Se os dividendos tiverem sido acumulados na parte anterior dos tokens, eles serão automaticamente transferidos para a carteira do jogador por uma transação interna por meio do contrato inteligente. &lt;br&gt;6. Os processos de congelamento e descongelamento 888 Tokens levarão vários TRX, e é por isso que é necessário tê-los em sua carteira ao fazer transações.</t>
   </si>
   <si>
-    <t>1. Temettü alabilmek için, bir seviye sonundan önce 888 Jetonunuzu dondurmanız ve seviye sona erdikten sonra bunları dondurmanız gerekir. &lt;br&gt;2. Temettüler yalnızca dondurulmuş olan 888 Jetona tahakkuk ettirilecektir. &lt;br&gt;3. Biri, dondurulması gereken minimum 888 Jeton sayısıdır. &lt;br&gt;4. 888 Jetonlar seviyenin bitiminden sonra donduğunda, akıllı kontrat yoluyla bir iç işlemle temettüler otomatik olarak tahakkuk ettirilir. &lt;br&gt;5. Yeni bir bölümü dondururken hesabınızda zaten donmuş belirteçler varsa, önceki bölüm otomatik olarak donacaktır ve belirteçlerin sayısı donmuş olacaktır. Jetonların önceki kısmına temettü biriktirilmişse, akıllı sözleşme aracılığıyla dahili bir işlemle otomatik olarak oyuncunun cüzdanına aktarılır. &lt;br&gt;6. 888 Jetonun dondurulması ve çözülmesi işlemi birkaç TRX alacaktır, bu yüzden işlem yaparken onları cüzdanınızda bulundurmanız gerekir.</t>
-  </si>
-  <si>
-    <t>Lütfen TRONLink cüzdanınıza giriş yapın. TRONLink cüzdanınız kurulu değilse, lütfen &lt;a href="http://u6.gg/gmc5D" target="_blank"&gt;http://u6.gg/gmc5D&lt;/a&gt; adresini ziyaret edin ve krom uzantısını indirin. (TRONbet şimdilik yalnızca Chrome tarayıcısı kullanılarak kullanılabilir)</t>
-  </si>
-  <si>
     <t>Por favor ingrese a su billetera TRONLink. Si no tiene instalada la billetera TRONLink, visite &lt;a href="http://u6.gg/gmc5D" target="_blank"&gt;http://u6.gg/gmc5D&lt;/a&gt; y descargue la extensión de Chrome. (TRONbet solo está disponible usando el navegador Chrome por el momento)</t>
   </si>
   <si>
@@ -1102,9 +1072,6 @@
     <t>Вывести</t>
   </si>
   <si>
-    <t>Çekil</t>
-  </si>
-  <si>
     <t>Los dividendos</t>
   </si>
   <si>
@@ -6841,13 +6808,114 @@
   </si>
   <si>
     <t>Копировать ссылку</t>
+  </si>
+  <si>
+    <t>Temettüler</t>
+  </si>
+  <si>
+    <t>(Oyna</t>
+  </si>
+  <si>
+    <t>1 Token 888 elde etmek için TRX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ağda donmuş - Sizin alacağınız </t>
+  </si>
+  <si>
+    <t>Çekilmiş</t>
+  </si>
+  <si>
+    <t>Dondur</t>
+  </si>
+  <si>
+    <t>Çöz</t>
+  </si>
+  <si>
+    <t>Lütfen TRONLink cüzdanınıza giriş yapın. TRONLink cüzdanınız kurulu değilse, lütfen &lt;a href="http://u6.gg/gmc5D" target="_blank"&gt;http://u6.gg/gmc5D&lt;/a&gt; adresini ziyaret edin ve Chrome uzantısını indirin. (TRONbet şimdilik yalnızca Chrome tarayıcısında kullanılabilir)</t>
+  </si>
+  <si>
+    <t>Dondurmak</t>
+  </si>
+  <si>
+    <t>1. Temettü alabilmek için, bir seviye sonundan önce 888 token'ınızı dondurmanız ve seviye sona erdikten sonra bunları dondurmanız gerekir. &lt;br&gt;2. Temettüler yalnızca dondurulmuş olan 888 Jetona tahakkuk ettirilecektir. &lt;br&gt;3. Biri, dondurulması gereken minimum 888 token sayısıdır. &lt;br&gt;4. 888 token'lar seviyenin bitiminden sonra donduğunda, akıllı sözleşme yoluyla bir iç işlemle temettüler otomatik olarak tahakkuk ettirilir. &lt;br&gt;5. Yeni bir bölümü dondururken hesabınızda zaten donmuş belirteçler varsa, önceki bölüm otomatik olarak donacaktır ve belirteçlerin sayısı donmuş olacaktır. Tokenların önceki kısmına temettü biriktirilmişse, akıllı sözleşme aracılığıyla dahili bir işlemle otomatik olarak oyuncunun cüzdanına aktarılır. &lt;br&gt;6. 888 token'ın dondurulması ve çözülmesi işlemi birkaç TRX alacaktır, bu yüzden işlem yaparken onları cüzdanınızda bulundurmanız gerekir.</t>
+  </si>
+  <si>
+    <t>Token 888  Hakkında</t>
+  </si>
+  <si>
+    <t>Token 888 nedir ve ne için kullanılır?</t>
+  </si>
+  <si>
+    <t>Token 888, TRON blokchain sistemindeki TRC20 token’ıdır. Toplamda 100 000 000 adet Token 888 elde edilebilir (token 888 dağılımı hakkında bilgi almak için bizim WhitePaper’e bakınız). Token 888 sahipleri, elde ettikleri token 888 sayısına göre TRX olarak temettü alacaktır.</t>
+  </si>
+  <si>
+    <t>Temettü nedir? Temettü miktarı niye göre değişir?</t>
+  </si>
+  <si>
+    <t>Temettü 888TRON.com platformunun net gelirinden belirlenecektir. Temettü havuzu 888TRON.com platformu kullanıcılarının kazanç ve kayıplarına göre hep değişecektir.</t>
+  </si>
+  <si>
+    <t>Token 888 satın alabilir miyim?</t>
+  </si>
+  <si>
+    <t>Token 888 direkt satın alınamaz, yalnızca 888TRON.com platformunda oynanarak elde edilebilir. Gelecekte 888 token'ları DEX ve başka kripto para borsalarında kullanımda olacaktır.</t>
+  </si>
+  <si>
+    <t>888 token'larımı çıkarttım, onları nerede görebilirim?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Token 888 Tron link’e eklenebilir. Bunun için Token’lar bölümüne giderek "TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3" adresini yazmanız gerekir. Bu işlemden sonra token’larınızı kullanabilirsiniz.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t>Bana temettü yatırıldıktan sonra benim 888 token'larım yanacak mı?</t>
+  </si>
+  <si>
+    <t>Hayır, token’lar her zaman sizin sahipliğinizde olur; Siz onları kripto para borsalarında bozdurmak isteyebilirsiniz. Sanal cüzdanınızda 888 token’ları olduğu sürece siz 888TRON.com’dan temettü alabileceksiniz. Eğer sizin 888 token’larınız zamanla artmıyorsa, aldığınız temettü payı zamanla azalabilmektedir.</t>
+  </si>
+  <si>
+    <t>Token 888 şu anda ne kadardır? 888 token'larımı şimdi bozdurabilir miyim?</t>
+  </si>
+  <si>
+    <t>‘‘Temettü’’ sekmesinden 888 token’ınız hakkında canlı ortamda bilgi alabilirsiniz. Token 888 bedeli tüm 888TRON.com platformu ve topluluğuna göre belirlenir. Gelecekte token 888 DEX ve benzeri kripto para borsalarında bozdurulabilir.</t>
+  </si>
+  <si>
+    <t>888 token'larımdan temettü nasıl alabilirim?</t>
+  </si>
+  <si>
+    <t>Temettü alabilmek için 888 token’ları çekmek ve dağıtım sürecinin bitimine kadar dondurmak gerekir, bu süreç tamamlandıktan sonra dondurma işlemini iptal etmek gerekir. Dondurulmayan token’lar için temettü alınamaz. Dondurulma işlemi bitiminde temettü akıllı sözleşmeler vasıtasıyla otomatik olarak hesabınıza aktarılır.</t>
+  </si>
+  <si>
+    <t>Zaten mevcuttur!</t>
+  </si>
+  <si>
+    <t>Linki Kopyala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6878,6 +6946,27 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6917,7 +7006,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6929,6 +7018,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7386,7 +7478,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7575,266 +7667,266 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" t="s">
         <v>269</v>
-      </c>
-      <c r="B45" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" t="s">
         <v>275</v>
-      </c>
-      <c r="B48" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" t="s">
         <v>267</v>
-      </c>
-      <c r="B52" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -7847,7 +7939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DEACF1-94B3-4578-991A-39EBFC8C241F}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B77" sqref="A76:B77"/>
     </sheetView>
   </sheetViews>
@@ -8022,7 +8114,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8211,266 +8303,266 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -8657,7 +8749,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8665,7 +8757,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8745,7 +8837,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8753,7 +8845,7 @@
         <v>91</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8761,7 +8853,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8769,7 +8861,7 @@
         <v>96</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8777,7 +8869,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8785,7 +8877,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8793,7 +8885,7 @@
         <v>101</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8801,7 +8893,7 @@
         <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8817,7 +8909,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8825,7 +8917,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8833,7 +8925,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8841,271 +8933,271 @@
         <v>112</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -9292,7 +9384,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9388,7 +9480,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -9396,7 +9488,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -9404,7 +9496,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9412,7 +9504,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9420,7 +9512,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9428,7 +9520,7 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -9436,7 +9528,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -9444,7 +9536,7 @@
         <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -9452,7 +9544,7 @@
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9460,7 +9552,7 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -9468,7 +9560,7 @@
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9476,271 +9568,271 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B71" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -9927,7 +10019,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10116,266 +10208,266 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B60" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -10562,7 +10654,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10738,7 +10830,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1">
@@ -10746,271 +10838,271 @@
         <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B61" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B63" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B66" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B72" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B73" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B74" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B76" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B77" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -11023,8 +11115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9B6D7-78E7-4AEC-84B2-4ECB63BA8E56}">
   <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11033,7 +11125,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -11041,7 +11133,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -11049,7 +11141,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -11057,7 +11149,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -11065,7 +11157,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -11073,7 +11165,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -11081,7 +11173,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -11089,7 +11181,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -11097,7 +11189,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -11105,7 +11197,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -11113,7 +11205,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -11121,7 +11213,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -11129,7 +11221,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -11137,7 +11229,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -11145,7 +11237,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -11153,7 +11245,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -11161,7 +11253,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -11169,7 +11261,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -11177,7 +11269,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -11185,7 +11277,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -11193,15 +11285,15 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -11209,7 +11301,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -11217,7 +11309,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -11225,7 +11317,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -11233,7 +11325,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -11241,7 +11333,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -11249,7 +11341,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -11257,7 +11349,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -11265,7 +11357,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -11273,7 +11365,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -11281,371 +11373,371 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>269</v>
-      </c>
-      <c r="B45" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>275</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B52" s="4" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>278</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B50" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>282</v>
-      </c>
-      <c r="B51" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>267</v>
-      </c>
-      <c r="B52" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>287</v>
-      </c>
-      <c r="B53" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>288</v>
-      </c>
-      <c r="B54" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B55" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>290</v>
-      </c>
-      <c r="B56" t="s">
-        <v>342</v>
+      <c r="B56" s="4" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="A57" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B57" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>292</v>
-      </c>
-      <c r="B58" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>294</v>
-      </c>
-      <c r="B59" t="s">
-        <v>348</v>
+      <c r="B59" s="4" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="A60" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="4" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>365</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="B63" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>367</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="B67" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>369</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="B68" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>371</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="B69" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>373</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="B70" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>375</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="B71" s="8" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>377</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="B72" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>379</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="B73" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>381</v>
-      </c>
-      <c r="B69" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>383</v>
-      </c>
-      <c r="B70" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>385</v>
-      </c>
-      <c r="B71" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>387</v>
-      </c>
-      <c r="B72" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>389</v>
-      </c>
-      <c r="B73" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>391</v>
-      </c>
-      <c r="B74" t="s">
-        <v>392</v>
+      <c r="B74" s="4" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>393</v>
-      </c>
-      <c r="B75" t="s">
-        <v>394</v>
+      <c r="A75" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>493</v>
-      </c>
-      <c r="B76" t="s">
-        <v>494</v>
+      <c r="A76" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>495</v>
-      </c>
-      <c r="B77" t="s">
-        <v>496</v>
+      <c r="A77" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5510E1D3-A1A1-4B18-A291-9D36EEB91286}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8388D2A5-FE27-434D-8CE2-2FF6DB3A5571}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="537">
   <si>
     <t>fairness</t>
   </si>
@@ -6909,6 +6909,66 @@
   </si>
   <si>
     <t>Linki Kopyala</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t>cards</t>
+  </si>
+  <si>
+    <t>draw_under</t>
+  </si>
+  <si>
+    <t>Draw Under</t>
+  </si>
+  <si>
+    <t>draw_equal</t>
+  </si>
+  <si>
+    <t>Draw Equal</t>
+  </si>
+  <si>
+    <t>draw_over</t>
+  </si>
+  <si>
+    <t>Draw Over</t>
+  </si>
+  <si>
+    <t>payout_win</t>
+  </si>
+  <si>
+    <t>Payout on Win:</t>
+  </si>
+  <si>
+    <t>Multiplayer</t>
+  </si>
+  <si>
+    <t>multiplayer</t>
+  </si>
+  <si>
+    <t>Win Chance</t>
+  </si>
+  <si>
+    <t>win_chance</t>
+  </si>
+  <si>
+    <t>noMoney</t>
+  </si>
+  <si>
+    <t>Недастаточно TRX на вашем кошельке.</t>
+  </si>
+  <si>
+    <t>reward_sum</t>
+  </si>
+  <si>
+    <t>Вознаграждение:</t>
+  </si>
+  <si>
+    <t>Not enough TRX in your wallet.</t>
+  </si>
+  <si>
+    <t>Reward:</t>
   </si>
 </sst>
 </file>
@@ -7302,10 +7362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7929,6 +7989,94 @@
         <v>485</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7937,10 +8085,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DEACF1-94B3-4578-991A-39EBFC8C241F}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B77" sqref="A76:B77"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8565,6 +8713,94 @@
         <v>489</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8573,10 +8809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7CA908-3C1E-4D79-9DF6-337B906FBE61}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9200,6 +9436,94 @@
         <v>485</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9208,10 +9532,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAAE106-8CA5-48F8-A5E8-4759856E6D3C}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9835,6 +10159,94 @@
         <v>485</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9843,10 +10255,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C57076-6EA9-455F-BFCD-0976D473D5AF}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10470,6 +10882,94 @@
         <v>485</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10478,10 +10978,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0E21DF-7EF2-4106-9614-349E73C42831}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11105,6 +11605,94 @@
         <v>485</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11113,10 +11701,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9B6D7-78E7-4AEC-84B2-4ECB63BA8E56}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:B77"/>
+      <selection activeCell="A78" sqref="A78:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11740,6 +12328,94 @@
         <v>516</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>528</v>
+      </c>
+      <c r="B87" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>530</v>
+      </c>
+      <c r="B88" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8388D2A5-FE27-434D-8CE2-2FF6DB3A5571}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD43A0D0-EE64-4E80-BB8E-5A1041A62462}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="542">
   <si>
     <t>fairness</t>
   </si>
@@ -367,12 +367,6 @@
     <t>soon</t>
   </si>
   <si>
-    <t>Still have questions? Join our &lt;a href="https://t.me/gamesontron" target="_blank"&gt; telegram group&lt;/a&gt; and we'll be more than happy to help!</t>
-  </si>
-  <si>
-    <t>Есть еще вопросы? Присоединяйтесь к нашей &lt;a href="https://t.me/gamesontron" target="_blank"&gt; телеграмм группе&lt;/a&gt; , и мы будем рады помочь!</t>
-  </si>
-  <si>
     <t>게임 방법</t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>6.如果区域号等于您的预测，那么您将获胜！ 支付= 赌注 * 区域。</t>
   </si>
   <si>
-    <t>还有其他问题吗？ 加入我们的&lt;a href="https://t.me/gamesontron" target="_blank"&gt;电报组&lt;/a&gt;，我们将竭诚为您服务！</t>
-  </si>
-  <si>
     <t>网路错误</t>
   </si>
   <si>
@@ -544,9 +535,6 @@
     <t>6. Si el número de sector es igual a su predicción, entonces GANAS! Pago = CANTIDAD DE LA APUESTA * SECTOR.</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Todavía usted tiene preguntas? ¡Únase a nuestro  &lt;a href="https://t.me/gamesontron" target="_blank"&gt; telegram group&lt;/a&gt; y con gusto le ayudamos! </t>
-  </si>
-  <si>
     <t>Error de red</t>
   </si>
   <si>
@@ -673,9 +661,6 @@
     <t>6. 섹터 넘버가 귀하의 예측과 같게되면 귀하는 이기게 되는 것입니다! 페이아웃 = 베팅 금액 * 섹터.</t>
   </si>
   <si>
-    <t xml:space="preserve">문의상항이 있으시면 고객센터로 연락주십시오! &lt;a href="https://t.me/gamesontron" target="_blank"&gt; </t>
-  </si>
-  <si>
     <t>네트워크 에러입니다.</t>
   </si>
   <si>
@@ -778,9 +763,6 @@
     <t>6. Sektör numarası tahmininize eşitse, o zaman KAZANACAKSINIZ! Ödeme = BAHİS * SEKTÖR.</t>
   </si>
   <si>
-    <t>Sorularınız mı var? Bizim &lt;a href="https://t.me/gamesontron" target="_blank"&gt; telegram grubumuza&lt;/a&gt; katılın, Size yardımcı olmaktan mutluluk duyacaktır!</t>
-  </si>
-  <si>
     <t>Ağ Hatası</t>
   </si>
   <si>
@@ -6969,6 +6951,39 @@
   </si>
   <si>
     <t>Reward:</t>
+  </si>
+  <si>
+    <t>Still have questions? Join our &lt;a href="https://t.me/tron888" target="_blank"&gt; telegram group&lt;/a&gt; and we'll be more than happy to help!</t>
+  </si>
+  <si>
+    <t>Есть еще вопросы? Присоединяйтесь к нашей &lt;a href="https://t.me/tron888" target="_blank"&gt; телеграмм группе&lt;/a&gt; , и мы будем рады помочь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문의상항이 있으시면 고객센터로 연락주십시오! &lt;a href="https://t.me/tron888" target="_blank"&gt; </t>
+  </si>
+  <si>
+    <t>还有其他问题吗？ 加入我们的&lt;a href="https://t.me/tron888" target="_blank"&gt;电报组&lt;/a&gt;，我们将竭诚为您服务！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Todavía usted tiene preguntas? ¡Únase a nuestro  &lt;a href="https://t.me/tron888" target="_blank"&gt; telegram group&lt;/a&gt; y con gusto le ayudamos! </t>
+  </si>
+  <si>
+    <t>Sorularınız mı var? Bizim &lt;a href="https://t.me/tron888" target="_blank"&gt; telegram grubumuza&lt;/a&gt; katılın, Size yardımcı olmaktan mutluluk duyacaktır!</t>
+  </si>
+  <si>
+    <t>how_dice</t>
+  </si>
+  <si>
+    <t>There are 52 cards in the deck. The lowest rank is 2 and the highest rank is A (ace). The player chooses any card from the deck. The player then makes a bet on one of the following three outcomes to happen: the next card (one of the 51 cards left in the deck), which will be chosen randomly, will be a) HIGHER, b) LOWER, or c) EQUAL in rank to the first card drawn from the deck by the player. Suits are matter in this game. If the player guesses the outcome, he or she will win the bet multiplied by the odds which depend on the card and the outcome chosen by the player.</t>
+  </si>
+  <si>
+    <t>В колоде 52 карты. Младшая карта 2, старшая карта А (туз). Игрок выбирает любую карту из колоды. Игрок делает ставку на одно из трех событий: следующая карта - одна из оставшихся 51 карты, розданная случайным образом, будет БОЛЬШЕ, или МЕНЬШЕ или РАВНА по рангу первой карте, выбранной игроком. Масти в игре значение имеют. В случае угадывания события, игроку производится выплата из расчета величины Ставки, умноженной на коэффициент, соответствующий выбранной игроком карте и выбранного события для ставки.</t>
+  </si>
+  <si>
+    <t>Destede 52 kart vardır. En düşük kart 2'dir ve en yüksek kart A (as'tır). Oyuncu desteden herhangi bir kartı seçer. Oyuncu üç etkinlikten birine bahis yapar: sonraki kart - kalan 51 karttan biri, rastgele dağıtıldığında, oyuncu tarafından seçilen karttan BÜYÜKTÜR, KÜÇÜKTÜR VEYA EŞİT olacaktır. Oyunda kağıdın simgelerine dikkat edilmemektedir. Oyuncu Etkinliği kazandığında, oyuncu tarafından seçilen kartına ve bahis için seçilen etkinliğe karşılık gelen katsayı ile çarpılan ödeme yapılmaktadır.</t>
+  </si>
+  <si>
+    <t>Hay 52 cartas en una baraja. La carta más baja es 2, la carta más alta es A (As). El jugador elige cualquier carta de la baraja. El jugador apuesta en uno de los tres eventos: la carta siguiente - una de las 51 cartas restantes, distribuidas al azar, será MÁS, o MENOS o IGUAL en la clasificación la primera carta elegida por el jugador. Los palos importan en el juego. En el caso de adivinar el evento, se paga al jugador según el valor de la apuesta multiplicada por el coeficiente correspondiente a la carta seleccionada del jugador y el evento seleccionado para la apuesta.</t>
   </si>
 </sst>
 </file>
@@ -7362,10 +7377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7490,7 +7505,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7498,7 +7513,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7538,7 +7553,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7546,7 +7561,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7594,7 +7609,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7727,290 +7742,290 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B79" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8031,50 +8046,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B83" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B85" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B86" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -8085,10 +8108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DEACF1-94B3-4578-991A-39EBFC8C241F}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8214,7 +8237,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8222,7 +8245,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8262,7 +8285,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8318,7 +8341,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8358,7 +8381,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8366,7 +8389,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8374,7 +8397,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8382,7 +8405,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8390,7 +8413,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8398,7 +8421,7 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8406,7 +8429,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8414,7 +8437,7 @@
         <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8422,7 +8445,7 @@
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8430,7 +8453,7 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8438,7 +8461,7 @@
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8446,295 +8469,295 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B72" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>476</v>
+      </c>
+      <c r="B76" t="s">
         <v>482</v>
-      </c>
-      <c r="B76" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8755,50 +8778,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -8809,10 +8840,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7CA908-3C1E-4D79-9DF6-337B906FBE61}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B88"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8825,7 +8856,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8833,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8841,7 +8872,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8849,7 +8880,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8857,7 +8888,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8865,7 +8896,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8873,7 +8904,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8881,7 +8912,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8889,7 +8920,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8897,7 +8928,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8905,7 +8936,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8913,7 +8944,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8921,7 +8952,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8929,7 +8960,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8937,7 +8968,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8945,7 +8976,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8953,7 +8984,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8961,7 +8992,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8969,7 +9000,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8977,7 +9008,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8985,7 +9016,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8993,7 +9024,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9001,7 +9032,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9009,7 +9040,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9017,7 +9048,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9025,7 +9056,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -9033,7 +9064,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9041,7 +9072,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>215</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -9049,7 +9080,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9057,7 +9088,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -9065,7 +9096,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -9073,7 +9104,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -9081,7 +9112,7 @@
         <v>91</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -9089,7 +9120,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -9097,7 +9128,7 @@
         <v>96</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9105,7 +9136,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9113,7 +9144,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9121,7 +9152,7 @@
         <v>101</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -9129,7 +9160,7 @@
         <v>102</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -9137,7 +9168,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -9145,7 +9176,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9153,7 +9184,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -9161,7 +9192,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9169,295 +9200,295 @@
         <v>112</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9478,50 +9509,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -9532,10 +9571,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAAE106-8CA5-48F8-A5E8-4759856E6D3C}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B88"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9548,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9556,7 +9595,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9564,7 +9603,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9572,7 +9611,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9580,7 +9619,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9588,7 +9627,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9596,7 +9635,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9604,7 +9643,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9612,7 +9651,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9620,7 +9659,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9628,7 +9667,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9636,7 +9675,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9644,7 +9683,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9652,7 +9691,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9660,7 +9699,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9668,7 +9707,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9676,7 +9715,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9684,7 +9723,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9692,7 +9731,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9700,7 +9739,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9708,7 +9747,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9716,7 +9755,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9724,7 +9763,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9732,7 +9771,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9740,7 +9779,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9748,7 +9787,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -9756,7 +9795,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9764,7 +9803,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -9772,7 +9811,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9780,7 +9819,7 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -9788,7 +9827,7 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -9796,7 +9835,7 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -9804,7 +9843,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -9812,7 +9851,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -9820,7 +9859,7 @@
         <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -9828,7 +9867,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -9836,7 +9875,7 @@
         <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -9844,7 +9883,7 @@
         <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -9852,7 +9891,7 @@
         <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -9860,7 +9899,7 @@
         <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -9868,7 +9907,7 @@
         <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9876,7 +9915,7 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -9884,7 +9923,7 @@
         <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -9892,295 +9931,295 @@
         <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B72" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -10201,50 +10240,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -10255,10 +10302,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C57076-6EA9-455F-BFCD-0976D473D5AF}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B88"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10431,7 +10478,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10439,7 +10486,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10620,290 +10667,290 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B47" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B57" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -10924,50 +10971,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -10978,10 +11033,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0E21DF-7EF2-4106-9614-349E73C42831}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B88"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10994,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11002,7 +11057,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11010,7 +11065,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11018,7 +11073,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11026,7 +11081,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11034,7 +11089,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11042,7 +11097,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11050,7 +11105,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11058,7 +11113,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11066,7 +11121,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11074,7 +11129,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11082,7 +11137,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11090,7 +11145,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11098,7 +11153,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11106,7 +11161,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11114,7 +11169,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11122,7 +11177,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11130,7 +11185,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11138,7 +11193,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11146,7 +11201,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11154,7 +11209,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11162,7 +11217,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11170,7 +11225,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -11178,7 +11233,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -11186,7 +11241,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11194,7 +11249,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -11202,7 +11257,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -11210,7 +11265,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>172</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -11218,7 +11273,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11226,7 +11281,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -11234,7 +11289,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -11242,7 +11297,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -11306,7 +11361,7 @@
         <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -11330,7 +11385,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1">
@@ -11338,295 +11393,295 @@
         <v>112</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B65" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B73" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11647,50 +11702,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -11701,10 +11764,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9B6D7-78E7-4AEC-84B2-4ECB63BA8E56}">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:B88"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11717,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11725,7 +11788,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11733,7 +11796,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11741,7 +11804,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11749,7 +11812,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11757,7 +11820,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11765,7 +11828,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11773,7 +11836,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11781,7 +11844,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11789,7 +11852,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11797,7 +11860,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11805,7 +11868,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11813,7 +11876,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11821,7 +11884,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11829,7 +11892,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11837,7 +11900,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11845,7 +11908,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11853,7 +11916,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11861,7 +11924,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11869,7 +11932,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11877,7 +11940,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11885,7 +11948,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11893,7 +11956,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -11901,7 +11964,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -11909,7 +11972,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11917,7 +11980,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -11925,7 +11988,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -11933,7 +11996,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>250</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -11941,7 +12004,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11949,7 +12012,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -11957,7 +12020,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -11965,7 +12028,7 @@
         <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -11973,7 +12036,7 @@
         <v>91</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -11981,7 +12044,7 @@
         <v>92</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -11989,7 +12052,7 @@
         <v>96</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -11997,7 +12060,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -12005,7 +12068,7 @@
         <v>99</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -12013,7 +12076,7 @@
         <v>101</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -12021,7 +12084,7 @@
         <v>102</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -12029,7 +12092,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -12037,7 +12100,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -12045,7 +12108,7 @@
         <v>109</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -12053,7 +12116,7 @@
         <v>110</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -12061,295 +12124,295 @@
         <v>112</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -12370,50 +12433,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD43A0D0-EE64-4E80-BB8E-5A1041A62462}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128757A5-B2AB-48AD-9AF3-55DD9E27EB2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -6974,16 +6974,16 @@
     <t>how_dice</t>
   </si>
   <si>
-    <t>There are 52 cards in the deck. The lowest rank is 2 and the highest rank is A (ace). The player chooses any card from the deck. The player then makes a bet on one of the following three outcomes to happen: the next card (one of the 51 cards left in the deck), which will be chosen randomly, will be a) HIGHER, b) LOWER, or c) EQUAL in rank to the first card drawn from the deck by the player. Suits are matter in this game. If the player guesses the outcome, he or she will win the bet multiplied by the odds which depend on the card and the outcome chosen by the player.</t>
-  </si>
-  <si>
-    <t>В колоде 52 карты. Младшая карта 2, старшая карта А (туз). Игрок выбирает любую карту из колоды. Игрок делает ставку на одно из трех событий: следующая карта - одна из оставшихся 51 карты, розданная случайным образом, будет БОЛЬШЕ, или МЕНЬШЕ или РАВНА по рангу первой карте, выбранной игроком. Масти в игре значение имеют. В случае угадывания события, игроку производится выплата из расчета величины Ставки, умноженной на коэффициент, соответствующий выбранной игроком карте и выбранного события для ставки.</t>
-  </si>
-  <si>
-    <t>Destede 52 kart vardır. En düşük kart 2'dir ve en yüksek kart A (as'tır). Oyuncu desteden herhangi bir kartı seçer. Oyuncu üç etkinlikten birine bahis yapar: sonraki kart - kalan 51 karttan biri, rastgele dağıtıldığında, oyuncu tarafından seçilen karttan BÜYÜKTÜR, KÜÇÜKTÜR VEYA EŞİT olacaktır. Oyunda kağıdın simgelerine dikkat edilmemektedir. Oyuncu Etkinliği kazandığında, oyuncu tarafından seçilen kartına ve bahis için seçilen etkinliğe karşılık gelen katsayı ile çarpılan ödeme yapılmaktadır.</t>
-  </si>
-  <si>
-    <t>Hay 52 cartas en una baraja. La carta más baja es 2, la carta más alta es A (As). El jugador elige cualquier carta de la baraja. El jugador apuesta en uno de los tres eventos: la carta siguiente - una de las 51 cartas restantes, distribuidas al azar, será MÁS, o MENOS o IGUAL en la clasificación la primera carta elegida por el jugador. Los palos importan en el juego. En el caso de adivinar el evento, se paga al jugador según el valor de la apuesta multiplicada por el coeficiente correspondiente a la carta seleccionada del jugador y el evento seleccionado para la apuesta.</t>
+    <t>4. There are 52 cards in the deck. The lowest rank is 2 and the highest rank is A (ace). The player chooses any card from the deck. The player then makes a bet on one of the following three outcomes to happen: the next card (one of the 51 cards left in the deck), which will be chosen randomly, will be a) HIGHER, b) LOWER, or c) EQUAL in rank to the first card drawn from the deck by the player. Suits are matter in this game. If the player guesses the outcome, he or she will win the bet multiplied by the odds which depend on the card and the outcome chosen by the player.</t>
+  </si>
+  <si>
+    <t>4. В колоде 52 карты. Младшая карта 2, старшая карта А (туз). Игрок выбирает любую карту из колоды. Игрок делает ставку на одно из трех событий: следующая карта - одна из оставшихся 51 карты, розданная случайным образом, будет БОЛЬШЕ, или МЕНЬШЕ или РАВНА по рангу первой карте, выбранной игроком. Масти в игре значение имеют. В случае угадывания события, игроку производится выплата из расчета величины Ставки, умноженной на коэффициент, соответствующий выбранной игроком карте и выбранного события для ставки.</t>
+  </si>
+  <si>
+    <t>4. Hay 52 cartas en una baraja. La carta más baja es 2, la carta más alta es A (As). El jugador elige cualquier carta de la baraja. El jugador apuesta en uno de los tres eventos: la carta siguiente - una de las 51 cartas restantes, distribuidas al azar, será MÁS, o MENOS o IGUAL en la clasificación la primera carta elegida por el jugador. Los palos importan en el juego. En el caso de adivinar el evento, se paga al jugador según el valor de la apuesta multiplicada por el coeficiente correspondiente a la carta seleccionada del jugador y el evento seleccionado para la apuesta.</t>
+  </si>
+  <si>
+    <t>4. Destede 52 kart vardır. En düşük kart 2'dir ve en yüksek kart A (as'tır). Oyuncu desteden herhangi bir kartı seçer. Oyuncu üç etkinlikten birine bahis yapar: sonraki kart - kalan 51 karttan biri, rastgele dağıtıldığında, oyuncu tarafından seçilen karttan BÜYÜKTÜR, KÜÇÜKTÜR VEYA EŞİT olacaktır. Oyunda kağıdın simgelerine dikkat edilmemektedir. Oyuncu Etkinliği kazandığında, oyuncu tarafından seçilen kartına ve bahis için seçilen etkinliğe karşılık gelen katsayı ile çarpılan ödeme yapılmaktadır.</t>
   </si>
 </sst>
 </file>
@@ -7379,8 +7379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:B89"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8111,7 +8111,7 @@
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11753,7 +11753,7 @@
         <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -11766,7 +11766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9B6D7-78E7-4AEC-84B2-4ECB63BA8E56}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -12484,7 +12484,7 @@
         <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128757A5-B2AB-48AD-9AF3-55DD9E27EB2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danila/Desktop/D/Проект mandarin/ICO/TRON/Локализация/17-01-19/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -16,9 +20,15 @@
     <sheet name="es" sheetId="7" r:id="rId6"/>
     <sheet name="tr" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="555">
   <si>
     <t>fairness</t>
   </si>
@@ -6984,13 +6994,52 @@
   </si>
   <si>
     <t>4. Destede 52 kart vardır. En düşük kart 2'dir ve en yüksek kart A (as'tır). Oyuncu desteden herhangi bir kartı seçer. Oyuncu üç etkinlikten birine bahis yapar: sonraki kart - kalan 51 karttan biri, rastgele dağıtıldığında, oyuncu tarafından seçilen karttan BÜYÜKTÜR, KÜÇÜKTÜR VEYA EŞİT olacaktır. Oyunda kağıdın simgelerine dikkat edilmemektedir. Oyuncu Etkinliği kazandığında, oyuncu tarafından seçilen kartına ve bahis için seçilen etkinliğe karşılık gelen katsayı ile çarpılan ödeme yapılmaktadır.</t>
+  </si>
+  <si>
+    <t>Dice52</t>
+  </si>
+  <si>
+    <t>Карта младше</t>
+  </si>
+  <si>
+    <t>Карта равна</t>
+  </si>
+  <si>
+    <t>Карта старше</t>
+  </si>
+  <si>
+    <t>Выплата на выигрыш:</t>
+  </si>
+  <si>
+    <t>Множитель:</t>
+  </si>
+  <si>
+    <t>Шанс Выиграть</t>
+  </si>
+  <si>
+    <t>Ya existen!</t>
+  </si>
+  <si>
+    <t>Copiar el enlace</t>
+  </si>
+  <si>
+    <t>No hay suficiente TRX en tu cartera.</t>
+  </si>
+  <si>
+    <t>Premiar:</t>
+  </si>
+  <si>
+    <t>Previsión</t>
+  </si>
+  <si>
+    <t>Multijugador</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7044,6 +7093,13 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7081,7 +7137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7096,10 +7152,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{E77FFFD7-1747-46F8-8B0C-835F4D5A1B10}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7376,19 +7433,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7396,7 +7453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7404,7 +7461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7412,7 +7469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7420,7 +7477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7428,7 +7485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7436,7 +7493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7444,7 +7501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7452,7 +7509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -7460,7 +7517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -7468,7 +7525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -7476,7 +7533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -7484,7 +7541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7492,7 +7549,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7500,7 +7557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -7508,7 +7565,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -7516,7 +7573,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -7524,7 +7581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7532,7 +7589,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -7540,7 +7597,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -7548,7 +7605,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -7556,7 +7613,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -7564,7 +7621,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -7572,7 +7629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -7580,7 +7637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -7588,7 +7645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -7596,7 +7653,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -7604,7 +7661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -7612,7 +7669,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -7620,7 +7677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -7628,7 +7685,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -7636,7 +7693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -7644,7 +7701,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -7652,7 +7709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -7660,7 +7717,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -7668,7 +7725,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -7676,7 +7733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -7684,7 +7741,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -7692,7 +7749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7700,7 +7757,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7708,7 +7765,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -7716,7 +7773,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -7724,7 +7781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -7732,7 +7789,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -7740,7 +7797,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -7748,7 +7805,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -7756,7 +7813,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -7764,7 +7821,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -7772,7 +7829,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -7780,7 +7837,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -7788,7 +7845,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -7796,7 +7853,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -7804,7 +7861,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -7812,7 +7869,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -7820,7 +7877,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -7828,7 +7885,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -7836,7 +7893,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -7844,7 +7901,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -7852,7 +7909,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -7860,7 +7917,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -7868,7 +7925,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -7876,7 +7933,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -7884,7 +7941,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -7892,7 +7949,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -7900,7 +7957,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -7908,7 +7965,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -7916,7 +7973,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -7924,7 +7981,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -7932,7 +7989,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -7940,7 +7997,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -7948,7 +8005,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -7956,7 +8013,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -7964,7 +8021,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -7972,7 +8029,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -7980,7 +8037,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -7988,7 +8045,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -7996,7 +8053,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -8004,7 +8061,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>525</v>
       </c>
@@ -8012,7 +8069,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>527</v>
       </c>
@@ -8020,15 +8077,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>512</v>
       </c>
       <c r="B80" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -8036,7 +8093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -8044,7 +8101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>513</v>
       </c>
@@ -8052,7 +8109,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>515</v>
       </c>
@@ -8060,7 +8117,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>517</v>
       </c>
@@ -8068,7 +8125,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>519</v>
       </c>
@@ -8076,7 +8133,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -8084,7 +8141,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -8092,7 +8149,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -8107,20 +8164,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DEACF1-94B3-4578-991A-39EBFC8C241F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8128,7 +8185,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8136,7 +8193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8144,7 +8201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -8152,7 +8209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8160,7 +8217,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8168,7 +8225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8176,7 +8233,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8184,7 +8241,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -8192,7 +8249,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -8200,7 +8257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -8208,7 +8265,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -8216,7 +8273,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -8224,7 +8281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -8232,7 +8289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -8240,7 +8297,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8248,7 +8305,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -8256,7 +8313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8264,7 +8321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -8272,7 +8329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -8280,7 +8337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -8288,7 +8345,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -8296,7 +8353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -8304,7 +8361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -8312,7 +8369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8320,7 +8377,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -8328,7 +8385,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -8336,7 +8393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -8344,7 +8401,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -8352,7 +8409,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -8360,7 +8417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -8368,7 +8425,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -8376,7 +8433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -8384,7 +8441,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -8392,7 +8449,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -8400,7 +8457,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -8408,7 +8465,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -8416,7 +8473,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -8424,7 +8481,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -8432,7 +8489,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -8440,7 +8497,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -8448,7 +8505,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -8456,7 +8513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -8464,7 +8521,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -8472,7 +8529,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -8480,7 +8537,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -8488,7 +8545,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -8496,7 +8553,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -8504,7 +8561,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -8512,7 +8569,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -8520,7 +8577,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -8528,7 +8585,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -8536,7 +8593,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -8544,7 +8601,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -8552,7 +8609,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -8560,7 +8617,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -8568,7 +8625,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -8576,7 +8633,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -8584,7 +8641,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -8592,7 +8649,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -8600,7 +8657,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -8608,7 +8665,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -8616,7 +8673,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -8624,7 +8681,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -8632,7 +8689,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -8640,7 +8697,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -8648,7 +8705,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -8656,7 +8713,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -8664,7 +8721,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -8672,7 +8729,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -8680,7 +8737,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -8688,7 +8745,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -8696,7 +8753,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -8704,7 +8761,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -8712,7 +8769,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -8720,7 +8777,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -8728,7 +8785,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -8736,7 +8793,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -8744,7 +8801,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -8752,79 +8809,79 @@
         <v>528</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="B80" s="10" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="B81" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="B82" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="B83" s="10" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="B84" s="10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="B85" s="10" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="B86" s="10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
-      <c r="B87" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="B87" s="10" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
-      <c r="B88" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="B88" s="10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -8839,19 +8896,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7CA908-3C1E-4D79-9DF6-337B906FBE61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8859,7 +8916,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8867,7 +8924,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -8875,7 +8932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -8883,7 +8940,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -8891,7 +8948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -8899,7 +8956,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -8907,7 +8964,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -8915,7 +8972,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -8923,7 +8980,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -8931,7 +8988,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -8939,7 +8996,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -8947,7 +9004,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -8955,7 +9012,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -8963,7 +9020,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -8971,7 +9028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -8979,7 +9036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -8987,7 +9044,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -8995,7 +9052,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -9003,7 +9060,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -9011,7 +9068,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -9019,7 +9076,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -9027,7 +9084,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -9035,7 +9092,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -9043,7 +9100,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -9051,7 +9108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -9059,7 +9116,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -9067,7 +9124,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -9075,7 +9132,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>52</v>
       </c>
@@ -9083,7 +9140,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
@@ -9091,7 +9148,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -9099,7 +9156,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -9107,7 +9164,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -9115,7 +9172,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -9123,7 +9180,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
@@ -9131,7 +9188,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -9139,7 +9196,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
@@ -9147,7 +9204,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
@@ -9155,7 +9212,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
@@ -9163,7 +9220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
@@ -9171,7 +9228,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -9179,7 +9236,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
@@ -9187,7 +9244,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
@@ -9195,7 +9252,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>112</v>
       </c>
@@ -9203,7 +9260,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>262</v>
       </c>
@@ -9211,7 +9268,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>265</v>
       </c>
@@ -9219,7 +9276,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>267</v>
       </c>
@@ -9227,7 +9284,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>268</v>
       </c>
@@ -9235,7 +9292,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>271</v>
       </c>
@@ -9243,7 +9300,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>273</v>
       </c>
@@ -9251,7 +9308,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>275</v>
       </c>
@@ -9259,7 +9316,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>260</v>
       </c>
@@ -9267,7 +9324,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>280</v>
       </c>
@@ -9275,7 +9332,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>281</v>
       </c>
@@ -9283,7 +9340,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>282</v>
       </c>
@@ -9291,7 +9348,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>283</v>
       </c>
@@ -9299,7 +9356,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>286</v>
       </c>
@@ -9307,7 +9364,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>285</v>
       </c>
@@ -9315,7 +9372,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>287</v>
       </c>
@@ -9323,7 +9380,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
@@ -9331,7 +9388,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>348</v>
       </c>
@@ -9339,7 +9396,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -9347,7 +9404,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>352</v>
       </c>
@@ -9355,7 +9412,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>354</v>
       </c>
@@ -9363,7 +9420,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>356</v>
       </c>
@@ -9371,7 +9428,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>358</v>
       </c>
@@ -9379,7 +9436,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>360</v>
       </c>
@@ -9387,7 +9444,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>362</v>
       </c>
@@ -9395,7 +9452,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>364</v>
       </c>
@@ -9403,7 +9460,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>366</v>
       </c>
@@ -9411,7 +9468,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>368</v>
       </c>
@@ -9419,7 +9476,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>370</v>
       </c>
@@ -9427,7 +9484,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>372</v>
       </c>
@@ -9435,7 +9492,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>374</v>
       </c>
@@ -9443,7 +9500,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>376</v>
       </c>
@@ -9451,7 +9508,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -9459,7 +9516,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -9467,7 +9524,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -9475,7 +9532,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -9483,15 +9540,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -9499,7 +9556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -9507,7 +9564,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -9515,7 +9572,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -9523,7 +9580,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -9531,7 +9588,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -9539,7 +9596,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -9547,7 +9604,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -9555,7 +9612,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -9570,19 +9627,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAAE106-8CA5-48F8-A5E8-4759856E6D3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9590,7 +9647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9598,7 +9655,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9606,7 +9663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9614,7 +9671,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9622,7 +9679,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9630,7 +9687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9638,7 +9695,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9646,7 +9703,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -9654,7 +9711,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -9662,7 +9719,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9670,7 +9727,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -9678,7 +9735,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -9686,7 +9743,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9694,7 +9751,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9702,7 +9759,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9710,7 +9767,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -9718,7 +9775,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -9726,7 +9783,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -9734,7 +9791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -9742,7 +9799,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -9750,7 +9807,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -9758,7 +9815,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -9766,7 +9823,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -9774,7 +9831,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -9782,7 +9839,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -9790,7 +9847,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -9798,7 +9855,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -9806,7 +9863,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -9814,7 +9871,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -9822,7 +9879,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -9830,7 +9887,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -9838,7 +9895,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -9846,7 +9903,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -9854,7 +9911,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -9862,7 +9919,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -9870,7 +9927,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -9878,7 +9935,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -9886,7 +9943,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -9894,7 +9951,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -9902,7 +9959,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -9910,7 +9967,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -9918,7 +9975,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -9926,7 +9983,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -9934,7 +9991,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -9942,7 +9999,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -9950,7 +10007,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -9958,7 +10015,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -9966,7 +10023,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -9974,7 +10031,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -9982,7 +10039,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -9990,7 +10047,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -9998,7 +10055,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -10006,7 +10063,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -10014,7 +10071,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -10022,7 +10079,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -10030,7 +10087,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -10038,7 +10095,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -10046,7 +10103,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -10054,7 +10111,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -10062,7 +10119,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -10070,7 +10127,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -10078,7 +10135,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -10086,7 +10143,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -10094,7 +10151,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -10102,7 +10159,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -10110,7 +10167,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -10118,7 +10175,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -10126,7 +10183,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -10134,7 +10191,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -10142,7 +10199,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -10150,7 +10207,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -10158,7 +10215,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -10166,7 +10223,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -10174,7 +10231,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -10182,7 +10239,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -10190,7 +10247,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -10198,7 +10255,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -10206,7 +10263,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -10214,15 +10271,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -10230,7 +10287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -10238,7 +10295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -10246,7 +10303,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -10254,7 +10311,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -10262,7 +10319,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -10270,7 +10327,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -10278,7 +10335,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -10286,7 +10343,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -10301,19 +10358,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C57076-6EA9-455F-BFCD-0976D473D5AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10321,7 +10378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10329,7 +10386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10337,7 +10394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10345,7 +10402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10353,7 +10410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -10361,7 +10418,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -10369,7 +10426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10377,7 +10434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -10385,7 +10442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -10393,7 +10450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -10401,7 +10458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -10409,7 +10466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -10417,7 +10474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -10425,7 +10482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10433,7 +10490,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -10441,7 +10498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -10449,7 +10506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -10457,7 +10514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -10465,7 +10522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -10473,7 +10530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -10481,7 +10538,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -10489,7 +10546,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -10497,7 +10554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -10505,7 +10562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -10513,7 +10570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -10521,7 +10578,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -10529,7 +10586,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -10537,7 +10594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -10545,7 +10602,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -10553,7 +10610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -10561,7 +10618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -10569,7 +10626,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -10577,7 +10634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -10585,7 +10642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -10593,7 +10650,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -10601,7 +10658,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -10609,7 +10666,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -10617,7 +10674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -10625,7 +10682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -10633,7 +10690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -10641,7 +10698,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -10649,7 +10706,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -10657,7 +10714,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -10665,7 +10722,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -10673,7 +10730,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -10681,7 +10738,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -10689,7 +10746,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -10697,7 +10754,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -10705,7 +10762,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -10713,7 +10770,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -10721,7 +10778,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -10729,7 +10786,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -10737,7 +10794,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -10745,7 +10802,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -10753,7 +10810,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -10761,7 +10818,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -10769,7 +10826,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -10777,7 +10834,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -10785,7 +10842,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -10793,7 +10850,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -10801,7 +10858,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -10809,7 +10866,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -10817,7 +10874,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -10825,7 +10882,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -10833,7 +10890,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -10841,7 +10898,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -10849,7 +10906,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -10857,7 +10914,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -10865,7 +10922,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -10873,7 +10930,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -10881,7 +10938,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -10889,7 +10946,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -10897,7 +10954,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -10905,7 +10962,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -10913,7 +10970,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -10921,7 +10978,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -10929,7 +10986,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -10937,7 +10994,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -10945,7 +11002,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
@@ -10953,7 +11010,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -10961,7 +11018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -10969,7 +11026,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -10977,7 +11034,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -10985,7 +11042,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -10993,7 +11050,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -11001,7 +11058,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -11009,7 +11066,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -11017,7 +11074,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -11032,19 +11089,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0E21DF-7EF2-4106-9614-349E73C42831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11052,7 +11109,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11060,7 +11117,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11068,7 +11125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11076,7 +11133,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11084,7 +11141,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -11092,7 +11149,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11100,7 +11157,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11108,7 +11165,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -11116,7 +11173,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -11124,7 +11181,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -11132,7 +11189,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -11140,7 +11197,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -11148,7 +11205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -11156,7 +11213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -11164,7 +11221,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -11172,7 +11229,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -11180,7 +11237,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -11188,7 +11245,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -11196,7 +11253,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -11204,7 +11261,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -11212,7 +11269,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -11220,7 +11277,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -11228,7 +11285,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -11236,7 +11293,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -11244,7 +11301,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -11252,7 +11309,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -11260,7 +11317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -11268,7 +11325,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -11276,7 +11333,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -11284,7 +11341,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -11292,7 +11349,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -11300,7 +11357,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -11308,7 +11365,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -11316,7 +11373,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -11324,7 +11381,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -11332,7 +11389,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -11340,7 +11397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -11348,7 +11405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -11356,7 +11413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -11364,7 +11421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -11372,7 +11429,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1">
+    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -11380,7 +11437,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+    <row r="43" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -11388,7 +11445,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1">
+    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>112</v>
       </c>
@@ -11396,7 +11453,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1">
+    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
@@ -11404,7 +11461,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1">
+    <row r="46" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>265</v>
       </c>
@@ -11412,7 +11469,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1">
+    <row r="47" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>267</v>
       </c>
@@ -11420,7 +11477,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1">
+    <row r="48" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>268</v>
       </c>
@@ -11428,7 +11485,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1">
+    <row r="49" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>271</v>
       </c>
@@ -11436,7 +11493,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1">
+    <row r="50" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>346</v>
       </c>
@@ -11444,7 +11501,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1">
+    <row r="51" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>275</v>
       </c>
@@ -11452,7 +11509,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1">
+    <row r="52" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>260</v>
       </c>
@@ -11460,7 +11517,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1">
+    <row r="53" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>280</v>
       </c>
@@ -11468,7 +11525,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1">
+    <row r="54" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>281</v>
       </c>
@@ -11476,7 +11533,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1">
+    <row r="55" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>282</v>
       </c>
@@ -11484,7 +11541,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1">
+    <row r="56" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -11492,7 +11549,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1">
+    <row r="57" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>286</v>
       </c>
@@ -11500,7 +11557,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1">
+    <row r="58" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
@@ -11508,7 +11565,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1">
+    <row r="59" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>287</v>
       </c>
@@ -11516,7 +11573,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1">
+    <row r="60" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>338</v>
       </c>
@@ -11524,7 +11581,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -11532,7 +11589,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -11540,7 +11597,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -11548,7 +11605,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -11556,7 +11613,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -11564,7 +11621,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -11572,7 +11629,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -11580,7 +11637,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -11588,7 +11645,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -11596,7 +11653,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -11604,7 +11661,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -11612,7 +11669,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -11620,7 +11677,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -11628,7 +11685,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -11636,7 +11693,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -11644,63 +11701,63 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -11708,7 +11765,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -11716,7 +11773,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -11724,7 +11781,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -11732,15 +11789,15 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -11748,7 +11805,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -11763,19 +11820,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D9B6D7-78E7-4AEC-84B2-4ECB63BA8E56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11783,7 +11840,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -11791,7 +11848,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -11799,7 +11856,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -11807,7 +11864,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -11815,7 +11872,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -11823,7 +11880,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -11831,7 +11888,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -11839,7 +11896,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -11847,7 +11904,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -11855,7 +11912,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -11863,7 +11920,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -11871,7 +11928,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -11879,7 +11936,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -11887,7 +11944,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -11895,7 +11952,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -11903,7 +11960,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -11911,7 +11968,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -11919,7 +11976,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -11927,7 +11984,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -11935,7 +11992,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -11943,7 +12000,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -11951,7 +12008,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -11959,7 +12016,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -11967,7 +12024,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -11975,7 +12032,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -11983,7 +12040,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -11991,7 +12048,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -11999,7 +12056,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>52</v>
       </c>
@@ -12007,7 +12064,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
@@ -12015,7 +12072,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -12023,7 +12080,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -12031,7 +12088,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -12039,7 +12096,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -12047,7 +12104,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
@@ -12055,7 +12112,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -12063,7 +12120,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
@@ -12071,7 +12128,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
@@ -12079,7 +12136,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
@@ -12087,7 +12144,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
@@ -12095,7 +12152,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -12103,7 +12160,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
@@ -12111,7 +12168,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
@@ -12119,7 +12176,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>112</v>
       </c>
@@ -12127,7 +12184,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>262</v>
       </c>
@@ -12135,7 +12192,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>265</v>
       </c>
@@ -12143,7 +12200,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>267</v>
       </c>
@@ -12151,7 +12208,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>268</v>
       </c>
@@ -12159,7 +12216,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>271</v>
       </c>
@@ -12167,7 +12224,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>273</v>
       </c>
@@ -12175,7 +12232,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>275</v>
       </c>
@@ -12183,7 +12240,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>260</v>
       </c>
@@ -12191,7 +12248,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>280</v>
       </c>
@@ -12199,7 +12256,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>281</v>
       </c>
@@ -12207,7 +12264,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>282</v>
       </c>
@@ -12215,7 +12272,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>283</v>
       </c>
@@ -12223,7 +12280,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>286</v>
       </c>
@@ -12231,7 +12288,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>285</v>
       </c>
@@ -12239,7 +12296,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>287</v>
       </c>
@@ -12247,7 +12304,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
@@ -12255,7 +12312,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>348</v>
       </c>
@@ -12263,7 +12320,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -12271,7 +12328,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>352</v>
       </c>
@@ -12279,7 +12336,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>354</v>
       </c>
@@ -12287,7 +12344,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>356</v>
       </c>
@@ -12295,7 +12352,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>358</v>
       </c>
@@ -12303,7 +12360,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>360</v>
       </c>
@@ -12311,7 +12368,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>362</v>
       </c>
@@ -12319,7 +12376,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>364</v>
       </c>
@@ -12327,7 +12384,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>366</v>
       </c>
@@ -12335,7 +12392,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>368</v>
       </c>
@@ -12343,7 +12400,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>370</v>
       </c>
@@ -12351,7 +12408,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>372</v>
       </c>
@@ -12359,7 +12416,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>374</v>
       </c>
@@ -12367,7 +12424,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>376</v>
       </c>
@@ -12375,7 +12432,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>476</v>
       </c>
@@ -12383,7 +12440,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>478</v>
       </c>
@@ -12391,7 +12448,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -12399,7 +12456,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -12407,15 +12464,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -12423,7 +12480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -12431,7 +12488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -12439,7 +12496,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -12447,7 +12504,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -12455,7 +12512,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -12463,7 +12520,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -12471,7 +12528,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -12479,7 +12536,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>537</v>
       </c>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danila/Desktop/D/Проект mandarin/ICO/TRON/Локализация/17-01-19/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B5981-9FD6-4D5F-B9EF-F17AD3D11291}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="11480" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -25,11 +21,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -6987,9 +6983,6 @@
     <t>4. There are 52 cards in the deck. The lowest rank is 2 and the highest rank is A (ace). The player chooses any card from the deck. The player then makes a bet on one of the following three outcomes to happen: the next card (one of the 51 cards left in the deck), which will be chosen randomly, will be a) HIGHER, b) LOWER, or c) EQUAL in rank to the first card drawn from the deck by the player. Suits are matter in this game. If the player guesses the outcome, he or she will win the bet multiplied by the odds which depend on the card and the outcome chosen by the player.</t>
   </si>
   <si>
-    <t>4. В колоде 52 карты. Младшая карта 2, старшая карта А (туз). Игрок выбирает любую карту из колоды. Игрок делает ставку на одно из трех событий: следующая карта - одна из оставшихся 51 карты, розданная случайным образом, будет БОЛЬШЕ, или МЕНЬШЕ или РАВНА по рангу первой карте, выбранной игроком. Масти в игре значение имеют. В случае угадывания события, игроку производится выплата из расчета величины Ставки, умноженной на коэффициент, соответствующий выбранной игроком карте и выбранного события для ставки.</t>
-  </si>
-  <si>
     <t>4. Hay 52 cartas en una baraja. La carta más baja es 2, la carta más alta es A (As). El jugador elige cualquier carta de la baraja. El jugador apuesta en uno de los tres eventos: la carta siguiente - una de las 51 cartas restantes, distribuidas al azar, será MÁS, o MENOS o IGUAL en la clasificación la primera carta elegida por el jugador. Los palos importan en el juego. En el caso de adivinar el evento, se paga al jugador según el valor de la apuesta multiplicada por el coeficiente correspondiente a la carta seleccionada del jugador y el evento seleccionado para la apuesta.</t>
   </si>
   <si>
@@ -7033,13 +7026,16 @@
   </si>
   <si>
     <t>Multijugador</t>
+  </si>
+  <si>
+    <t>4. В колоде 52 карты. Младшая карта 2, старшая карта А (туз). Игрок выбирает любую карту из колоды. Игрок делает ставку на одно из трех событий: следующая карта - одна из 52 карт, розданная случайным образом, будет БОЛЬШЕ, или МЕНЬШЕ или РАВНА по рангу первой карте, выбранной игроком. Масти в игре значение имеют. В случае угадывания события, игроку производится выплата из расчета величины Ставки, умноженной на коэффициент, соответствующий выбранной игроком карте и выбранного события для ставки.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7155,8 +7151,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7433,19 +7429,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7453,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7461,7 +7457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7469,7 +7465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -7477,7 +7473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7485,7 +7481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -7493,7 +7489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7501,7 +7497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -7509,7 +7505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -7517,7 +7513,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -7525,7 +7521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -7533,7 +7529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -7541,7 +7537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7549,7 +7545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7557,7 +7553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -7565,7 +7561,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -7573,7 +7569,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -7581,7 +7577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -7589,7 +7585,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -7597,7 +7593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -7605,7 +7601,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -7613,7 +7609,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -7621,7 +7617,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -7629,7 +7625,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -7637,7 +7633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -7645,7 +7641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -7653,7 +7649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -7661,7 +7657,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -7669,7 +7665,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -7677,7 +7673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -7685,7 +7681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -7693,7 +7689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -7701,7 +7697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -7709,7 +7705,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -7717,7 +7713,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -7725,7 +7721,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -7733,7 +7729,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -7741,7 +7737,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -7749,7 +7745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7757,7 +7753,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7765,7 +7761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -7773,7 +7769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -7781,7 +7777,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -7789,7 +7785,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -7797,7 +7793,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -7805,7 +7801,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -7813,7 +7809,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -7821,7 +7817,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -7829,7 +7825,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -7837,7 +7833,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -7845,7 +7841,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -7861,7 +7857,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -7869,7 +7865,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -7877,7 +7873,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -7885,7 +7881,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -7893,7 +7889,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -7901,7 +7897,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -7909,7 +7905,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -7917,7 +7913,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -7925,7 +7921,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -7933,7 +7929,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -7941,7 +7937,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -7949,7 +7945,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -7957,7 +7953,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -7965,7 +7961,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -7973,7 +7969,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -7981,7 +7977,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -7989,7 +7985,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -8005,7 +8001,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -8013,7 +8009,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -8021,7 +8017,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -8029,7 +8025,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -8037,7 +8033,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -8045,7 +8041,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -8053,7 +8049,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -8061,7 +8057,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>525</v>
       </c>
@@ -8069,7 +8065,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>527</v>
       </c>
@@ -8077,15 +8073,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>512</v>
       </c>
       <c r="B80" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -8093,7 +8089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>21</v>
       </c>
@@ -8101,7 +8097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>513</v>
       </c>
@@ -8109,7 +8105,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>515</v>
       </c>
@@ -8117,7 +8113,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>517</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>519</v>
       </c>
@@ -8133,7 +8129,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -8141,7 +8137,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -8149,7 +8145,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -8164,20 +8160,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8185,7 +8181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8193,7 +8189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8201,7 +8197,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -8209,7 +8205,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -8217,7 +8213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -8225,7 +8221,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -8233,7 +8229,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -8241,7 +8237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -8249,7 +8245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -8257,7 +8253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -8265,7 +8261,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -8273,7 +8269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -8281,7 +8277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -8289,7 +8285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -8297,7 +8293,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8305,7 +8301,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -8313,7 +8309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8321,7 +8317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -8329,7 +8325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -8337,7 +8333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -8345,7 +8341,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -8353,7 +8349,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -8361,7 +8357,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -8369,7 +8365,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -8377,7 +8373,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -8385,7 +8381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -8393,7 +8389,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -8401,7 +8397,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -8409,7 +8405,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -8417,7 +8413,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -8425,7 +8421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -8433,7 +8429,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -8441,7 +8437,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -8449,7 +8445,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -8457,7 +8453,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -8465,7 +8461,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -8473,7 +8469,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -8481,7 +8477,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -8489,7 +8485,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -8497,7 +8493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -8505,7 +8501,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -8513,7 +8509,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -8521,7 +8517,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -8529,7 +8525,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -8537,7 +8533,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -8545,7 +8541,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -8553,7 +8549,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -8561,7 +8557,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -8569,7 +8565,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -8577,7 +8573,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -8585,7 +8581,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -8593,7 +8589,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -8601,7 +8597,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -8609,7 +8605,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -8617,7 +8613,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -8625,7 +8621,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -8633,7 +8629,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -8641,7 +8637,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -8649,7 +8645,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -8657,7 +8653,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -8665,7 +8661,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -8673,7 +8669,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -8681,7 +8677,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -8689,7 +8685,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -8697,7 +8693,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -8705,7 +8701,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -8713,7 +8709,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -8721,7 +8717,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -8729,7 +8725,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -8737,7 +8733,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -8745,7 +8741,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -8753,7 +8749,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -8761,7 +8757,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -8769,7 +8765,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -8777,7 +8773,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -8785,7 +8781,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -8793,7 +8789,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -8801,7 +8797,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -8809,15 +8805,15 @@
         <v>528</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -8825,7 +8821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -8833,60 +8829,60 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8896,19 +8892,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -8916,7 +8912,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8924,7 +8920,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -8932,7 +8928,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -8940,7 +8936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -8948,7 +8944,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -8956,7 +8952,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -8964,7 +8960,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -8972,7 +8968,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -8980,7 +8976,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -8988,7 +8984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -8996,7 +8992,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -9004,7 +9000,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -9020,7 +9016,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -9028,7 +9024,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -9044,7 +9040,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -9052,7 +9048,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -9060,7 +9056,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -9068,7 +9064,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -9076,7 +9072,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -9084,7 +9080,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -9092,7 +9088,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -9100,7 +9096,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -9108,7 +9104,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -9116,7 +9112,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -9124,7 +9120,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -9132,7 +9128,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>52</v>
       </c>
@@ -9140,7 +9136,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
@@ -9148,7 +9144,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -9156,7 +9152,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -9164,7 +9160,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -9172,7 +9168,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -9180,7 +9176,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
@@ -9188,7 +9184,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -9196,7 +9192,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
@@ -9204,7 +9200,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
@@ -9212,7 +9208,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
@@ -9220,7 +9216,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
@@ -9228,7 +9224,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -9236,7 +9232,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
@@ -9244,7 +9240,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
@@ -9252,7 +9248,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>112</v>
       </c>
@@ -9260,7 +9256,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>262</v>
       </c>
@@ -9268,7 +9264,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>265</v>
       </c>
@@ -9276,7 +9272,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>267</v>
       </c>
@@ -9284,7 +9280,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>268</v>
       </c>
@@ -9292,7 +9288,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>271</v>
       </c>
@@ -9300,7 +9296,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>273</v>
       </c>
@@ -9308,7 +9304,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>275</v>
       </c>
@@ -9316,7 +9312,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>260</v>
       </c>
@@ -9324,7 +9320,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>280</v>
       </c>
@@ -9332,7 +9328,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>281</v>
       </c>
@@ -9340,7 +9336,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>282</v>
       </c>
@@ -9348,7 +9344,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>283</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>286</v>
       </c>
@@ -9364,7 +9360,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>285</v>
       </c>
@@ -9372,7 +9368,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>287</v>
       </c>
@@ -9380,7 +9376,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
@@ -9388,7 +9384,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>348</v>
       </c>
@@ -9396,7 +9392,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -9404,7 +9400,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>352</v>
       </c>
@@ -9412,7 +9408,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>354</v>
       </c>
@@ -9420,7 +9416,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>356</v>
       </c>
@@ -9428,7 +9424,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>358</v>
       </c>
@@ -9436,7 +9432,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>360</v>
       </c>
@@ -9444,7 +9440,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>362</v>
       </c>
@@ -9452,7 +9448,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>364</v>
       </c>
@@ -9460,7 +9456,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>366</v>
       </c>
@@ -9468,7 +9464,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>368</v>
       </c>
@@ -9476,7 +9472,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>370</v>
       </c>
@@ -9484,7 +9480,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>372</v>
       </c>
@@ -9492,7 +9488,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>374</v>
       </c>
@@ -9500,7 +9496,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>376</v>
       </c>
@@ -9508,7 +9504,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -9516,7 +9512,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -9524,7 +9520,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -9532,7 +9528,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -9540,15 +9536,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -9556,7 +9552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -9564,7 +9560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -9572,7 +9568,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -9580,7 +9576,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -9588,7 +9584,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -9596,7 +9592,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -9604,7 +9600,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -9612,7 +9608,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -9627,19 +9623,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9647,7 +9643,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9655,7 +9651,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9663,7 +9659,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9671,7 +9667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9679,7 +9675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -9687,7 +9683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -9695,7 +9691,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -9703,7 +9699,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -9711,7 +9707,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -9719,7 +9715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -9727,7 +9723,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -9735,7 +9731,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -9743,7 +9739,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9751,7 +9747,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -9759,7 +9755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9767,7 +9763,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -9775,7 +9771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -9783,7 +9779,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -9791,7 +9787,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -9799,7 +9795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -9807,7 +9803,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -9815,7 +9811,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -9823,7 +9819,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -9831,7 +9827,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -9839,7 +9835,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -9847,7 +9843,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -9855,7 +9851,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -9863,7 +9859,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -9871,7 +9867,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -9879,7 +9875,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -9887,7 +9883,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -9895,7 +9891,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -9903,7 +9899,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -9911,7 +9907,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -9919,7 +9915,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -9927,7 +9923,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -9935,7 +9931,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -9943,7 +9939,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -9951,7 +9947,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -9959,7 +9955,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -9967,7 +9963,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -9975,7 +9971,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -9983,7 +9979,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -9991,7 +9987,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -9999,7 +9995,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -10007,7 +10003,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -10015,7 +10011,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -10023,7 +10019,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -10031,7 +10027,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -10039,7 +10035,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -10047,7 +10043,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -10055,7 +10051,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -10063,7 +10059,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -10071,7 +10067,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -10079,7 +10075,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -10087,7 +10083,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -10095,7 +10091,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -10103,7 +10099,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -10111,7 +10107,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -10127,7 +10123,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -10135,7 +10131,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -10143,7 +10139,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -10151,7 +10147,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -10159,7 +10155,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -10167,7 +10163,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -10175,7 +10171,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -10183,7 +10179,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -10191,7 +10187,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -10199,7 +10195,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -10207,7 +10203,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -10215,7 +10211,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -10223,7 +10219,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -10231,7 +10227,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -10239,7 +10235,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -10247,7 +10243,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -10255,7 +10251,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -10263,7 +10259,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -10271,15 +10267,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -10287,7 +10283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -10295,7 +10291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -10303,7 +10299,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -10311,7 +10307,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -10319,7 +10315,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -10327,7 +10323,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -10335,7 +10331,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -10343,7 +10339,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -10358,19 +10354,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10386,7 +10382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10394,7 +10390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10402,7 +10398,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10410,7 +10406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -10418,7 +10414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -10426,7 +10422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -10434,7 +10430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -10442,7 +10438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -10450,7 +10446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -10458,7 +10454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -10466,7 +10462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -10474,7 +10470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -10482,7 +10478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -10490,7 +10486,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -10498,7 +10494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -10506,7 +10502,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -10514,7 +10510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -10522,7 +10518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -10530,7 +10526,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -10538,7 +10534,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -10546,7 +10542,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -10554,7 +10550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -10562,7 +10558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -10570,7 +10566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -10578,7 +10574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -10586,7 +10582,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -10594,7 +10590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -10602,7 +10598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -10610,7 +10606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -10626,7 +10622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -10634,7 +10630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -10642,7 +10638,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -10650,7 +10646,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -10658,7 +10654,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -10666,7 +10662,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -10674,7 +10670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -10682,7 +10678,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -10698,7 +10694,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -10706,7 +10702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -10714,7 +10710,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>112</v>
       </c>
@@ -10722,7 +10718,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>262</v>
       </c>
@@ -10730,7 +10726,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -10738,7 +10734,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>267</v>
       </c>
@@ -10746,7 +10742,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>268</v>
       </c>
@@ -10754,7 +10750,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>271</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>273</v>
       </c>
@@ -10770,7 +10766,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>275</v>
       </c>
@@ -10778,7 +10774,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -10786,7 +10782,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>280</v>
       </c>
@@ -10794,7 +10790,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>281</v>
       </c>
@@ -10802,7 +10798,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -10810,7 +10806,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>283</v>
       </c>
@@ -10818,7 +10814,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>286</v>
       </c>
@@ -10826,7 +10822,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>285</v>
       </c>
@@ -10834,7 +10830,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>287</v>
       </c>
@@ -10842,7 +10838,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>338</v>
       </c>
@@ -10850,7 +10846,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -10858,7 +10854,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -10866,7 +10862,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -10882,7 +10878,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -10890,7 +10886,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -10898,7 +10894,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -10906,7 +10902,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -10914,7 +10910,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -10922,7 +10918,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -10938,7 +10934,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -10946,7 +10942,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -10954,7 +10950,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -10962,7 +10958,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -10970,7 +10966,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
@@ -10978,7 +10974,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
@@ -10986,7 +10982,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -10994,7 +10990,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
@@ -11010,7 +11006,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -11018,7 +11014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -11026,7 +11022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -11034,7 +11030,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -11042,7 +11038,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -11050,7 +11046,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -11058,7 +11054,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -11066,7 +11062,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -11074,7 +11070,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
@@ -11089,19 +11085,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11109,7 +11105,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11117,7 +11113,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11125,7 +11121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -11133,7 +11129,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -11141,7 +11137,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -11149,7 +11145,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -11157,7 +11153,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -11165,7 +11161,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -11173,7 +11169,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -11181,7 +11177,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -11189,7 +11185,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -11197,7 +11193,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -11205,7 +11201,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -11213,7 +11209,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -11221,7 +11217,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -11229,7 +11225,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -11237,7 +11233,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -11245,7 +11241,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -11253,7 +11249,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -11261,7 +11257,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -11269,7 +11265,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -11277,7 +11273,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -11285,7 +11281,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -11293,7 +11289,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -11301,7 +11297,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -11309,7 +11305,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -11317,7 +11313,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -11325,7 +11321,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -11333,7 +11329,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -11341,7 +11337,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -11349,7 +11345,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -11357,7 +11353,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -11365,7 +11361,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -11373,7 +11369,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -11381,7 +11377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -11389,7 +11385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -11397,7 +11393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -11405,7 +11401,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -11413,7 +11409,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -11421,7 +11417,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -11429,7 +11425,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="15.75" thickBot="1">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -11437,7 +11433,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
@@ -11445,7 +11441,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>112</v>
       </c>
@@ -11453,7 +11449,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>262</v>
       </c>
@@ -11461,7 +11457,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="15.75" thickBot="1">
       <c r="A46" s="2" t="s">
         <v>265</v>
       </c>
@@ -11469,7 +11465,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1">
       <c r="A47" s="2" t="s">
         <v>267</v>
       </c>
@@ -11477,7 +11473,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>268</v>
       </c>
@@ -11485,7 +11481,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>271</v>
       </c>
@@ -11493,7 +11489,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>346</v>
       </c>
@@ -11501,7 +11497,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>275</v>
       </c>
@@ -11509,7 +11505,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
         <v>260</v>
       </c>
@@ -11517,7 +11513,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1">
       <c r="A53" s="2" t="s">
         <v>280</v>
       </c>
@@ -11525,7 +11521,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>281</v>
       </c>
@@ -11533,7 +11529,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="2" t="s">
         <v>282</v>
       </c>
@@ -11541,7 +11537,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
         <v>283</v>
       </c>
@@ -11549,7 +11545,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
         <v>286</v>
       </c>
@@ -11557,7 +11553,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="15.75" thickBot="1">
       <c r="A58" s="2" t="s">
         <v>285</v>
       </c>
@@ -11565,7 +11561,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>287</v>
       </c>
@@ -11573,7 +11569,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
         <v>338</v>
       </c>
@@ -11581,7 +11577,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>348</v>
       </c>
@@ -11589,7 +11585,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>350</v>
       </c>
@@ -11597,7 +11593,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>352</v>
       </c>
@@ -11605,7 +11601,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>354</v>
       </c>
@@ -11613,7 +11609,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -11621,7 +11617,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>358</v>
       </c>
@@ -11629,7 +11625,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>360</v>
       </c>
@@ -11637,7 +11633,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>362</v>
       </c>
@@ -11645,7 +11641,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>364</v>
       </c>
@@ -11653,7 +11649,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>366</v>
       </c>
@@ -11661,7 +11657,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>368</v>
       </c>
@@ -11669,7 +11665,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>370</v>
       </c>
@@ -11677,7 +11673,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -11685,7 +11681,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>374</v>
       </c>
@@ -11693,7 +11689,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -11701,55 +11697,55 @@
         <v>377</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>476</v>
       </c>
       <c r="B76" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>478</v>
       </c>
       <c r="B77" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -11757,7 +11753,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -11765,7 +11761,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -11773,7 +11769,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -11781,7 +11777,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -11789,15 +11785,15 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -11805,12 +11801,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -11820,19 +11816,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -11840,7 +11836,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -11848,7 +11844,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -11856,7 +11852,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -11864,7 +11860,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -11872,7 +11868,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -11880,7 +11876,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -11896,7 +11892,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -11904,7 +11900,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -11912,7 +11908,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -11920,7 +11916,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -11928,7 +11924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -11936,7 +11932,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -11944,7 +11940,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
@@ -11952,7 +11948,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -11960,7 +11956,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -11968,7 +11964,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -11976,7 +11972,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
@@ -11984,7 +11980,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>36</v>
       </c>
@@ -11992,7 +11988,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -12000,7 +11996,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -12008,7 +12004,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -12016,7 +12012,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -12024,7 +12020,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -12032,7 +12028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -12040,7 +12036,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -12048,7 +12044,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
         <v>50</v>
       </c>
@@ -12056,7 +12052,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
         <v>52</v>
       </c>
@@ -12064,7 +12060,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
         <v>54</v>
       </c>
@@ -12072,7 +12068,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
         <v>55</v>
       </c>
@@ -12080,7 +12076,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
         <v>57</v>
       </c>
@@ -12088,7 +12084,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>91</v>
       </c>
@@ -12096,7 +12092,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>92</v>
       </c>
@@ -12104,7 +12100,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>96</v>
       </c>
@@ -12112,7 +12108,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>94</v>
       </c>
@@ -12120,7 +12116,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>99</v>
       </c>
@@ -12128,7 +12124,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>101</v>
       </c>
@@ -12136,7 +12132,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>102</v>
       </c>
@@ -12144,7 +12140,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
@@ -12152,7 +12148,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
@@ -12160,7 +12156,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
@@ -12168,7 +12164,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>110</v>
       </c>
@@ -12176,7 +12172,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>112</v>
       </c>
@@ -12184,7 +12180,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>262</v>
       </c>
@@ -12192,7 +12188,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>265</v>
       </c>
@@ -12200,7 +12196,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>267</v>
       </c>
@@ -12208,7 +12204,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>268</v>
       </c>
@@ -12216,7 +12212,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>271</v>
       </c>
@@ -12224,7 +12220,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>273</v>
       </c>
@@ -12232,7 +12228,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>275</v>
       </c>
@@ -12240,7 +12236,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>260</v>
       </c>
@@ -12248,7 +12244,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>280</v>
       </c>
@@ -12256,7 +12252,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>281</v>
       </c>
@@ -12264,7 +12260,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>282</v>
       </c>
@@ -12272,7 +12268,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>283</v>
       </c>
@@ -12280,7 +12276,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>286</v>
       </c>
@@ -12288,7 +12284,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>285</v>
       </c>
@@ -12296,7 +12292,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>287</v>
       </c>
@@ -12304,7 +12300,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>338</v>
       </c>
@@ -12312,7 +12308,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>348</v>
       </c>
@@ -12320,7 +12316,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>350</v>
       </c>
@@ -12328,7 +12324,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>352</v>
       </c>
@@ -12336,7 +12332,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>354</v>
       </c>
@@ -12344,7 +12340,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>356</v>
       </c>
@@ -12352,7 +12348,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>358</v>
       </c>
@@ -12360,7 +12356,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>360</v>
       </c>
@@ -12368,7 +12364,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>362</v>
       </c>
@@ -12376,7 +12372,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>364</v>
       </c>
@@ -12384,7 +12380,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>366</v>
       </c>
@@ -12392,7 +12388,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>368</v>
       </c>
@@ -12400,7 +12396,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>370</v>
       </c>
@@ -12408,7 +12404,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>372</v>
       </c>
@@ -12416,7 +12412,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>374</v>
       </c>
@@ -12424,7 +12420,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>376</v>
       </c>
@@ -12432,7 +12428,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>476</v>
       </c>
@@ -12440,7 +12436,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>478</v>
       </c>
@@ -12448,7 +12444,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>525</v>
       </c>
@@ -12456,7 +12452,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>527</v>
       </c>
@@ -12464,15 +12460,15 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>512</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
@@ -12480,7 +12476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>21</v>
       </c>
@@ -12488,7 +12484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>513</v>
       </c>
@@ -12496,7 +12492,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>515</v>
       </c>
@@ -12504,7 +12500,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>517</v>
       </c>
@@ -12512,7 +12508,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>519</v>
       </c>
@@ -12520,7 +12516,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>522</v>
       </c>
@@ -12528,7 +12524,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>524</v>
       </c>
@@ -12536,12 +12532,12 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41B5981-9FD6-4D5F-B9EF-F17AD3D11291}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D413A75-A30D-4C1B-8BA6-510D2C0EC34C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,6 @@
     <t>Как играть</t>
   </si>
   <si>
-    <t>Сделанных Ставок</t>
-  </si>
-  <si>
     <t>Всего Выиграно</t>
   </si>
   <si>
@@ -7001,15 +6998,9 @@
     <t>Карта старше</t>
   </si>
   <si>
-    <t>Выплата на выигрыш:</t>
-  </si>
-  <si>
     <t>Множитель:</t>
   </si>
   <si>
-    <t>Шанс Выиграть</t>
-  </si>
-  <si>
     <t>Ya existen!</t>
   </si>
   <si>
@@ -7029,6 +7020,15 @@
   </si>
   <si>
     <t>4. В колоде 52 карты. Младшая карта 2, старшая карта А (туз). Игрок выбирает любую карту из колоды. Игрок делает ставку на одно из трех событий: следующая карта - одна из 52 карт, розданная случайным образом, будет БОЛЬШЕ, или МЕНЬШЕ или РАВНА по рангу первой карте, выбранной игроком. Масти в игре значение имеют. В случае угадывания события, игроку производится выплата из расчета величины Ставки, умноженной на коэффициент, соответствующий выбранной игроком карте и выбранного события для ставки.</t>
+  </si>
+  <si>
+    <t>Ставок</t>
+  </si>
+  <si>
+    <t>Выплата:</t>
+  </si>
+  <si>
+    <t>Шанс</t>
   </si>
 </sst>
 </file>
@@ -7558,7 +7558,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7566,7 +7566,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7606,7 +7606,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7614,7 +7614,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7662,7 +7662,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7699,386 +7699,386 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
         <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" t="s">
         <v>262</v>
-      </c>
-      <c r="B45" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" t="s">
         <v>268</v>
-      </c>
-      <c r="B48" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" t="s">
         <v>260</v>
-      </c>
-      <c r="B52" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" t="s">
         <v>338</v>
-      </c>
-      <c r="B60" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>347</v>
+      </c>
+      <c r="B61" t="s">
         <v>348</v>
-      </c>
-      <c r="B61" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" t="s">
         <v>350</v>
-      </c>
-      <c r="B62" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B63" t="s">
         <v>352</v>
-      </c>
-      <c r="B63" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" t="s">
         <v>354</v>
-      </c>
-      <c r="B64" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" t="s">
         <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>357</v>
+      </c>
+      <c r="B66" t="s">
         <v>358</v>
-      </c>
-      <c r="B66" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" t="s">
         <v>360</v>
-      </c>
-      <c r="B67" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" t="s">
         <v>362</v>
-      </c>
-      <c r="B68" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>365</v>
+      </c>
+      <c r="B70" t="s">
         <v>366</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" t="s">
         <v>368</v>
-      </c>
-      <c r="B71" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" t="s">
         <v>370</v>
-      </c>
-      <c r="B72" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" t="s">
         <v>372</v>
-      </c>
-      <c r="B73" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74" t="s">
         <v>374</v>
-      </c>
-      <c r="B74" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" t="s">
         <v>376</v>
-      </c>
-      <c r="B75" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>475</v>
+      </c>
+      <c r="B76" t="s">
         <v>476</v>
-      </c>
-      <c r="B76" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" t="s">
         <v>478</v>
-      </c>
-      <c r="B77" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B80" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8099,58 +8099,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" t="s">
         <v>513</v>
-      </c>
-      <c r="B83" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" t="s">
         <v>515</v>
-      </c>
-      <c r="B84" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" t="s">
         <v>517</v>
-      </c>
-      <c r="B85" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" t="s">
         <v>519</v>
-      </c>
-      <c r="B86" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" t="s">
         <v>537</v>
-      </c>
-      <c r="B89" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -8163,8 +8163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8194,7 +8194,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8202,7 +8202,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8210,7 +8210,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8218,7 +8218,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8226,7 +8226,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8234,7 +8234,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8242,7 +8242,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8250,7 +8250,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8258,7 +8258,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8266,7 +8266,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8274,7 +8274,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8282,7 +8282,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8290,7 +8290,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8298,7 +8298,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8306,7 +8306,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8314,7 +8314,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8322,7 +8322,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8330,7 +8330,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8338,7 +8338,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8346,7 +8346,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8354,7 +8354,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8362,7 +8362,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8370,7 +8370,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8378,7 +8378,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8386,7 +8386,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8394,7 +8394,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8402,7 +8402,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8410,7 +8410,7 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8418,7 +8418,7 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8426,391 +8426,391 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B77" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>527</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8818,7 +8818,7 @@
         <v>19</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8826,63 +8826,63 @@
         <v>21</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8917,7 +8917,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8925,7 +8925,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8933,7 +8933,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8941,7 +8941,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8949,7 +8949,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8957,7 +8957,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8965,7 +8965,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8973,7 +8973,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8981,7 +8981,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8989,7 +8989,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8997,7 +8997,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9005,7 +9005,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9013,7 +9013,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9021,7 +9021,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9029,7 +9029,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9037,7 +9037,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9045,7 +9045,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9053,7 +9053,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9061,7 +9061,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9069,7 +9069,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9077,7 +9077,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9085,7 +9085,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9093,7 +9093,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9101,7 +9101,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9109,7 +9109,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -9117,7 +9117,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9125,7 +9125,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -9133,7 +9133,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9141,7 +9141,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -9149,7 +9149,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -9157,391 +9157,391 @@
         <v>57</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>475</v>
+      </c>
+      <c r="B76" t="s">
         <v>476</v>
-      </c>
-      <c r="B76" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" t="s">
         <v>478</v>
-      </c>
-      <c r="B77" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9562,58 +9562,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" t="s">
         <v>537</v>
-      </c>
-      <c r="B89" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9648,7 +9648,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9656,7 +9656,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9664,7 +9664,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9672,7 +9672,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9680,7 +9680,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9688,7 +9688,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9696,7 +9696,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9704,7 +9704,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9712,7 +9712,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9720,7 +9720,7 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9728,7 +9728,7 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9736,7 +9736,7 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9744,7 +9744,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9752,7 +9752,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9760,7 +9760,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9768,7 +9768,7 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9776,7 +9776,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9784,7 +9784,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9792,7 +9792,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9800,7 +9800,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9808,7 +9808,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9816,7 +9816,7 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9824,7 +9824,7 @@
         <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9832,7 +9832,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9840,7 +9840,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -9848,7 +9848,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9856,7 +9856,7 @@
         <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -9864,7 +9864,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9872,7 +9872,7 @@
         <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -9880,7 +9880,7 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -9888,391 +9888,391 @@
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B71" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B74" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>475</v>
+      </c>
+      <c r="B76" t="s">
         <v>476</v>
-      </c>
-      <c r="B76" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" t="s">
         <v>478</v>
-      </c>
-      <c r="B77" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -10293,58 +10293,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" t="s">
         <v>537</v>
-      </c>
-      <c r="B89" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -10531,7 +10531,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10539,7 +10539,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10624,386 +10624,386 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
         <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
+        <v>337</v>
+      </c>
+      <c r="B60" t="s">
         <v>338</v>
-      </c>
-      <c r="B60" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>347</v>
+      </c>
+      <c r="B61" t="s">
         <v>348</v>
-      </c>
-      <c r="B61" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" t="s">
         <v>350</v>
-      </c>
-      <c r="B62" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B63" t="s">
         <v>352</v>
-      </c>
-      <c r="B63" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" t="s">
         <v>354</v>
-      </c>
-      <c r="B64" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" t="s">
         <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>357</v>
+      </c>
+      <c r="B66" t="s">
         <v>358</v>
-      </c>
-      <c r="B66" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" t="s">
         <v>360</v>
-      </c>
-      <c r="B67" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" t="s">
         <v>362</v>
-      </c>
-      <c r="B68" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
+        <v>363</v>
+      </c>
+      <c r="B69" t="s">
         <v>364</v>
-      </c>
-      <c r="B69" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>365</v>
+      </c>
+      <c r="B70" t="s">
         <v>366</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" t="s">
         <v>368</v>
-      </c>
-      <c r="B71" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" t="s">
         <v>370</v>
-      </c>
-      <c r="B72" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" t="s">
         <v>372</v>
-      </c>
-      <c r="B73" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74" t="s">
         <v>374</v>
-      </c>
-      <c r="B74" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" t="s">
         <v>376</v>
-      </c>
-      <c r="B75" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
+        <v>475</v>
+      </c>
+      <c r="B76" t="s">
         <v>476</v>
-      </c>
-      <c r="B76" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>477</v>
+      </c>
+      <c r="B77" t="s">
         <v>478</v>
-      </c>
-      <c r="B77" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11024,58 +11024,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" t="s">
         <v>537</v>
-      </c>
-      <c r="B89" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -11102,7 +11102,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11110,7 +11110,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11118,7 +11118,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11126,7 +11126,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11134,7 +11134,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11142,7 +11142,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11150,7 +11150,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11158,7 +11158,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11166,7 +11166,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11174,7 +11174,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11182,7 +11182,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11190,7 +11190,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11198,7 +11198,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11206,7 +11206,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11214,7 +11214,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11222,7 +11222,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11230,7 +11230,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11238,7 +11238,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11246,7 +11246,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11254,7 +11254,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11262,7 +11262,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -11270,7 +11270,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11278,7 +11278,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -11286,7 +11286,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -11294,7 +11294,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -11302,7 +11302,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -11310,7 +11310,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -11318,7 +11318,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -11326,7 +11326,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11334,7 +11334,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -11342,7 +11342,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -11350,391 +11350,391 @@
         <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" t="s">
         <v>92</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" thickBot="1">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1">
       <c r="A43" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1">
       <c r="A58" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>347</v>
+      </c>
+      <c r="B61" t="s">
         <v>348</v>
-      </c>
-      <c r="B61" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" t="s">
         <v>350</v>
-      </c>
-      <c r="B62" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B63" t="s">
         <v>352</v>
-      </c>
-      <c r="B63" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
+        <v>353</v>
+      </c>
+      <c r="B64" t="s">
         <v>354</v>
-      </c>
-      <c r="B64" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" t="s">
         <v>356</v>
-      </c>
-      <c r="B65" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>357</v>
+      </c>
+      <c r="B66" t="s">
         <v>358</v>
-      </c>
-      <c r="B66" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>359</v>
+      </c>
+      <c r="B67" t="s">
         <v>360</v>
-      </c>
-      <c r="B67" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" t="s">
         <v>362</v>
-      </c>
-      <c r="B68" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>365</v>
+      </c>
+      <c r="B70" t="s">
         <v>366</v>
-      </c>
-      <c r="B70" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
+        <v>367</v>
+      </c>
+      <c r="B71" t="s">
         <v>368</v>
-      </c>
-      <c r="B71" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" t="s">
         <v>370</v>
-      </c>
-      <c r="B72" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>371</v>
+      </c>
+      <c r="B73" t="s">
         <v>372</v>
-      </c>
-      <c r="B73" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74" t="s">
         <v>374</v>
-      </c>
-      <c r="B74" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
+        <v>375</v>
+      </c>
+      <c r="B75" t="s">
         <v>376</v>
-      </c>
-      <c r="B75" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B77" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11742,7 +11742,7 @@
         <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -11750,63 +11750,63 @@
         <v>21</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11841,7 +11841,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11849,7 +11849,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11857,7 +11857,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11865,7 +11865,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11873,7 +11873,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11881,7 +11881,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11889,7 +11889,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -11897,7 +11897,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11905,7 +11905,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11913,7 +11913,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11921,7 +11921,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11929,7 +11929,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11937,7 +11937,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11945,7 +11945,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11953,7 +11953,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11961,7 +11961,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -11969,7 +11969,7 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -11977,7 +11977,7 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -11985,7 +11985,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -11993,7 +11993,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -12001,7 +12001,7 @@
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -12009,7 +12009,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -12017,7 +12017,7 @@
         <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -12025,7 +12025,7 @@
         <v>44</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -12033,7 +12033,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -12041,7 +12041,7 @@
         <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -12049,7 +12049,7 @@
         <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -12057,7 +12057,7 @@
         <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12065,7 +12065,7 @@
         <v>54</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -12073,7 +12073,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -12081,391 +12081,391 @@
         <v>57</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -12486,58 +12486,58 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B87" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B88" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D413A75-A30D-4C1B-8BA6-510D2C0EC34C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5060D140-976D-405A-A23C-5F1D4C07DA56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="562">
   <si>
     <t>fairness</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Необходим TRONLink</t>
   </si>
   <si>
-    <t>1.  Убедитесь, что у вас есть кошелек TRONLink. Для получения дополнительной информации о том, как его создать, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;нажмите сюда&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>Войдите в свой кошелек TRONLink. Если у вас нет кошелька TRONLink, пожалуйста &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;загрузите расширение Сhrome&lt;/a&gt;.  Доступно только для браузера Chrome.</t>
   </si>
   <si>
@@ -7029,6 +7026,30 @@
   </si>
   <si>
     <t>Шанс</t>
+  </si>
+  <si>
+    <t>total_mined</t>
+  </si>
+  <si>
+    <t>Total mined</t>
+  </si>
+  <si>
+    <t>Всего добыто</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>1.  Убедитесь, что у вас есть кошелек TRONLink. Для получения дополнительной информации о том, как его создать, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;нажмите сюда&lt;/a&gt;. Для игры на мобильных устройствах используйте MathWallet или TronWallet.</t>
+  </si>
+  <si>
+    <t>1. Make sure you have a TRONLink wallet. For more information on how to create one, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;click here&lt;/a&gt;. To play on mobile devices please use Math Wallet and TronWallet.</t>
   </si>
 </sst>
 </file>
@@ -7430,10 +7451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7505,233 +7526,233 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+    <row r="9" spans="1:2" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>530</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>96</v>
@@ -7739,162 +7760,162 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7902,255 +7923,271 @@
         <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="B76" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s">
-        <v>528</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B80" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>513</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B84" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B85" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B87" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
         <v>536</v>
       </c>
-      <c r="B89" t="s">
-        <v>537</v>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -8161,10 +8198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8194,7 +8231,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8237,305 +8274,305 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
+    <row r="9" spans="1:2" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>480</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>531</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>295</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
         <v>294</v>
@@ -8543,90 +8580,90 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>473</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>287</v>
+        <v>473</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -8634,255 +8671,271 @@
         <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>472</v>
+        <v>377</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>384</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="B76" t="s">
-        <v>481</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>525</v>
+      <c r="A78" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>540</v>
+        <v>525</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>71</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>541</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>521</v>
+      <c r="A87" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>536</v>
-      </c>
-      <c r="B89" t="s">
-        <v>551</v>
+        <v>522</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8893,10 +8946,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8909,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8917,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8925,7 +8978,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8933,7 +8986,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8941,7 +8994,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8949,7 +9002,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8957,7 +9010,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8965,655 +9018,671 @@
         <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>557</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>193</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>479</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>205</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>532</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>210</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>392</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>393</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>185</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>400</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>402</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>298</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>408</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>299</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>409</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>300</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>410</v>
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>412</v>
+        <v>281</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>413</v>
+      <c r="B58" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>414</v>
+        <v>283</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>409</v>
+        <v>285</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>475</v>
-      </c>
-      <c r="B76" t="s">
-        <v>476</v>
+      <c r="A76" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s">
         <v>477</v>
-      </c>
-      <c r="B77" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>513</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
         <v>536</v>
       </c>
-      <c r="B89" t="s">
-        <v>537</v>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -9624,10 +9693,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9640,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9648,7 +9717,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9656,7 +9725,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9664,7 +9733,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9672,7 +9741,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9680,7 +9749,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9688,7 +9757,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9696,399 +9765,399 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>533</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>301</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>448</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10096,255 +10165,271 @@
         <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="B76" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s">
         <v>477</v>
-      </c>
-      <c r="B77" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>513</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
         <v>536</v>
       </c>
-      <c r="B89" t="s">
-        <v>537</v>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -10355,10 +10440,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10430,233 +10515,233 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+    <row r="9" spans="1:2" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>96</v>
@@ -10664,162 +10749,162 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>302</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B46" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10827,255 +10912,271 @@
         <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B61" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="B76" t="s">
-        <v>476</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s">
         <v>477</v>
-      </c>
-      <c r="B77" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
+        <v>509</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>513</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
+        <v>522</v>
+      </c>
+      <c r="B89" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
         <v>536</v>
       </c>
-      <c r="B89" t="s">
-        <v>537</v>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -11086,10 +11187,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11102,7 +11203,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11110,7 +11211,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11118,7 +11219,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11126,7 +11227,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11134,7 +11235,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11142,7 +11243,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11150,7 +11251,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11158,236 +11259,236 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>15</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1">
+      <c r="A9" s="4" t="s">
+        <v>557</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>479</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>184</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>534</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>168</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
         <v>96</v>
@@ -11395,162 +11496,162 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>342</v>
+        <v>108</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" thickBot="1">
       <c r="A45" s="2" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" thickBot="1">
       <c r="A46" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>344</v>
+        <v>260</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" thickBot="1">
       <c r="A47" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>345</v>
+        <v>269</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" thickBot="1">
       <c r="A51" s="2" t="s">
-        <v>274</v>
+        <v>344</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1">
       <c r="A52" s="2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>310</v>
+        <v>258</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" thickBot="1">
       <c r="A55" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>321</v>
+        <v>279</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.75" thickBot="1">
       <c r="A56" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.75" thickBot="1">
       <c r="A57" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.75" thickBot="1">
@@ -11558,255 +11659,271 @@
         <v>284</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.75" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.75" thickBot="1">
       <c r="A60" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>347</v>
-      </c>
-      <c r="B61" t="s">
-        <v>348</v>
+        <v>285</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B65" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B69" t="s">
-        <v>469</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B71" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B75" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>475</v>
+        <v>374</v>
       </c>
       <c r="B76" t="s">
-        <v>545</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B77" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>547</v>
+      <c r="A78" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>154</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>513</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>538</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -11817,10 +11934,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11833,7 +11950,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11841,7 +11958,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11849,7 +11966,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11857,7 +11974,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11865,7 +11982,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11873,7 +11990,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11881,7 +11998,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11889,399 +12006,399 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>557</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>479</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>238</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>535</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>244</v>
+        <v>534</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>247</v>
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>248</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>483</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>258</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>484</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>323</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>486</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>327</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>487</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>328</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>489</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -12289,255 +12406,271 @@
         <v>284</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>495</v>
+        <v>348</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>496</v>
+        <v>350</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>497</v>
+        <v>352</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>498</v>
+        <v>354</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>501</v>
+        <v>360</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>502</v>
+        <v>362</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>503</v>
+        <v>364</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>504</v>
+        <v>366</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>505</v>
+        <v>368</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>506</v>
+        <v>370</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>507</v>
+        <v>372</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>508</v>
+        <v>374</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>524</v>
+        <v>476</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>20</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>513</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>521</v>
-      </c>
-      <c r="B87" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B88" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B89" t="s">
-        <v>539</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5060D140-976D-405A-A23C-5F1D4C07DA56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF66092-A3FA-4816-9975-3252D44BF5FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -7046,10 +7046,10 @@
     <t>Время</t>
   </si>
   <si>
-    <t>1.  Убедитесь, что у вас есть кошелек TRONLink. Для получения дополнительной информации о том, как его создать, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;нажмите сюда&lt;/a&gt;. Для игры на мобильных устройствах используйте MathWallet или TronWallet.</t>
-  </si>
-  <si>
-    <t>1. Make sure you have a TRONLink wallet. For more information on how to create one, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;click here&lt;/a&gt;. To play on mobile devices please use Math Wallet and TronWallet.</t>
+    <t>1. Make sure you have a TRONLink wallet. For more information on how to create one, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;click here&lt;/a&gt;. To play on mobile devices please use &lt;a href="https://mathwallet.org/" target="_blank"&gt;Math Wallet&lt;/a&gt; or &lt;a href="https://tronwallet.me/" target="_blank"&gt;TronWallet&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>1.  Убедитесь, что у вас есть кошелек TRONLink. Для получения дополнительной информации о том, как его создать, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;нажмите сюда&lt;/a&gt;. Для игры на мобильных устройствах используйте &lt;a href="https://mathwallet.org/" target="_blank"&gt;Math Wallet&lt;/a&gt; или &lt;a href="https://tronwallet.me/" target="_blank"&gt;TronWallet&lt;/a&gt;.</t>
   </si>
 </sst>
 </file>
@@ -7453,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7643,7 +7643,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8200,7 +8200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -8391,7 +8391,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:2">

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF66092-A3FA-4816-9975-3252D44BF5FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA6EA5-DC00-4680-9577-B09D455D039D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -6908,9 +6908,6 @@
     <t>draw_equal</t>
   </si>
   <si>
-    <t>Draw Equal</t>
-  </si>
-  <si>
     <t>draw_over</t>
   </si>
   <si>
@@ -7050,6 +7047,9 @@
   </si>
   <si>
     <t>1.  Убедитесь, что у вас есть кошелек TRONLink. Для получения дополнительной информации о том, как его создать, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;нажмите сюда&lt;/a&gt;. Для игры на мобильных устройствах используйте &lt;a href="https://mathwallet.org/" target="_blank"&gt;Math Wallet&lt;/a&gt; или &lt;a href="https://tronwallet.me/" target="_blank"&gt;TronWallet&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Draw Exact</t>
   </si>
 </sst>
 </file>
@@ -7453,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7528,10 +7528,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7643,7 +7643,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7691,7 +7691,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8088,18 +8088,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8107,7 +8107,7 @@
         <v>510</v>
       </c>
       <c r="B81" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8139,55 +8139,55 @@
         <v>513</v>
       </c>
       <c r="B85" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" t="s">
         <v>515</v>
-      </c>
-      <c r="B86" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90" t="s">
         <v>535</v>
-      </c>
-      <c r="B90" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>553</v>
+      </c>
+      <c r="B91" t="s">
         <v>554</v>
-      </c>
-      <c r="B91" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -8200,8 +8200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8231,7 +8231,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8276,10 +8276,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8391,7 +8391,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8836,18 +8836,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>523</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8855,7 +8855,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>511</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8887,55 +8887,55 @@
         <v>513</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B91" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -8948,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9023,10 +9023,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9186,7 +9186,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9583,18 +9583,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9602,7 +9602,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9634,55 +9634,55 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90" t="s">
         <v>535</v>
-      </c>
-      <c r="B90" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>553</v>
+      </c>
+      <c r="B91" t="s">
         <v>554</v>
-      </c>
-      <c r="B91" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -9696,7 +9696,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9770,10 +9770,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9933,7 +9933,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10330,18 +10330,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -10349,7 +10349,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -10381,55 +10381,55 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90" t="s">
         <v>535</v>
-      </c>
-      <c r="B90" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>553</v>
+      </c>
+      <c r="B91" t="s">
         <v>554</v>
-      </c>
-      <c r="B91" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -10442,8 +10442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10517,10 +10517,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11077,18 +11077,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11128,55 +11128,55 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>534</v>
+      </c>
+      <c r="B90" t="s">
         <v>535</v>
-      </c>
-      <c r="B90" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>553</v>
+      </c>
+      <c r="B91" t="s">
         <v>554</v>
-      </c>
-      <c r="B91" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -11189,8 +11189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11264,10 +11264,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11427,7 +11427,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11811,7 +11811,7 @@
         <v>474</v>
       </c>
       <c r="B77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -11819,23 +11819,23 @@
         <v>476</v>
       </c>
       <c r="B78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11843,7 +11843,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -11851,7 +11851,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -11875,55 +11875,55 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>553</v>
+      </c>
+      <c r="B91" t="s">
         <v>554</v>
-      </c>
-      <c r="B91" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -11936,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12011,10 +12011,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -12174,7 +12174,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12571,18 +12571,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -12590,7 +12590,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -12622,55 +12622,55 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>517</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>553</v>
+      </c>
+      <c r="B91" t="s">
         <v>554</v>
-      </c>
-      <c r="B91" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FA6EA5-DC00-4680-9577-B09D455D039D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC380624-527A-4413-B38B-727F3F06181A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="563">
   <si>
     <t>fairness</t>
   </si>
@@ -7050,6 +7050,9 @@
   </si>
   <si>
     <t>Draw Exact</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
   </si>
 </sst>
 </file>
@@ -7453,8 +7456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8163,7 +8166,7 @@
         <v>519</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -11936,7 +11939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC380624-527A-4413-B38B-727F3F06181A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A724ED-D12F-455D-9D59-16C544821EFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="562">
   <si>
     <t>fairness</t>
   </si>
@@ -6918,9 +6918,6 @@
   </si>
   <si>
     <t>Payout on Win:</t>
-  </si>
-  <si>
-    <t>Multiplayer</t>
   </si>
   <si>
     <t>multiplayer</t>
@@ -7456,8 +7453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7531,10 +7528,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -7646,7 +7643,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7694,7 +7691,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8091,18 +8088,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B79" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8110,7 +8107,7 @@
         <v>510</v>
       </c>
       <c r="B81" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8142,7 +8139,7 @@
         <v>513</v>
       </c>
       <c r="B85" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8163,34 +8160,34 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" t="s">
         <v>534</v>
-      </c>
-      <c r="B90" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
         <v>553</v>
-      </c>
-      <c r="B91" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8204,7 +8201,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8234,7 +8231,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8279,10 +8276,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8394,7 +8391,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8442,7 +8439,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8839,18 +8836,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8858,7 +8855,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -8882,7 +8879,7 @@
         <v>511</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8890,7 +8887,7 @@
         <v>513</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -8898,7 +8895,7 @@
         <v>514</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -8906,39 +8903,39 @@
         <v>516</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B91" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8952,7 +8949,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9026,10 +9023,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9189,7 +9186,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -9586,18 +9583,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9605,7 +9602,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9637,7 +9634,7 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -9658,34 +9655,34 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" t="s">
         <v>534</v>
-      </c>
-      <c r="B90" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
         <v>553</v>
-      </c>
-      <c r="B91" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -9699,7 +9696,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9773,10 +9770,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9936,7 +9933,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10333,18 +10330,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -10352,7 +10349,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -10384,7 +10381,7 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -10405,34 +10402,34 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" t="s">
         <v>534</v>
-      </c>
-      <c r="B90" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
         <v>553</v>
-      </c>
-      <c r="B91" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -10446,7 +10443,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10520,10 +10517,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11080,18 +11077,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11131,7 +11128,7 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -11152,34 +11149,34 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" t="s">
         <v>534</v>
-      </c>
-      <c r="B90" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
         <v>553</v>
-      </c>
-      <c r="B91" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -11267,10 +11264,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11430,7 +11427,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -11814,7 +11811,7 @@
         <v>474</v>
       </c>
       <c r="B77" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -11822,23 +11819,23 @@
         <v>476</v>
       </c>
       <c r="B78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11846,7 +11843,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -11854,7 +11851,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -11878,7 +11875,7 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -11899,34 +11896,34 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
         <v>553</v>
-      </c>
-      <c r="B91" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -11939,8 +11936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12014,10 +12011,10 @@
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
       <c r="A9" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -12177,7 +12174,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12574,18 +12571,18 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -12593,7 +12590,7 @@
         <v>510</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -12625,7 +12622,7 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -12646,34 +12643,34 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B88" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B90" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
         <v>553</v>
-      </c>
-      <c r="B91" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A724ED-D12F-455D-9D59-16C544821EFB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77723E9-F003-49C9-95A0-F4E065884931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="es" sheetId="7" r:id="rId6"/>
     <sheet name="tr" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="583">
   <si>
     <t>fairness</t>
   </si>
@@ -7050,6 +7050,69 @@
   </si>
   <si>
     <t>Multiplier</t>
+  </si>
+  <si>
+    <t>¡Sea recompensado sólo por las recomendaciones a tus amigos! ¡Disfruta las recompensas de toda la vida por las recomendaciones a tus amigos! Recibe el 0,2% de todas sus APUESTAS. Todas las recompensas se envían automáticamente a través de nuestros contratos inteligentes. ¡Solo copia el enlace y compártelo con todos tus amigos! ¡Disfruta las recompensas de toda la vida por las recomendaciones a tus amigos! Recibe el 0,2% de todas sus apuestas. Todas las recompensas se envían automáticamente a través de nuestros contratos inteligentes. ¡Solo copia el enlace y compártelo con todos tus amigos! El costo para crear un enlace de referencia es 8.88 TRX y menos de 1 tarifa de transacción de TRX. Puedes crear nuevos enlaces de referencia tantas veces como desee. El viejo reemplazará automáticamente.</t>
+  </si>
+  <si>
+    <t>Sobre los 888 Token</t>
+  </si>
+  <si>
+    <t>¿Qué es 888 Token y para qué se utiliza?</t>
+  </si>
+  <si>
+    <t>888 Token es un token de TRC20 en la cadena de bloques de TRON. Se puede minar un total de 100,000,000 tokens 888 (para obtener información sobre cómo se distribuye el token 888, consulte nuestro documento técnico). Los titulares de 888 Token recibirán dividendos en TRX según la cantidad de 888 Tokens que posean.</t>
+  </si>
+  <si>
+    <t>¿Qué es dividendos? ¿Y por qué fluctúan los dividendos?</t>
+  </si>
+  <si>
+    <t>Los dividendos se distribuyen de los ingresos netos de 888TRON.com. El grupo de dividendos cambiará constantemente dependiendo de las ganancias y pérdidas de los usuarios en 888TRON.com.</t>
+  </si>
+  <si>
+    <t>¿Puedo comprar 888?</t>
+  </si>
+  <si>
+    <t>El 888 no se puede comprar directamente y solo se puede explotar jugando solo en 888TRON.com. En el futuro, 888 tokens estarán disponibles en DEXs y otros intercambios criptográficos.</t>
+  </si>
+  <si>
+    <t>He retirado mis fichas 888, ¿dónde puedo verlas?</t>
+  </si>
+  <si>
+    <t>Puedes agregar tus 888 fichas a Tron Link. Seleccione la sección Tokens y presione añadir dirección "TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3". Una vez que se agregarán sus 888 tokens, puede administrarlos según su elección.</t>
+  </si>
+  <si>
+    <t>Después de recibir dividendos pagados, ¿se quemarán nuestras 888 tokens?</t>
+  </si>
+  <si>
+    <t>¡No! 888 tokens estarán contigo para siempre a menos que decidas intercambiarlos en un DEX. Siempre que tenga 888 tokens en su billetera, recibirá dividendos de 888TRON.com. Si la cantidad de 888 fichas que posee no cambia con el tiempo, la cantidad de dividendos que reciba se puede reducir con el tiempo.</t>
+  </si>
+  <si>
+    <t>¿Cuánto vale 888 fichas en este momento? ¿Puedo cambiar mis fichas 888 ahora?</t>
+  </si>
+  <si>
+    <t>Puede consultar la página "Dividendos" para encontrar información en tiempo real sobre 888. El valor de 888 dependerá de toda la plataforma y comunidad de 888TRON.com. 888 Tokens se pueden intercambiar en DEX y otros intercambios de criptografía en el futuro.</t>
+  </si>
+  <si>
+    <t>Para recibir dividendos, debe retirar sus tokens 888, luego congelarlos hasta que finalice el período de distribución de dividendos y descongelar sus tokens posteriormente. Los tokens que no se congelaron al final de cada nivel de minería no participan en la distribución de dividendos. Los dividendos serán transferidos a su cuenta automáticamente por el contrato inteligente una vez que sus 888 fichas se hayan descongelado.</t>
+  </si>
+  <si>
+    <t>La carta baja</t>
+  </si>
+  <si>
+    <t>La carta igual</t>
+  </si>
+  <si>
+    <t>La carta alta</t>
+  </si>
+  <si>
+    <t>Pago:</t>
+  </si>
+  <si>
+    <t>Oportunidad de ganar</t>
+  </si>
+  <si>
+    <t>Minado en total</t>
   </si>
 </sst>
 </file>
@@ -11189,8 +11252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11371,7 +11434,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>478</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -11691,7 +11754,7 @@
         <v>346</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -11699,7 +11762,7 @@
         <v>348</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -11707,7 +11770,7 @@
         <v>350</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -11715,7 +11778,7 @@
         <v>352</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>566</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -11723,7 +11786,7 @@
         <v>354</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -11731,7 +11794,7 @@
         <v>356</v>
       </c>
       <c r="B67" t="s">
-        <v>357</v>
+        <v>568</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -11739,7 +11802,7 @@
         <v>358</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -11747,7 +11810,7 @@
         <v>360</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>570</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -11755,7 +11818,7 @@
         <v>362</v>
       </c>
       <c r="B70" t="s">
-        <v>468</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -11763,7 +11826,7 @@
         <v>364</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -11771,7 +11834,7 @@
         <v>366</v>
       </c>
       <c r="B72" t="s">
-        <v>367</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -11779,7 +11842,7 @@
         <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>369</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -11787,7 +11850,7 @@
         <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>371</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -11803,7 +11866,7 @@
         <v>374</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -11867,7 +11930,7 @@
         <v>511</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -11875,7 +11938,7 @@
         <v>513</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -11883,7 +11946,7 @@
         <v>514</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -11891,7 +11954,7 @@
         <v>516</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -11907,7 +11970,7 @@
         <v>520</v>
       </c>
       <c r="B89" t="s">
-        <v>519</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -11923,7 +11986,7 @@
         <v>552</v>
       </c>
       <c r="B91" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -11936,7 +11999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77723E9-F003-49C9-95A0-F4E065884931}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29CDD5D-90D1-49E6-A5C5-556713C3AE8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="598">
   <si>
     <t>fairness</t>
   </si>
@@ -7113,13 +7110,67 @@
   </si>
   <si>
     <t>Minado en total</t>
+  </si>
+  <si>
+    <t>已经存在！</t>
+  </si>
+  <si>
+    <t>复制链接</t>
+  </si>
+  <si>
+    <t>钱包里的TRX不够。</t>
+  </si>
+  <si>
+    <t>奖励：</t>
+  </si>
+  <si>
+    <t>机会</t>
+  </si>
+  <si>
+    <t>4. 一副有52张牌。 小牌2，大牌A（尖）。 玩家从一副中选择任何牌。 玩家在三押一注：下一张牌是由玩家选择的第一张牌随机分配的52张牌之一，将是更大或更小或等级。 花色在游戏中是有意义的。在猜测的情况下，玩家以投标金额乘以对应于所选择的玩家牌的系数和所选择的投注比率支付。</t>
+  </si>
+  <si>
+    <t>通过邀请你的朋友获得奖励！ 获得所有其投注的0.2％。 所有奖励都通过我们的智能合约自动发送。 只需复制链接并与所有朋友分享！ 创建推荐链接的价值为8.88 TRX且低于1 TRX交易费。 您可以无限次地创建链接，而旧链接将替换为新链接。</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>骰子52</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>小牌</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>等牌</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>大牌</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>多人</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>总挖掘</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7180,6 +7231,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7213,11 +7270,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7233,10 +7291,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ED9804DD-9D7B-4F0C-915B-DB9BBB4244BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9758,8 +9818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9768,731 +9828,731 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
-        <v>478</v>
+      <c r="B22" s="11" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="11" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="11" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="11" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="11" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="A36" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="11" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="A37" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="11" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="11" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="A39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="11" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="A40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="11" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="11" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="A42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="11" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="11" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="A44" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="11" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="A45" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="A46" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="A47" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="11" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="A48" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="A49" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="11" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="A50" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="11" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="A51" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="11" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="A52" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="11" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="A53" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="11" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="A54" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="11" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="A55" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="11" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="A56" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="11" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="A57" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="11" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="A58" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="11" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="A59" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="11" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="A60" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="11" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="A61" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="11" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="A62" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="11" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="A63" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="11" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="A64" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="11" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="A65" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="11" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="A66" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="11" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="A67" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="11" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="A68" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="11" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="A69" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="11" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="A70" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="11" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="A71" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="11" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="A72" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="11" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="A73" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="11" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="A74" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="11" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="A75" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="11" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="A76" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="11" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="A77" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B77" t="s">
-        <v>475</v>
+      <c r="B77" s="11" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="A78" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B78" t="s">
-        <v>477</v>
+      <c r="B78" s="11" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>525</v>
+      <c r="B79" s="11" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>526</v>
+      <c r="B80" s="11" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>537</v>
+      <c r="B81" s="11" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>20</v>
+      <c r="B82" s="11" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>22</v>
+      <c r="B83" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>512</v>
+      <c r="B84" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>560</v>
+      <c r="B85" s="11" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>515</v>
+      <c r="B86" s="11" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>517</v>
+      <c r="B87" s="11" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="A88" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B88" t="s">
-        <v>561</v>
+      <c r="B88" s="11" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="A89" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B89" t="s">
-        <v>519</v>
+      <c r="B89" s="11" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="A90" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="B90" t="s">
-        <v>534</v>
+      <c r="B90" s="11" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="A91" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B91" t="s">
-        <v>553</v>
+      <c r="B91" s="11" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -11252,7 +11312,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:B91"/>
     </sheetView>
   </sheetViews>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29CDD5D-90D1-49E6-A5C5-556713C3AE8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A260678-708E-4263-9795-C57BBD7C629E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="es" sheetId="7" r:id="rId6"/>
     <sheet name="tr" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="612">
   <si>
     <t>fairness</t>
   </si>
@@ -7164,13 +7164,1441 @@
   <si>
     <t>总挖掘</t>
     <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이미</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>존재합니다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>링크를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>복사하십시오</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>지갑에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TRX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>부족합니다</t>
+    </r>
+  </si>
+  <si>
+    <t>배당금</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>작은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>같은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>높은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+  </si>
+  <si>
+    <t>지불</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티플레이어</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬스</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4. 판에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낮은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>높은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>플레이어는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>판에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>세가지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이벤트중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하나를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>베팅합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>두번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하나이며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>무작위로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택될것이며</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>첫번째</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등급으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>높거나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>낮거나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>같을수도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>잇습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>게임관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소송에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의미가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는것입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이벤트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>추측하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>플레이어는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>카드에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상응하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>베팅을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>선택된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이벤트에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>의해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>배당금이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지불될것입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>전체 수입</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7237,6 +8665,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7275,7 +8711,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7286,7 +8722,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8977,7 +10412,7 @@
       <c r="A81" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="9" t="s">
         <v>537</v>
       </c>
     </row>
@@ -8985,7 +10420,7 @@
       <c r="A82" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8993,7 +10428,7 @@
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -9001,7 +10436,7 @@
       <c r="A84" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>538</v>
       </c>
     </row>
@@ -9009,7 +10444,7 @@
       <c r="A85" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>539</v>
       </c>
     </row>
@@ -9017,7 +10452,7 @@
       <c r="A86" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="9" t="s">
         <v>540</v>
       </c>
     </row>
@@ -9025,7 +10460,7 @@
       <c r="A87" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="9" t="s">
         <v>550</v>
       </c>
     </row>
@@ -9033,7 +10468,7 @@
       <c r="A88" t="s">
         <v>518</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="9" t="s">
         <v>541</v>
       </c>
     </row>
@@ -9041,7 +10476,7 @@
       <c r="A89" t="s">
         <v>520</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="9" t="s">
         <v>551</v>
       </c>
     </row>
@@ -9071,8 +10506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection sqref="A1:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9081,271 +10516,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="10" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="10" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="10" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="10" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="10" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="10" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="10" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="10" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -9353,7 +10788,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -9361,7 +10796,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -9369,7 +10804,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -9377,7 +10812,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -9385,7 +10820,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -9393,7 +10828,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -9401,7 +10836,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -9409,7 +10844,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -9417,7 +10852,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -9425,7 +10860,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -9433,7 +10868,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -9441,7 +10876,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="10" t="s">
         <v>260</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -9449,7 +10884,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="10" t="s">
         <v>263</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -9457,7 +10892,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="10" t="s">
         <v>265</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -9465,7 +10900,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="10" t="s">
         <v>266</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -9473,7 +10908,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="10" t="s">
         <v>269</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -9481,7 +10916,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="10" t="s">
         <v>271</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -9489,7 +10924,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="10" t="s">
         <v>273</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -9497,7 +10932,7 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="10" t="s">
         <v>258</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -9505,7 +10940,7 @@
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="10" t="s">
         <v>278</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -9513,7 +10948,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="10" t="s">
         <v>279</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -9521,7 +10956,7 @@
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="10" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -9529,7 +10964,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="10" t="s">
         <v>281</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -9537,15 +10972,15 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="10" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="10" t="s">
         <v>283</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -9553,15 +10988,15 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="10" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="10" t="s">
         <v>336</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -9569,7 +11004,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="10" t="s">
         <v>346</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -9577,7 +11012,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="10" t="s">
         <v>348</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -9585,7 +11020,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="10" t="s">
         <v>350</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -9593,7 +11028,7 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="10" t="s">
         <v>352</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -9601,7 +11036,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="10" t="s">
         <v>354</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -9609,7 +11044,7 @@
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="10" t="s">
         <v>356</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -9617,7 +11052,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="10" t="s">
         <v>358</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -9625,7 +11060,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="10" t="s">
         <v>360</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -9633,7 +11068,7 @@
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="10" t="s">
         <v>362</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -9641,7 +11076,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="10" t="s">
         <v>364</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -9649,7 +11084,7 @@
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="10" t="s">
         <v>366</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -9657,7 +11092,7 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="10" t="s">
         <v>368</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -9665,7 +11100,7 @@
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="10" t="s">
         <v>370</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -9673,7 +11108,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="10" t="s">
         <v>372</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -9681,7 +11116,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="10" t="s">
         <v>374</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -9689,123 +11124,123 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="A77" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B77" t="s">
-        <v>475</v>
+      <c r="B77" s="5" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="A78" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B78" t="s">
-        <v>477</v>
+      <c r="B78" s="5" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>525</v>
+      <c r="B79" s="5" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>526</v>
+      <c r="B80" s="5" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>20</v>
+      <c r="B82" s="10" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>22</v>
+      <c r="B83" s="10" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>512</v>
+      <c r="B84" s="5" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>560</v>
+      <c r="B85" s="10" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>515</v>
+      <c r="B86" s="5" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>517</v>
+      <c r="B87" s="5" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="A88" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B88" t="s">
-        <v>561</v>
+      <c r="B88" s="5" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="A89" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B89" t="s">
-        <v>519</v>
+      <c r="B89" s="5" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="A90" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B90" t="s">
-        <v>534</v>
+      <c r="B90" s="5" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="A91" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B91" t="s">
-        <v>553</v>
+      <c r="B91" s="5" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -9818,7 +11253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:B91"/>
     </sheetView>
   </sheetViews>
@@ -9828,730 +11263,730 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="10" t="s">
         <v>597</v>
       </c>
     </row>
@@ -12328,7 +13763,7 @@
       <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>246</v>
       </c>
     </row>
@@ -12576,7 +14011,7 @@
       <c r="A64" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>494</v>
       </c>
     </row>
@@ -12592,7 +14027,7 @@
       <c r="A66" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>496</v>
       </c>
     </row>
@@ -12624,7 +14059,7 @@
       <c r="A70" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>500</v>
       </c>
     </row>
@@ -12640,7 +14075,7 @@
       <c r="A72" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>502</v>
       </c>
     </row>
@@ -12656,7 +14091,7 @@
       <c r="A74" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>504</v>
       </c>
     </row>
@@ -12672,7 +14107,7 @@
       <c r="A76" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>506</v>
       </c>
     </row>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A260678-708E-4263-9795-C57BBD7C629E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2F293-2FCC-4D30-8590-E7D002FD709A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="613">
   <si>
     <t>fairness</t>
   </si>
@@ -8592,6 +8592,9 @@
   <si>
     <t>전체 수입</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>친구추천 이벤트! 전체 베팅금에서 2%에 상당한 장려금을 얻을수 있습니다. 모든 장려는 스마트 계약을 통해 자동으로 전송됩니다.링크를 복사하여 모든 친구들한테 공유하세요! 추천링크를 생성하는 비용은 8.88TRX이고 거래수수료는 1TRX이하입니다. 이전 링크가 새로운 링크로 바뀌기전까지 링크는 무제한으로 만들수 있습니다.</t>
   </si>
 </sst>
 </file>
@@ -8711,7 +8714,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8727,6 +8730,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10506,8 +10511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection sqref="A1:B91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10683,12 +10688,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:2" s="11" customFormat="1">
+      <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>478</v>
+      <c r="B22" s="12" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:2">

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C2F293-2FCC-4D30-8590-E7D002FD709A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0D572-7B7D-47D1-BC7D-F5986FE261D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="615">
   <si>
     <t>fairness</t>
   </si>
@@ -8595,6 +8595,12 @@
   </si>
   <si>
     <t>친구추천 이벤트! 전체 베팅금에서 2%에 상당한 장려금을 얻을수 있습니다. 모든 장려는 스마트 계약을 통해 자동으로 전송됩니다.링크를 복사하여 모든 친구들한테 공유하세요! 추천링크를 생성하는 비용은 8.88TRX이고 거래수수료는 1TRX이하입니다. 이전 링크가 새로운 링크로 바뀌기전까지 링크는 무제한으로 만들수 있습니다.</t>
+  </si>
+  <si>
+    <t>unfreezeToWithdraw</t>
+  </si>
+  <si>
+    <t>Unfreeze Tokens 888 to withdraw</t>
   </si>
 </sst>
 </file>
@@ -9014,10 +9020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9753,6 +9759,14 @@
         <v>553</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9761,10 +9775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10501,6 +10515,14 @@
         <v>554</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10509,10 +10531,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11248,6 +11270,14 @@
         <v>611</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11256,10 +11286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection sqref="A1:B91"/>
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11995,6 +12025,14 @@
         <v>597</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12003,10 +12041,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12742,6 +12780,14 @@
         <v>553</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12750,10 +12796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:B91"/>
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13489,6 +13535,14 @@
         <v>582</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13497,10 +13551,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14236,6 +14290,14 @@
         <v>553</v>
       </c>
     </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF0D572-7B7D-47D1-BC7D-F5986FE261D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06526ADD-DBF3-4C41-945C-9560C6FCB9C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="629">
   <si>
     <t>fairness</t>
   </si>
@@ -8601,6 +8601,48 @@
   </si>
   <si>
     <t>Unfreeze Tokens 888 to withdraw</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
+  </si>
+  <si>
+    <t>your_email</t>
+  </si>
+  <si>
+    <t>Your e-mail</t>
+  </si>
+  <si>
+    <t>Подписаться</t>
+  </si>
+  <si>
+    <t>Ваш e-mail</t>
+  </si>
+  <si>
+    <t>구독하기</t>
+  </si>
+  <si>
+    <t>당신의 이메일</t>
+  </si>
+  <si>
+    <t>订阅</t>
+  </si>
+  <si>
+    <t>您的邮箱地址</t>
+  </si>
+  <si>
+    <t>Suscribir</t>
+  </si>
+  <si>
+    <t>su e-mail</t>
+  </si>
+  <si>
+    <t>Abone ol</t>
+  </si>
+  <si>
+    <t>Sizin e-posta edresiniz</t>
   </si>
 </sst>
 </file>
@@ -8720,24 +8762,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9020,10 +9058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
+      <selection activeCell="A93" sqref="A93:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9095,11 +9133,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9765,6 +9803,22 @@
       </c>
       <c r="B92" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -9775,10 +9829,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9851,11 +9905,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>557</v>
       </c>
     </row>
@@ -10412,74 +10466,74 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" t="s">
         <v>521</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>550</v>
       </c>
     </row>
@@ -10487,7 +10541,7 @@
       <c r="A88" t="s">
         <v>518</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>541</v>
       </c>
     </row>
@@ -10495,7 +10549,7 @@
       <c r="A89" t="s">
         <v>520</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>551</v>
       </c>
     </row>
@@ -10521,6 +10575,22 @@
       </c>
       <c r="B92" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -10531,1520 +10601,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="11" customFormat="1">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>613</v>
-      </c>
-      <c r="B92" t="s">
-        <v>614</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>613</v>
-      </c>
-      <c r="B92" t="s">
-        <v>614</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B92"/>
-  <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12057,7 +10617,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12065,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12073,7 +10633,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -12081,7 +10641,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -12089,7 +10649,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -12097,7 +10657,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -12105,7 +10665,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -12113,14 +10673,14 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>556</v>
       </c>
     </row>
@@ -12129,7 +10689,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -12137,7 +10697,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -12145,7 +10705,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -12153,7 +10713,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -12161,7 +10721,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -12169,7 +10729,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -12177,7 +10737,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -12185,7 +10745,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -12193,7 +10753,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -12201,7 +10761,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -12209,7 +10769,7 @@
         <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -12217,15 +10777,15 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
-        <v>478</v>
+      <c r="B22" s="4" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -12233,7 +10793,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -12241,7 +10801,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -12249,7 +10809,7 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -12257,7 +10817,7 @@
         <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -12265,7 +10825,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -12273,7 +10833,7 @@
         <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -12281,7 +10841,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -12289,7 +10849,7 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -12297,7 +10857,7 @@
         <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -12305,7 +10865,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -12313,199 +10873,199 @@
         <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
-        <v>88</v>
+      <c r="B34" s="4" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>90</v>
       </c>
-      <c r="B35" t="s">
-        <v>91</v>
+      <c r="B35" s="4" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>94</v>
       </c>
-      <c r="B36" t="s">
-        <v>93</v>
+      <c r="B36" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>92</v>
       </c>
-      <c r="B37" t="s">
-        <v>96</v>
+      <c r="B37" s="4" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
-        <v>95</v>
+      <c r="B38" s="4" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" t="s">
-        <v>98</v>
+      <c r="B39" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" t="s">
-        <v>101</v>
+      <c r="B40" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
-      <c r="B41" t="s">
-        <v>103</v>
+      <c r="B41" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
-        <v>104</v>
+      <c r="B42" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s">
-        <v>106</v>
+      <c r="B43" s="4" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" t="s">
-        <v>109</v>
+      <c r="B44" s="4" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
-      <c r="B45" t="s">
-        <v>110</v>
+      <c r="B45" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>260</v>
       </c>
-      <c r="B46" t="s">
-        <v>301</v>
+      <c r="B46" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>263</v>
       </c>
-      <c r="B47" t="s">
-        <v>302</v>
+      <c r="B47" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>265</v>
       </c>
-      <c r="B48" t="s">
-        <v>303</v>
+      <c r="B48" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>266</v>
       </c>
-      <c r="B49" t="s">
-        <v>304</v>
+      <c r="B49" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>269</v>
       </c>
-      <c r="B50" t="s">
-        <v>305</v>
+      <c r="B50" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>271</v>
       </c>
-      <c r="B51" t="s">
-        <v>306</v>
+      <c r="B51" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>273</v>
       </c>
-      <c r="B52" t="s">
-        <v>307</v>
+      <c r="B52" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>258</v>
       </c>
-      <c r="B53" t="s">
-        <v>308</v>
+      <c r="B53" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>278</v>
       </c>
-      <c r="B54" t="s">
-        <v>309</v>
+      <c r="B54" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>279</v>
       </c>
-      <c r="B55" t="s">
-        <v>310</v>
+      <c r="B55" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>280</v>
       </c>
-      <c r="B56" t="s">
-        <v>311</v>
+      <c r="B56" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>281</v>
       </c>
-      <c r="B57" t="s">
-        <v>312</v>
+      <c r="B57" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -12513,15 +11073,15 @@
         <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>283</v>
       </c>
-      <c r="B59" t="s">
-        <v>313</v>
+      <c r="B59" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -12529,255 +11089,255 @@
         <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>336</v>
       </c>
-      <c r="B61" t="s">
-        <v>337</v>
+      <c r="B61" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>346</v>
       </c>
-      <c r="B62" t="s">
-        <v>347</v>
+      <c r="B62" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>348</v>
       </c>
-      <c r="B63" t="s">
-        <v>349</v>
+      <c r="B63" s="4" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>350</v>
       </c>
-      <c r="B64" t="s">
-        <v>351</v>
+      <c r="B64" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>352</v>
       </c>
-      <c r="B65" t="s">
-        <v>353</v>
+      <c r="B65" s="4" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>354</v>
       </c>
-      <c r="B66" t="s">
-        <v>355</v>
+      <c r="B66" s="4" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>356</v>
       </c>
-      <c r="B67" t="s">
-        <v>357</v>
+      <c r="B67" s="4" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>358</v>
       </c>
-      <c r="B68" t="s">
-        <v>359</v>
+      <c r="B68" s="4" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>360</v>
       </c>
-      <c r="B69" t="s">
-        <v>361</v>
+      <c r="B69" s="4" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>362</v>
       </c>
-      <c r="B70" t="s">
-        <v>363</v>
+      <c r="B70" s="4" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>364</v>
       </c>
-      <c r="B71" t="s">
-        <v>365</v>
+      <c r="B71" s="4" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>366</v>
       </c>
-      <c r="B72" t="s">
-        <v>367</v>
+      <c r="B72" s="4" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>368</v>
       </c>
-      <c r="B73" t="s">
-        <v>369</v>
+      <c r="B73" s="4" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>370</v>
       </c>
-      <c r="B74" t="s">
-        <v>371</v>
+      <c r="B74" s="4" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>372</v>
       </c>
-      <c r="B75" t="s">
-        <v>373</v>
+      <c r="B75" s="4" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>374</v>
       </c>
-      <c r="B76" t="s">
-        <v>375</v>
+      <c r="B76" s="4" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>474</v>
       </c>
-      <c r="B77" t="s">
-        <v>475</v>
+      <c r="B77" s="4" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>476</v>
       </c>
-      <c r="B78" t="s">
-        <v>477</v>
+      <c r="B78" s="4" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" t="s">
         <v>521</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" t="s">
         <v>523</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>509</v>
+      <c r="B81" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>20</v>
+      <c r="B82" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>22</v>
+      <c r="B83" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>511</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>512</v>
+        <v>604</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>560</v>
+      <c r="B85" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>514</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>515</v>
+        <v>606</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>516</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>517</v>
+        <v>607</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>518</v>
       </c>
-      <c r="B88" t="s">
-        <v>561</v>
+      <c r="B88" s="4" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>520</v>
       </c>
-      <c r="B89" t="s">
-        <v>519</v>
+      <c r="B89" s="4" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>533</v>
       </c>
-      <c r="B90" t="s">
-        <v>534</v>
+      <c r="B90" s="4" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>552</v>
       </c>
-      <c r="B91" t="s">
-        <v>553</v>
+      <c r="B91" s="4" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -12786,6 +11346,22 @@
       </c>
       <c r="B92" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -12794,12 +11370,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B92"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12811,71 +11387,71 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>142</v>
+      <c r="B1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>143</v>
+      <c r="B2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>144</v>
+      <c r="B3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>145</v>
+      <c r="B4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>146</v>
+      <c r="B5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>147</v>
+      <c r="B6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>148</v>
+      <c r="B7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>555</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>556</v>
       </c>
     </row>
@@ -12883,192 +11459,192 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>150</v>
+      <c r="B10" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>151</v>
+      <c r="B11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>152</v>
+      <c r="B12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>153</v>
+      <c r="B13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>154</v>
+      <c r="B14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>155</v>
+      <c r="B15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>156</v>
+      <c r="B16" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>157</v>
+      <c r="B17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>158</v>
+      <c r="B18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>159</v>
+      <c r="B19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>160</v>
+      <c r="B20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>161</v>
+      <c r="B21" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>562</v>
+      <c r="B22" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>183</v>
+      <c r="B23" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>162</v>
+      <c r="B24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>163</v>
+      <c r="B25" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>164</v>
+      <c r="B26" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>165</v>
+      <c r="B27" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>166</v>
+      <c r="B28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>531</v>
+      <c r="B29" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>167</v>
+      <c r="B30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>168</v>
+      <c r="B31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>169</v>
+      <c r="B32" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>170</v>
+      <c r="B33" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -13076,7 +11652,7 @@
         <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -13084,7 +11660,7 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -13092,7 +11668,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -13100,7 +11676,7 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -13108,7 +11684,7 @@
         <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -13116,7 +11692,7 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -13124,7 +11700,7 @@
         <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -13132,7 +11708,7 @@
         <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -13140,6 +11716,1548 @@
         <v>105</v>
       </c>
       <c r="B42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>360</v>
+      </c>
+      <c r="B69" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>521</v>
+      </c>
+      <c r="B79" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>523</v>
+      </c>
+      <c r="B80" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>510</v>
+      </c>
+      <c r="B81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>511</v>
+      </c>
+      <c r="B84" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>513</v>
+      </c>
+      <c r="B85" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>518</v>
+      </c>
+      <c r="B88" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>520</v>
+      </c>
+      <c r="B89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>624</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:B94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>263</v>
+      </c>
+      <c r="B47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>269</v>
+      </c>
+      <c r="B50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>278</v>
+      </c>
+      <c r="B54" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>284</v>
+      </c>
+      <c r="B58" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>336</v>
+      </c>
+      <c r="B61" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B65" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>356</v>
+      </c>
+      <c r="B67" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>358</v>
+      </c>
+      <c r="B68" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>360</v>
+      </c>
+      <c r="B69" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>362</v>
+      </c>
+      <c r="B70" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>368</v>
+      </c>
+      <c r="B73" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>521</v>
+      </c>
+      <c r="B79" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>523</v>
+      </c>
+      <c r="B80" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>510</v>
+      </c>
+      <c r="B81" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>511</v>
+      </c>
+      <c r="B84" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>513</v>
+      </c>
+      <c r="B85" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>514</v>
+      </c>
+      <c r="B86" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>516</v>
+      </c>
+      <c r="B87" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>518</v>
+      </c>
+      <c r="B88" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>520</v>
+      </c>
+      <c r="B89" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>533</v>
+      </c>
+      <c r="B90" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>552</v>
+      </c>
+      <c r="B91" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>613</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
         <v>104</v>
       </c>
     </row>
@@ -13432,74 +13550,74 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" t="s">
         <v>521</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>580</v>
       </c>
     </row>
@@ -13541,6 +13659,22 @@
       </c>
       <c r="B92" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -13551,10 +13685,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B92"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13563,7 +13697,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -13571,7 +13705,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -13579,7 +13713,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -13587,7 +13721,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -13595,7 +13729,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -13603,7 +13737,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -13611,7 +13745,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -13619,15 +13753,15 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>555</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -13635,7 +13769,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -13643,7 +13777,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -13651,7 +13785,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -13659,7 +13793,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -13667,7 +13801,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -13675,7 +13809,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -13683,7 +13817,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -13691,7 +13825,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -13699,7 +13833,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -13707,7 +13841,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -13715,7 +13849,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
+      <c r="A20" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -13723,7 +13857,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -13731,7 +13865,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -13739,7 +13873,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -13747,7 +13881,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -13755,7 +13889,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -13763,7 +13897,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -13771,7 +13905,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -13779,7 +13913,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -13787,7 +13921,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -13795,7 +13929,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -13803,7 +13937,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4" t="s">
+      <c r="A31" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -13811,7 +13945,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4" t="s">
+      <c r="A32" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -13819,442 +13953,442 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="4" t="s">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="4" t="s">
+      <c r="A43" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
+      <c r="A44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="4" t="s">
+      <c r="A46" t="s">
         <v>260</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" t="s">
         <v>263</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="4" t="s">
+      <c r="A48" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" t="s">
         <v>266</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" t="s">
         <v>271</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" t="s">
         <v>273</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" t="s">
         <v>258</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" t="s">
         <v>278</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" t="s">
         <v>280</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" t="s">
         <v>281</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" t="s">
         <v>284</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" t="s">
         <v>283</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" t="s">
         <v>285</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" t="s">
         <v>336</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" t="s">
         <v>346</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" t="s">
         <v>348</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="6" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" t="s">
         <v>352</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" t="s">
         <v>356</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" t="s">
         <v>358</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" t="s">
         <v>360</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" t="s">
         <v>362</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" t="s">
         <v>364</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" t="s">
         <v>366</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="6" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" t="s">
         <v>368</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" t="s">
         <v>370</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="6" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" t="s">
         <v>372</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" t="s">
         <v>374</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="6" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" t="s">
         <v>474</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" t="s">
         <v>476</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" t="s">
         <v>521</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" t="s">
         <v>523</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" t="s">
         <v>510</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" t="s">
         <v>511</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="4" t="s">
+      <c r="A85" t="s">
         <v>513</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" t="s">
         <v>514</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" t="s">
         <v>516</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" t="s">
         <v>517</v>
       </c>
     </row>
@@ -14296,6 +14430,22 @@
       </c>
       <c r="B92" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>615</v>
+      </c>
+      <c r="B93" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>617</v>
+      </c>
+      <c r="B94" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06526ADD-DBF3-4C41-945C-9560C6FCB9C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2662F6D3-14FF-4B87-B108-0447B0651E73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="643">
   <si>
     <t>fairness</t>
   </si>
@@ -8643,6 +8643,48 @@
   </si>
   <si>
     <t>Sizin e-posta edresiniz</t>
+  </si>
+  <si>
+    <t>still_have_questions</t>
+  </si>
+  <si>
+    <t>Do you have any questions?</t>
+  </si>
+  <si>
+    <t>send_email</t>
+  </si>
+  <si>
+    <t>Send us an e-mail:</t>
+  </si>
+  <si>
+    <t>¿Tiene alguna pregunta?</t>
+  </si>
+  <si>
+    <t>Envíenos un e-mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У вас остались вопросы? </t>
+  </si>
+  <si>
+    <t>Отправьте нам e-mail:</t>
+  </si>
+  <si>
+    <t>질문이 더 있으신가요?</t>
+  </si>
+  <si>
+    <t>이메일 보내주세요</t>
+  </si>
+  <si>
+    <t>还有疑问？</t>
+  </si>
+  <si>
+    <t>请给我们发送电子邮件：</t>
+  </si>
+  <si>
+    <t>Başka sorularınız var mı?</t>
+  </si>
+  <si>
+    <t>Bize e-mail gönderin</t>
   </si>
 </sst>
 </file>
@@ -9058,10 +9100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:B94"/>
+      <selection activeCell="A95" sqref="A95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9821,6 +9863,22 @@
         <v>618</v>
       </c>
     </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B95" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>631</v>
+      </c>
+      <c r="B96" t="s">
+        <v>632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9829,10 +9887,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="A95" sqref="A95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10593,6 +10651,22 @@
         <v>620</v>
       </c>
     </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B95" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>631</v>
+      </c>
+      <c r="B96" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10601,10 +10675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="A95" sqref="A95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11364,6 +11438,22 @@
         <v>622</v>
       </c>
     </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B95" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>631</v>
+      </c>
+      <c r="B96" t="s">
+        <v>638</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11372,10 +11462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12133,6 +12223,22 @@
       </c>
       <c r="B94" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B95" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>631</v>
+      </c>
+      <c r="B96" t="s">
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -12914,10 +13020,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13677,6 +13783,22 @@
         <v>626</v>
       </c>
     </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B95" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>631</v>
+      </c>
+      <c r="B96" t="s">
+        <v>634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13685,10 +13807,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14448,6 +14570,22 @@
         <v>628</v>
       </c>
     </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B95" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>631</v>
+      </c>
+      <c r="B96" t="s">
+        <v>642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2662F6D3-14FF-4B87-B108-0447B0651E73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B515546-7F15-44C3-AE19-A1C300872FBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="648">
   <si>
     <t>fairness</t>
   </si>
@@ -8685,6 +8685,21 @@
   </si>
   <si>
     <t>Bize e-mail gönderin</t>
+  </si>
+  <si>
+    <t>bet_tooltip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small bets (TRX 50-100) use the same energy ~0.5 TRX as higher bets, but mine less tokens and are less profitable in case of win. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Маленькие ставки (50-100 ТРХ) потребляют такую же энергию как и большие (~0,5 TRX), но приносят меньше токенов и доход. </t>
+  </si>
+  <si>
+    <t>Las apuestas pequeñas (50-100 TRX) consumen la misma energía que las grandes (~ 0.5 TRX), pero generan menos tokens e ingresos.</t>
+  </si>
+  <si>
+    <t>官方提示:由于手续费偏高，投100返回100.36，在这种情况下手续费约0.5,因此50,100的额度是亏损的，建议200起。</t>
   </si>
 </sst>
 </file>
@@ -9100,10 +9115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:B96"/>
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9879,6 +9894,14 @@
         <v>632</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B97" t="s">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9887,10 +9910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:B96"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10667,6 +10690,14 @@
         <v>636</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B97" t="s">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10675,10 +10706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:B96"/>
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11454,6 +11485,14 @@
         <v>638</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B97" t="s">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11462,10 +11501,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:B96"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12241,6 +12280,14 @@
         <v>640</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B97" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12249,10 +12296,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:B94"/>
+      <selection activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13012,6 +13059,14 @@
         <v>618</v>
       </c>
     </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>643</v>
+      </c>
+      <c r="B95" t="s">
+        <v>644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13020,10 +13075,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:B96"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13799,6 +13854,14 @@
         <v>634</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B97" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13807,10 +13870,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:B96"/>
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14586,6 +14649,14 @@
         <v>642</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>643</v>
+      </c>
+      <c r="B97" t="s">
+        <v>645</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B515546-7F15-44C3-AE19-A1C300872FBB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C205152-85EA-4846-A117-33BE9DFE7E8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="654">
   <si>
     <t>fairness</t>
   </si>
@@ -8700,6 +8700,24 @@
   </si>
   <si>
     <t>官方提示:由于手续费偏高，投100返回100.36，在这种情况下手续费约0.5,因此50,100的额度是亏损的，建议200起。</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>Support:</t>
+  </si>
+  <si>
+    <t>支持</t>
+  </si>
+  <si>
+    <t>지원</t>
+  </si>
+  <si>
+    <t>De apoyo</t>
+  </si>
+  <si>
+    <t>Техническая поддержка:</t>
   </si>
 </sst>
 </file>
@@ -9115,10 +9133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9902,6 +9920,14 @@
         <v>644</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B98" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9910,10 +9936,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10698,6 +10724,14 @@
         <v>644</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B98" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10706,10 +10740,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11493,6 +11527,14 @@
         <v>644</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B98" t="s">
+        <v>651</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11501,10 +11543,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12288,6 +12330,14 @@
         <v>647</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B98" t="s">
+        <v>650</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12296,10 +12346,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:XFD95"/>
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13067,6 +13117,14 @@
         <v>644</v>
       </c>
     </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>648</v>
+      </c>
+      <c r="B96" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13075,10 +13133,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13862,6 +13920,14 @@
         <v>646</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B98" t="s">
+        <v>652</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13870,10 +13936,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14657,6 +14723,14 @@
         <v>645</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>648</v>
+      </c>
+      <c r="B98" t="s">
+        <v>649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C205152-85EA-4846-A117-33BE9DFE7E8A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E76EE-AFF4-4A15-8FC2-3EA613B36C09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="660">
   <si>
     <t>fairness</t>
   </si>
@@ -8718,6 +8718,24 @@
   </si>
   <si>
     <t>Техническая поддержка:</t>
+  </si>
+  <si>
+    <t>exchange</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>Биржа</t>
+  </si>
+  <si>
+    <t>Intercambio</t>
+  </si>
+  <si>
+    <t>交易所</t>
+  </si>
+  <si>
+    <t>거래소</t>
   </si>
 </sst>
 </file>
@@ -9133,10 +9151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9928,6 +9946,14 @@
         <v>649</v>
       </c>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>654</v>
+      </c>
+      <c r="B99" t="s">
+        <v>655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9936,10 +9962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10732,6 +10758,14 @@
         <v>653</v>
       </c>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>654</v>
+      </c>
+      <c r="B99" t="s">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10740,10 +10774,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11535,6 +11569,14 @@
         <v>651</v>
       </c>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>654</v>
+      </c>
+      <c r="B99" t="s">
+        <v>659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11543,10 +11585,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12338,6 +12380,14 @@
         <v>650</v>
       </c>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>654</v>
+      </c>
+      <c r="B99" t="s">
+        <v>658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12346,10 +12396,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13125,6 +13175,14 @@
         <v>649</v>
       </c>
     </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>654</v>
+      </c>
+      <c r="B97" t="s">
+        <v>655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13133,10 +13191,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13928,6 +13986,14 @@
         <v>652</v>
       </c>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>654</v>
+      </c>
+      <c r="B99" t="s">
+        <v>657</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13936,10 +14002,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+      <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14731,6 +14797,14 @@
         <v>649</v>
       </c>
     </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>654</v>
+      </c>
+      <c r="B99" t="s">
+        <v>655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256E76EE-AFF4-4A15-8FC2-3EA613B36C09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D2B5C-E04A-43DF-B8DC-CCC83224691D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="661">
   <si>
     <t>fairness</t>
   </si>
@@ -8736,6 +8736,9 @@
   </si>
   <si>
     <t>거래소</t>
+  </si>
+  <si>
+    <t>작은 투자금 (50-100 TPH)은 큰 투자금 (~ 0.5 TRX)과 동일한 에너지를 소비하지만 적은 토큰과 적은 수입을 받습니다.</t>
   </si>
 </sst>
 </file>
@@ -9153,7 +9156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="A99" sqref="A99:XFD99"/>
     </sheetView>
   </sheetViews>
@@ -10776,8 +10779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B99"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11558,7 +11561,7 @@
         <v>643</v>
       </c>
       <c r="B97" t="s">
-        <v>644</v>
+        <v>660</v>
       </c>
     </row>
     <row r="98" spans="1:2">

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D2B5C-E04A-43DF-B8DC-CCC83224691D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDD903-4754-4908-9663-8038963167C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="663">
   <si>
     <t>fairness</t>
   </si>
@@ -8739,6 +8739,12 @@
   </si>
   <si>
     <t>작은 투자금 (50-100 TPH)은 큰 투자금 (~ 0.5 TRX)과 동일한 에너지를 소비하지만 적은 토큰과 적은 수입을 받습니다.</t>
+  </si>
+  <si>
+    <t>leaderboard</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
   </si>
 </sst>
 </file>
@@ -9154,10 +9160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9957,6 +9963,14 @@
         <v>655</v>
       </c>
     </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>661</v>
+      </c>
+      <c r="B100" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9965,10 +9979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10769,6 +10783,14 @@
         <v>656</v>
       </c>
     </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>661</v>
+      </c>
+      <c r="B100" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10777,10 +10799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11580,6 +11602,14 @@
         <v>659</v>
       </c>
     </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>661</v>
+      </c>
+      <c r="B100" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11588,10 +11618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12391,6 +12421,14 @@
         <v>658</v>
       </c>
     </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>661</v>
+      </c>
+      <c r="B100" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12399,10 +12437,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+      <selection activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13186,6 +13224,14 @@
         <v>655</v>
       </c>
     </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>661</v>
+      </c>
+      <c r="B98" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13194,10 +13240,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13997,6 +14043,14 @@
         <v>657</v>
       </c>
     </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>661</v>
+      </c>
+      <c r="B100" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14005,10 +14059,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:XFD99"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14808,6 +14862,14 @@
         <v>655</v>
       </c>
     </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>661</v>
+      </c>
+      <c r="B100" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFDD903-4754-4908-9663-8038963167C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5AEC18-6B76-4127-9E74-99E67B9153A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="3105" windowWidth="12435" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
     <sheet name="ru" sheetId="2" r:id="rId2"/>
     <sheet name="kr" sheetId="3" r:id="rId3"/>
     <sheet name="ch" sheetId="4" r:id="rId4"/>
-    <sheet name="br" sheetId="5" r:id="rId5"/>
-    <sheet name="es" sheetId="7" r:id="rId6"/>
-    <sheet name="tr" sheetId="9" r:id="rId7"/>
+    <sheet name="es" sheetId="7" r:id="rId5"/>
+    <sheet name="tr" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="690">
   <si>
     <t>fairness</t>
   </si>
@@ -118,9 +117,6 @@
     <t>bet_id</t>
   </si>
   <si>
-    <t>Bet Id:</t>
-  </si>
-  <si>
     <t>block_number</t>
   </si>
   <si>
@@ -184,9 +180,6 @@
     <t>how_7</t>
   </si>
   <si>
-    <t>Still have questions? Join our telegram group and we'll be more than happy to help!</t>
-  </si>
-  <si>
     <t>network_err</t>
   </si>
   <si>
@@ -214,9 +207,6 @@
     <t>Tron Smart Contract is not awalable now. Please try later.</t>
   </si>
   <si>
-    <t>The winning numbers are random and not known in advance. Randon Number Generator based  on TRON hash block and operated by smart contract in TRON.network You can use Bet ID and Block Number to check winning numbers.</t>
-  </si>
-  <si>
     <t>Честная игра</t>
   </si>
   <si>
@@ -577,9 +567,6 @@
     <t>История</t>
   </si>
   <si>
-    <t>1. Make sure you have a TRONLink wallet. For more information on how to create one, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;click here&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>1. Asegúrese de tener una billetera TRONLink. Obtener más información cómo crear uno, &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;click here&lt;/a&gt;.</t>
   </si>
   <si>
@@ -934,45 +921,15 @@
     <t>可得到</t>
   </si>
   <si>
-    <t>(Toque</t>
-  </si>
-  <si>
-    <t>TRX para o meu 1 Token 888)</t>
-  </si>
-  <si>
-    <t>Palco:</t>
-  </si>
-  <si>
-    <t>Próximo estágio:</t>
-  </si>
-  <si>
-    <t>Dividendos Disponíveis</t>
-  </si>
-  <si>
-    <t>Um total de</t>
-  </si>
-  <si>
-    <t>está congelado na rede - Você receberá</t>
-  </si>
-  <si>
-    <t>acessível</t>
-  </si>
-  <si>
     <t>Retirado</t>
   </si>
   <si>
     <t>Congelar</t>
   </si>
   <si>
-    <t>Congeladas</t>
-  </si>
-  <si>
     <t>Descongelar</t>
   </si>
   <si>
-    <t>Congelando</t>
-  </si>
-  <si>
     <t>Escenario:</t>
   </si>
   <si>
@@ -1024,15 +981,9 @@
     <t>1. Для получения дивидендов вы должны заморозить свои 888 токенов до конца уровня и разморозить их после окончания уровня. &lt;br&gt;2. Дивиденды будут начисляться только на те 888 токенов, которые были заморожены.&lt;br&gt;3. Одним из них является минимальное количество 888 токенов, которые должны быть заморожены. &lt;br&gt;4. Когда 888 токенов размораживаются после окончания уровня, дивиденды будут автоматически начисляться внутренней транзакцией через смарт-контракт. &lt;br&gt;5. Если у вас уже есть замороженные токены на вашем аккаунте при замораживании новой порции, предыдущая порция будет автоматически разморозлена, и все количество токенов будет заморожено. Если на предыдущую часть токенов были начислены дивиденды, они будут автоматически переведены на кошелек игрока посредством внутренней транзакции в рамках смарт-контракта.&lt;br&gt;6. Процессы замораживания и размораживания токенов 888 потребуют несколько TRX, поэтому при совершении транзакций их необходимо иметь в своем кошельке.</t>
   </si>
   <si>
-    <t>1. Para receber dividendos, você deve congelar seus 888 Tokens antes do final de um nível e descongelá-los depois que o nível terminar. &lt;br&gt;2. Os dividendos serão acumulados apenas para os 888 Tokens que foram congelados. &lt;br&gt;3. Um é o número mínimo de 888 tokens que devem ser congelados. &lt;br&gt;4. Quando 888 Tokens são descongelados após o final do nível, os dividendos serão acumulados automaticamente por uma transação interna através do contrato inteligente. &lt;br&gt;5. Se você já tiver alguns tokens congelados em sua conta ao congelar uma nova parte, a parte anterior será automaticamente descongelada e o número inteiro de tokens será congelado. Se os dividendos tiverem sido acumulados na parte anterior dos tokens, eles serão automaticamente transferidos para a carteira do jogador por uma transação interna por meio do contrato inteligente. &lt;br&gt;6. Os processos de congelamento e descongelamento 888 Tokens levarão vários TRX, e é por isso que é necessário tê-los em sua carteira ao fazer transações.</t>
-  </si>
-  <si>
     <t>Por favor ingrese a su billetera TRONLink. Si no tiene instalada la billetera TRONLink, visite &lt;a href="http://u6.gg/gmc5D" target="_blank"&gt;http://u6.gg/gmc5D&lt;/a&gt; y descargue la extensión de Chrome. (TRONbet solo está disponible usando el navegador Chrome por el momento)</t>
   </si>
   <si>
-    <t>Por favor, faça o login na sua carteira TRONLink. Se você não tiver a carteira TRONLink instalada, visite &lt;a href="http://u6.gg/gmc5D" target="_blank"&gt;http://u6.gg/gmc5D&lt;/a&gt; e faça o download da extensão do Chrome. (TRONbet só está disponível usando o navegador Chrome por enquanto)</t>
-  </si>
-  <si>
     <t>Пожалуйста, войдите в свой кошелек TRONLink. Если у вас не установлен кошелек TRONLink, перейдите на страницу &lt;a href="http://u6.gg/gmc5D" target="_blank"&gt;http://u6.gg/gmc5D&lt;/a&gt;  и загрузите расширение chrome. (TRONbet доступен только в браузере Chrome на данный момент)</t>
   </si>
   <si>
@@ -1120,9 +1071,6 @@
     <t>token_text_4</t>
   </si>
   <si>
-    <t xml:space="preserve">You can add your 888 tokens to Tron Link. Choose Tokens section and press add address “addressofourtoken”. Once your 888 tokens will be added you can manage them up to your own choice.  </t>
-  </si>
-  <si>
     <t>token_title_5</t>
   </si>
   <si>
@@ -6888,9 +6836,6 @@
   </si>
   <si>
     <t>Linki Kopyala</t>
-  </si>
-  <si>
-    <t>Cards</t>
   </si>
   <si>
     <t>cards</t>
@@ -7292,7 +7237,7 @@
   </si>
   <si>
     <t>배당금</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7419,15 +7364,15 @@
   </si>
   <si>
     <t>지불</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>멀티플레이어</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>찬스</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8591,7 +8536,7 @@
   </si>
   <si>
     <t>전체 수입</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>친구추천 이벤트! 전체 베팅금에서 2%에 상당한 장려금을 얻을수 있습니다. 모든 장려는 스마트 계약을 통해 자동으로 전송됩니다.링크를 복사하여 모든 친구들한테 공유하세요! 추천링크를 생성하는 비용은 8.88TRX이고 거래수수료는 1TRX이하입니다. 이전 링크가 새로운 링크로 바뀌기전까지 링크는 무제한으로 만들수 있습니다.</t>
@@ -8745,18 +8690,161 @@
   </si>
   <si>
     <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>roadmap</t>
+  </si>
+  <si>
+    <t>Roadmap</t>
+  </si>
+  <si>
+    <t>roadmap_date_1</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>roadmap_text_1</t>
+  </si>
+  <si>
+    <t>Adding German and Japanese web site localizations.</t>
+  </si>
+  <si>
+    <t>roadmap_date_3</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>roadmap_text_3</t>
+  </si>
+  <si>
+    <t>European Roulette game launch.</t>
+  </si>
+  <si>
+    <t>roadmap_date_5</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>roadmap_text_5</t>
+  </si>
+  <si>
+    <t>Black Jack game launch.</t>
+  </si>
+  <si>
+    <t>roadmap_date_7</t>
+  </si>
+  <si>
+    <t>Starting June</t>
+  </si>
+  <si>
+    <t>roadmap_text_7</t>
+  </si>
+  <si>
+    <t>Afirst games and DAPPs integration created by outsource dev.teams.</t>
+  </si>
+  <si>
+    <t>roadmap_date_2</t>
+  </si>
+  <si>
+    <t>roadmap_text_2</t>
+  </si>
+  <si>
+    <t>General platform improvements and optimization (speed and transaction costs).</t>
+  </si>
+  <si>
+    <t>roadmap_date_4</t>
+  </si>
+  <si>
+    <t>roadmap_text_4</t>
+  </si>
+  <si>
+    <t>Presentation of 888 ecosystem concept and first steps of development success.</t>
+  </si>
+  <si>
+    <t>roadmap_date_6</t>
+  </si>
+  <si>
+    <t>roadmap_text_6</t>
+  </si>
+  <si>
+    <t>Best dev.team competion launch with prize fund over USD 100K.</t>
+  </si>
+  <si>
+    <t>roadmap_date_8</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>roadmap_text_8</t>
+  </si>
+  <si>
+    <t>Legal research (Subject: 888tron.com licensing)</t>
+  </si>
+  <si>
+    <t>Март</t>
+  </si>
+  <si>
+    <t>добавление локализаций на немецкий и японский языки.</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> запуск новой игры Black Jack.</t>
+  </si>
+  <si>
+    <t>запуск соревнования для разработчиков с призовым фондом более 100 т. USD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">запуск новых игр и интеграция DAPPs сторонних разработчиков на платформе 888. </t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Июнь и далее</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>отладка платформы (сокращение стоимости транзакций, увеличение скорости обработки данных смарт контрактами).</t>
+  </si>
+  <si>
+    <t>анонс о создании экосистемы 888.</t>
+  </si>
+  <si>
+    <t>Дорожная карта</t>
+  </si>
+  <si>
+    <t>правовой анализ (возможность получения гемблинговой лицензии для дапп платформы).</t>
+  </si>
+  <si>
+    <t>запуск новой игры Европейская рулетка.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8859,30 +8947,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ED9804DD-9D7B-4F0C-915B-DB9BBB4244BC}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{308007F8-75F5-48CB-9EC0-539FB54BDEA2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9160,10 +9251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9200,7 +9291,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9237,10 +9328,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9296,7 +9387,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9304,519 +9395,519 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
         <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B60" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9837,138 +9928,274 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B96" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="B99" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B115" s="9" t="s">
         <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -9979,10 +10206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9996,7 +10223,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10004,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10012,7 +10239,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10020,7 +10247,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10028,7 +10255,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10036,7 +10263,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10044,7 +10271,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10052,15 +10279,15 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10068,7 +10295,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10076,7 +10303,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10084,7 +10311,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10092,7 +10319,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10100,7 +10327,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10108,7 +10335,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10116,7 +10343,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10124,519 +10351,519 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B60" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
+        <v>351</v>
+      </c>
+      <c r="B73" t="s">
         <v>368</v>
-      </c>
-      <c r="B73" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -10644,7 +10871,7 @@
         <v>19</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -10652,143 +10879,279 @@
         <v>21</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B96" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="B99" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B100" t="s">
-        <v>662</v>
+      <c r="B115" s="9" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -10799,10 +11162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10815,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10823,7 +11186,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10831,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10839,7 +11202,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10847,7 +11210,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10855,7 +11218,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10863,7 +11226,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10871,15 +11234,15 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10887,7 +11250,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10895,7 +11258,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10903,7 +11266,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10911,7 +11274,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10919,7 +11282,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10927,7 +11290,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10935,7 +11298,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10943,519 +11306,519 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>392</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>407</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B60" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -11463,7 +11826,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -11471,143 +11834,279 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B96" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="B99" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B115" s="9" t="s">
         <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -11618,10 +12117,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11634,7 +12133,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11642,7 +12141,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -11650,7 +12149,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -11658,7 +12157,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -11666,7 +12165,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -11674,7 +12173,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -11682,7 +12181,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -11690,15 +12189,15 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -11706,7 +12205,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -11714,7 +12213,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -11722,7 +12221,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -11730,7 +12229,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -11738,7 +12237,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -11746,7 +12245,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -11754,7 +12253,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -11762,519 +12261,519 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B54" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B56" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B59" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B60" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B61" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -12282,7 +12781,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -12290,143 +12789,279 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B96" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="B99" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B115" s="9" t="s">
         <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -12436,11 +13071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12452,648 +13087,648 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
+      <c r="B4" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
+      <c r="B8" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B9" t="s">
-        <v>556</v>
+        <v>537</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
+      <c r="B11" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
+      <c r="B12" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>22</v>
+      <c r="B13" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
+      <c r="B14" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>26</v>
+      <c r="B15" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
+      <c r="B16" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>29</v>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>478</v>
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" t="s">
-        <v>182</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B44" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B45" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="50" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>265</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="52" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="54" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>258</v>
-      </c>
-      <c r="B53" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="60" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A60" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B57" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>283</v>
-      </c>
-      <c r="B59" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>336</v>
-      </c>
-      <c r="B61" t="s">
-        <v>337</v>
+      <c r="B60" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>347</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>349</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B64" t="s">
-        <v>351</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>353</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>357</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s">
-        <v>361</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="B70" t="s">
-        <v>363</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s">
-        <v>367</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
-        <v>369</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>371</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s">
-        <v>375</v>
+        <v>558</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -13101,7 +13736,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -13109,20 +13744,20 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s">
         <v>560</v>
@@ -13130,106 +13765,258 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s">
-        <v>517</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s">
-        <v>519</v>
+        <v>563</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s">
-        <v>644</v>
+        <v>615</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>648</v>
+        <v>613</v>
       </c>
       <c r="B96" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>654</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>630</v>
+      </c>
+      <c r="B98" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>636</v>
+      </c>
+      <c r="B99" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B115" s="9" t="s">
         <v>662</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -13239,11 +14026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13256,7 +14043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -13264,7 +14051,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -13272,7 +14059,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13280,7 +14067,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -13288,7 +14075,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13296,7 +14083,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13304,7 +14091,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13312,15 +14099,15 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -13328,7 +14115,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -13336,7 +14123,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -13344,7 +14131,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13352,7 +14139,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -13360,7 +14147,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -13368,7 +14155,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -13376,7 +14163,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -13384,519 +14171,519 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>170</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A43" t="s">
+      <c r="B44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>107</v>
       </c>
-      <c r="B43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A46" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A47" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A48" s="2" t="s">
+      <c r="B45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>265</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A49" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A50" s="2" t="s">
+      <c r="B50" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A51" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A52" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A53" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A54" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A55" s="2" t="s">
+      <c r="B52" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>279</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A56" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="B59" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A57" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A58" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A59" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A60" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A61" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>338</v>
+      <c r="B61" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B62" t="s">
-        <v>563</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B63" t="s">
-        <v>564</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" t="s">
-        <v>565</v>
+        <v>334</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>566</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>354</v>
-      </c>
-      <c r="B66" t="s">
-        <v>567</v>
+        <v>338</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B67" t="s">
-        <v>568</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B68" t="s">
-        <v>569</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B69" t="s">
-        <v>570</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>362</v>
-      </c>
-      <c r="B70" t="s">
-        <v>571</v>
+        <v>346</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s">
-        <v>572</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" t="s">
-        <v>573</v>
+        <v>349</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s">
-        <v>574</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>370</v>
-      </c>
-      <c r="B74" t="s">
-        <v>575</v>
+        <v>353</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s">
-        <v>373</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>374</v>
-      </c>
-      <c r="B76" t="s">
-        <v>576</v>
+        <v>357</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B77" t="s">
-        <v>542</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B78" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B79" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
-        <v>545</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -13904,7 +14691,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>546</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -13912,962 +14699,279 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>153</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B86" t="s">
-        <v>579</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s">
-        <v>580</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="B89" t="s">
-        <v>581</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B90" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="B91" t="s">
-        <v>582</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="B92" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="B94" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="B96" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
       <c r="B97" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="B99" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B115" s="9" t="s">
         <v>662</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B100"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100:XFD100"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>263</v>
-      </c>
-      <c r="B47" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>265</v>
-      </c>
-      <c r="B48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>273</v>
-      </c>
-      <c r="B52" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>258</v>
-      </c>
-      <c r="B53" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>278</v>
-      </c>
-      <c r="B54" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>280</v>
-      </c>
-      <c r="B56" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>281</v>
-      </c>
-      <c r="B57" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>284</v>
-      </c>
-      <c r="B58" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>283</v>
-      </c>
-      <c r="B59" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>285</v>
-      </c>
-      <c r="B60" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>336</v>
-      </c>
-      <c r="B61" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>346</v>
-      </c>
-      <c r="B62" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>352</v>
-      </c>
-      <c r="B65" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>354</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>356</v>
-      </c>
-      <c r="B67" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>358</v>
-      </c>
-      <c r="B68" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>360</v>
-      </c>
-      <c r="B69" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>362</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>364</v>
-      </c>
-      <c r="B71" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>368</v>
-      </c>
-      <c r="B73" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>370</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>372</v>
-      </c>
-      <c r="B75" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>374</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>474</v>
-      </c>
-      <c r="B77" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>476</v>
-      </c>
-      <c r="B78" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>521</v>
-      </c>
-      <c r="B79" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>523</v>
-      </c>
-      <c r="B80" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>510</v>
-      </c>
-      <c r="B81" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>511</v>
-      </c>
-      <c r="B84" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>513</v>
-      </c>
-      <c r="B85" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>514</v>
-      </c>
-      <c r="B86" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>516</v>
-      </c>
-      <c r="B87" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>518</v>
-      </c>
-      <c r="B88" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>520</v>
-      </c>
-      <c r="B89" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>533</v>
-      </c>
-      <c r="B90" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>552</v>
-      </c>
-      <c r="B91" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>613</v>
-      </c>
-      <c r="B92" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>615</v>
-      </c>
-      <c r="B93" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>617</v>
-      </c>
-      <c r="B94" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>629</v>
-      </c>
-      <c r="B95" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>631</v>
-      </c>
-      <c r="B96" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>643</v>
-      </c>
-      <c r="B97" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>648</v>
-      </c>
-      <c r="B98" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>654</v>
-      </c>
-      <c r="B99" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>661</v>
-      </c>
-      <c r="B100" t="s">
-        <v>662</v>
+    <row r="116" spans="1:2">
+      <c r="A116" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5AEC18-6B76-4127-9E74-99E67B9153A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA1A0B-71C4-4005-915D-FB00A3E14D78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="3105" windowWidth="12435" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="718">
   <si>
     <t>fairness</t>
   </si>
@@ -7237,7 +7237,7 @@
   </si>
   <si>
     <t>배당금</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7364,15 +7364,15 @@
   </si>
   <si>
     <t>지불</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>멀티플레이어</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>찬스</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8536,7 +8536,7 @@
   </si>
   <si>
     <t>전체 수입</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>친구추천 이벤트! 전체 베팅금에서 2%에 상당한 장려금을 얻을수 있습니다. 모든 장려는 스마트 계약을 통해 자동으로 전송됩니다.링크를 복사하여 모든 친구들한테 공유하세요! 추천링크를 생성하는 비용은 8.88TRX이고 거래수수료는 1TRX이하입니다. 이전 링크가 새로운 링크로 바뀌기전까지 링크는 무제한으로 만들수 있습니다.</t>
@@ -8825,18 +8825,110 @@
   </si>
   <si>
     <t>запуск новой игры Европейская рулетка.</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Mapa vial</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio ​​y después</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>añadiendo localizaciones a alemán y japonés.</t>
+  </si>
+  <si>
+    <t>depuración de la plataforma (reduciendo el costo de las transacciones, aumentando la velocidad del procesamiento de datos de smart contratos).</t>
+  </si>
+  <si>
+    <t>el lanzamiento del nuevo juego - European Roulette.</t>
+  </si>
+  <si>
+    <t>anuncio de la creación de un ecosistema 888.</t>
+  </si>
+  <si>
+    <t>lanzamiento del nuevo juego Black Jack.</t>
+  </si>
+  <si>
+    <t>lanzamiento del concurso para desarrolladores con un fondo de premios de más de $100 mil.</t>
+  </si>
+  <si>
+    <t>el lanzamiento de nuevos juegos y la integración de DAPP de otros desarrolladores en la plataforma 888.</t>
+  </si>
+  <si>
+    <t>análisis legal (la posibilidad de obtener una licencia de juego para la plataforma dapp).</t>
+  </si>
+  <si>
+    <t>路线图</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>支持德语和日语</t>
+  </si>
+  <si>
+    <t>主要为游戏平台的改进和优化（主要是速度和挖矿成本）</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>推出新游戏“欧洲轮盘赌”</t>
+  </si>
+  <si>
+    <t>介绍888生态概念和如何迈出第一步。</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>推出新游戏“黑杰克”</t>
+  </si>
+  <si>
+    <t>启动最佳开发团队大赛，奖金超10w美元。</t>
+  </si>
+  <si>
+    <t>从6月</t>
+  </si>
+  <si>
+    <t>开始推出第一个孵化dapp。</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>研究合法化以及申请牌照。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8949,25 +9041,26 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10208,8 +10301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B117"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12119,8 +12212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B117"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12932,8 +13025,8 @@
       <c r="A101" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>646</v>
+      <c r="B101" s="10" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -12941,7 +13034,7 @@
         <v>647</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>648</v>
+        <v>705</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -12949,7 +13042,7 @@
         <v>649</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>650</v>
+        <v>706</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -12957,7 +13050,7 @@
         <v>663</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>648</v>
+        <v>705</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -12965,7 +13058,7 @@
         <v>664</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>665</v>
+        <v>707</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -12973,7 +13066,7 @@
         <v>651</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>652</v>
+        <v>708</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -12981,7 +13074,7 @@
         <v>653</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -12989,7 +13082,7 @@
         <v>666</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>652</v>
+        <v>708</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -12997,15 +13090,15 @@
         <v>667</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="9" t="s">
         <v>655</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>656</v>
+      <c r="B110" s="10" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -13013,7 +13106,7 @@
         <v>657</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>658</v>
+        <v>712</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -13021,7 +13114,7 @@
         <v>669</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -13029,7 +13122,7 @@
         <v>670</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>671</v>
+        <v>713</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -13037,7 +13130,7 @@
         <v>659</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>660</v>
+        <v>714</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -13045,7 +13138,7 @@
         <v>661</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>662</v>
+        <v>715</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -13053,7 +13146,7 @@
         <v>672</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -13061,7 +13154,7 @@
         <v>674</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -13074,8 +13167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B117"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13888,7 +13981,7 @@
         <v>645</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -13896,7 +13989,7 @@
         <v>647</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -13904,7 +13997,7 @@
         <v>649</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -13912,15 +14005,15 @@
         <v>663</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="9" t="s">
         <v>664</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>665</v>
+      <c r="B105" s="10" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -13928,7 +14021,7 @@
         <v>651</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -13936,7 +14029,7 @@
         <v>653</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>654</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -13944,7 +14037,7 @@
         <v>666</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -13952,7 +14045,7 @@
         <v>667</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -13960,7 +14053,7 @@
         <v>655</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -13968,23 +14061,23 @@
         <v>657</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="9" t="s">
         <v>669</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>656</v>
+      <c r="B112" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="9" t="s">
         <v>670</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>671</v>
+      <c r="B113" s="10" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -13992,7 +14085,7 @@
         <v>659</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -14000,7 +14093,7 @@
         <v>661</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -14008,7 +14101,7 @@
         <v>672</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -14016,7 +14109,7 @@
         <v>674</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA1A0B-71C4-4005-915D-FB00A3E14D78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0611618D-64E4-4773-9BA2-2304BC9FAD2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="785">
   <si>
     <t>fairness</t>
   </si>
@@ -8909,13 +8909,214 @@
   </si>
   <si>
     <t>研究合法化以及申请牌照。</t>
+  </si>
+  <si>
+    <t>question_1</t>
+  </si>
+  <si>
+    <t>answer_2</t>
+  </si>
+  <si>
+    <t>question_2</t>
+  </si>
+  <si>
+    <t>answer_1</t>
+  </si>
+  <si>
+    <t>question_3</t>
+  </si>
+  <si>
+    <t>answer_3</t>
+  </si>
+  <si>
+    <t>question_4</t>
+  </si>
+  <si>
+    <t>answer_4</t>
+  </si>
+  <si>
+    <t>question_5</t>
+  </si>
+  <si>
+    <t>answer_5</t>
+  </si>
+  <si>
+    <t>question_6</t>
+  </si>
+  <si>
+    <t>answer_6</t>
+  </si>
+  <si>
+    <t>question_7</t>
+  </si>
+  <si>
+    <t>answer_7</t>
+  </si>
+  <si>
+    <t>question_8</t>
+  </si>
+  <si>
+    <t>answer_8</t>
+  </si>
+  <si>
+    <t>question_9</t>
+  </si>
+  <si>
+    <t>answer_9</t>
+  </si>
+  <si>
+    <t>question_10</t>
+  </si>
+  <si>
+    <t>answer_10</t>
+  </si>
+  <si>
+    <t>question_11</t>
+  </si>
+  <si>
+    <t>answer_11</t>
+  </si>
+  <si>
+    <t>I didn’t get my bet (winnings) back.</t>
+  </si>
+  <si>
+    <t>Using your TRX wallet number check on tronscan.org - Internal Transactions section. All winning payouts come from this address: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>I have not received my dividend.</t>
+  </si>
+  <si>
+    <t>Make sure your tokens were frozen at the moment ofr divs distribution. Using your TRX wallet number check on tronscan.org - Internal Transactions section. All divs payouts come from this address: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>I have a bunch of TRX missing from playing.</t>
+  </si>
+  <si>
+    <t>888Tron.com is a fully decentralized platform. If your bet was accepted by smart contract it means that it was processed by blockchain and can be easily check on tronscan.org - Internal Transactions section. All winning payouts come from this address: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe. Unaccepted bets do not influence your wallet balance and will be returned. Due to an extremely high number of bets made per second (~15-20) some bets might be rejected by smart contract.</t>
+  </si>
+  <si>
+    <t>How I can check my game log.</t>
+  </si>
+  <si>
+    <t>You may use this instrument to check you game log. https://888tron.com/api/getHistory?address= - After (=) you shall put your wallet number.</t>
+  </si>
+  <si>
+    <t>My Tronlink wallet is not showing up today on the 888tron.com web site.</t>
+  </si>
+  <si>
+    <t>Refresh the website. Refresh your wallet or login into it again if necessary. Make sure your wallet works under the Mainnet. In the wallet Settings menu try choosing another Custom node form the list available.</t>
+  </si>
+  <si>
+    <t>My 888 tokens don’t freeze (unfreeze).</t>
+  </si>
+  <si>
+    <t>Make sure you have at least TRX 5 on your wallet account. Every time you freeze or unfreeze your tokens you need energy and bandwidth. Wait 5-10 seconds. If nothing happened refresh the website. Refresh your wallet or login into it again if necessary. Make sure your wallet works under the Mainnet. In the wallet Settings menu try choosing another Custom node form the list available.</t>
+  </si>
+  <si>
+    <t>My referral link is not working.</t>
+  </si>
+  <si>
+    <t>You were invited to 888tron.com by another referral. Now your wallet is tied up to that referral and you cant use your own ref.link for yourself.</t>
+  </si>
+  <si>
+    <t>How can I get my dividends from 888 token?</t>
+  </si>
+  <si>
+    <t>Press “unfreeze" button on 888tron.com (Dividends section ) to get them. Divs will be transferred to your wallet immediately. Make sure you have TRX 3 on your account. Once its done do not forget to freeze your tokens again so you don’t miss next divs. distribution.</t>
+  </si>
+  <si>
+    <t>What should I do to start playing on 888tron?</t>
+  </si>
+  <si>
+    <t>Where I can trade my tokens?</t>
+  </si>
+  <si>
+    <t>You can trade 888 tokens here: https://trontrade.io</t>
+  </si>
+  <si>
+    <t>Where I can check info about your token address and your platform?</t>
+  </si>
+  <si>
+    <t>www.tronscan.org &lt;br&gt;Token address: TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3&lt;br&gt; 888tron game smart contract address: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe &lt;br&gt;Github:https://github.com/888tron/contracts/blob/master/Token888.sol &lt;br&gt;https://github.com/888tron/contracts</t>
+  </si>
+  <si>
+    <t>Я не получил выплату по сыгравшей ставке.</t>
+  </si>
+  <si>
+    <t>Выплаты можно проверить на сайте www.tronscan.org по номеру Вашего ТРХ кошелька во вкладке InternalTransactions. Выплаты выигрышей производятся со следующего адреса: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>Я не получил дивиденды.</t>
+  </si>
+  <si>
+    <t>Убедитесь, что ваши токены 888 были заморожены в момент выплаты дивидендов. Выплаты можно проверить на сайте www.tronscan.org по номеру Вашего ТРХ кошелька во вкладке Internal Transactions. Выплаты дивидендов производятся со следующего адреса: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>У меня пропали ТРХ с баланса во время игры.</t>
+  </si>
+  <si>
+    <t>Платформа 888Tron.com полностью децентрализованная, т.е. работает на смарт контрактах. Если Ваша ставка была принята она будет отображена в истории транзакции блокчейна Tron и ее можно проверить на сайте www.tronscan.org по номеру Вашего ТРХ кошелька во вкладке Internal Transactions. Все выплаты производятся с адреса TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe. Не принятые ставки возвращаются игроку автоматически и не влияют на баланс кошелька. В некоторых случаях ввиду очень большой нагрузки (~ 15-20 транзакций в секунду) смарт контракт может не принять Вашу ставку.</t>
+  </si>
+  <si>
+    <t>Баланс моего кошелька сегодня не отображается на сайте 888tron.com.</t>
+  </si>
+  <si>
+    <t>Перезагрузите сайт. Перезагрузите ваш кошелек и, в случае необходимости, войдите в него снова. Убедитесь, что кошелек работает в сети Mainnet. В меню Настройки кошелька поробуйте сменить ноду из имеющегося списка.</t>
+  </si>
+  <si>
+    <t>Мои токены 888 не замораживаются (размораживаются).</t>
+  </si>
+  <si>
+    <t>Убедитесь, что баланс Вашего кошелька положительный (5 ТРХ). Каждый раз, когда Вы замораживаете или размораживаете токены вы расходуете энергию. После нажатия на выбранную кнопку необходимо подождать 5-10 секунд пока сеть Трона обработает транзакцию. Перезагрузите сайт. Перезагрузите ваш кошелек и, в случае необходимости, войдите в него снова. Убедитесь, что кошелек работает в сети Mainnet. В меню Настройки кошелька поробуйте сменить ноду из имеющегося списка.</t>
+  </si>
+  <si>
+    <t>Моя реферальная ссылка не работает.</t>
+  </si>
+  <si>
+    <t>Это означает, что вы пришли на сайт 888tron.com по реферальной ссылке другого человека и теперь Ваш кошелек привязан к его реферальной ссылке. Отвязать данный кошелек от ссылки друга невозможно. Играть по собственной ссылке с данного кошелька тоже не получится.</t>
+  </si>
+  <si>
+    <t>Где я могу проверить лог историю своей игры?</t>
+  </si>
+  <si>
+    <t>Вы можете воспользоваться данным инструментом: https://888tron.com/api/getHistory?address= - после знака = нужно ввести номер вашего кошелька.</t>
+  </si>
+  <si>
+    <t>Как мне получить дивиденды с моих 888 токенов?</t>
+  </si>
+  <si>
+    <t>В разделе Дивиденды на сайте 888tron.com нажмите кнопку Разморозить. Дивиденды будут зачислены на Ваш кошелек автоматически. Убедитесь, что Ваш баланс кошелька положительный (3-5 ТРХ). После разморозки токенов не забудьте их снова заморозить, чтобы участвовать в следующих раундах распределения дивидендов.</t>
+  </si>
+  <si>
+    <t>Что нужно сделать, чтобы начать играть на 888tron.com?</t>
+  </si>
+  <si>
+    <t>Для игры на компьютере используйте браузер Chrome. Зарегистрируйте ТРХ кошелек TronLink.&lt;br&gt; Для игры с мобильных устройств используйте следующие кошельки:&lt;br&gt; Math Wallet (www. mathwallet.org), &lt;br&gt;TronWallet (www.TronWallet.me),&lt;br&gt; Banko wallet (www.bankowallet.com).</t>
+  </si>
+  <si>
+    <t>You need Chrome browser. Register TRONLink wallet to play on Desktop. &lt;br&gt;To play on mobile please use&lt;br&gt; Math Wallet (www. mathwallet.org), &lt;br&gt;TronWallet (www.TronWallet.me),&lt;br&gt; Banko wallet (www.bankowallet.com).</t>
+  </si>
+  <si>
+    <t>Как мне проверить децентрализованность платформы?</t>
+  </si>
+  <si>
+    <t>www.tronscan.org&lt;br&gt; Адрес токена 888: TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3&lt;br&gt; Адрес игр 888tron: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe&lt;br&gt; Github:https://github.com/888tron/contracts/blob/master/Token888.sol &lt;br&gt;https://github.com/888tron/contracts</t>
+  </si>
+  <si>
+    <t>Troubleshooting</t>
+  </si>
+  <si>
+    <t>troubleshooting</t>
+  </si>
+  <si>
+    <t>Устранение неполадок</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9006,6 +9207,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9045,7 +9262,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9061,6 +9278,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9344,10 +9563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B117"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10291,6 +10510,190 @@
         <v>675</v>
       </c>
     </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>722</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>725</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>735</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>737</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>739</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10299,10 +10702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11247,6 +11650,190 @@
         <v>688</v>
       </c>
     </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>722</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>725</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>735</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>737</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>739</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11255,10 +11842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B117"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12202,6 +12789,190 @@
         <v>675</v>
       </c>
     </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>722</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>725</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>735</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>737</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>739</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12210,10 +12981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:B117"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13157,6 +13928,190 @@
         <v>717</v>
       </c>
     </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>722</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>725</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>735</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>737</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>739</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13165,10 +14120,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101:B117"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14112,6 +15067,190 @@
         <v>703</v>
       </c>
     </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>722</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>725</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>735</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>737</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>739</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14120,10 +15259,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:B117"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140:XFD140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15067,6 +16206,190 @@
         <v>675</v>
       </c>
     </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>722</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>725</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>735</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>737</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>739</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>782</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0611618D-64E4-4773-9BA2-2304BC9FAD2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756DB8B-4D45-4D8C-829E-DB04A24185CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="814">
   <si>
     <t>fairness</t>
   </si>
@@ -7237,7 +7237,7 @@
   </si>
   <si>
     <t>배당금</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7364,15 +7364,15 @@
   </si>
   <si>
     <t>지불</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>멀티플레이어</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>찬스</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8536,7 +8536,7 @@
   </si>
   <si>
     <t>전체 수입</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>친구추천 이벤트! 전체 베팅금에서 2%에 상당한 장려금을 얻을수 있습니다. 모든 장려는 스마트 계약을 통해 자동으로 전송됩니다.링크를 복사하여 모든 친구들한테 공유하세요! 추천링크를 생성하는 비용은 8.88TRX이고 거래수수료는 1TRX이하입니다. 이전 링크가 새로운 링크로 바뀌기전까지 링크는 무제한으로 만들수 있습니다.</t>
@@ -9110,18 +9110,113 @@
   </si>
   <si>
     <t>Устранение неполадок</t>
+  </si>
+  <si>
+    <t>question_12</t>
+  </si>
+  <si>
+    <t>answer_12</t>
+  </si>
+  <si>
+    <t>You can check all your token transfers on tronscan.org (TRC-20 Transfers section) by typing in your wallet number where tokens are stored. All tokens transactions are kept in blockchain and cannot be faked or lost.</t>
+  </si>
+  <si>
+    <t>I cannot find my 888 tokens after they were unfreezed.</t>
+  </si>
+  <si>
+    <t>Я не могу найти свои токены 888 после разморозки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вы можете проверить все транзакции токенов 888 по номеру своего кошелька на сайте www.tronscan.org (раздел TRC-20 Transfers section). Записи в блокчейне отражают все перемещения токенов и не могут быть изменены. </t>
+  </si>
+  <si>
+    <t>我没有拿到我赢得钱</t>
+  </si>
+  <si>
+    <t>请用你的波场钱包登录tronscan.org浏览器，然后输入你的钱包地址查看记录，所有奖金都来自合约地址TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>我没有收到分红</t>
+  </si>
+  <si>
+    <t>首先确保你的令牌处于锁定状态，然后可以登录tronscan.org浏览器，输入你的钱包地址查看记录，所有分红支付都来自合约地址TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMeTGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>我在玩的时候少了一些888</t>
+  </si>
+  <si>
+    <t>888Tron.com是一个基于区块链的平台，如果你的投注被智能合约接受，这意味着它是由区块链处理的，可以很容易的在tronscan.org浏览器上进行检查，所有获奖奖金都来自这个地址:TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe，未接受的投注不会影响您的钱包余额，并将被退还。由于每秒的投注数非常高(15-20)，一些投注可能被合约拒绝。</t>
+  </si>
+  <si>
+    <t>如何查看我的交易历史</t>
+  </si>
+  <si>
+    <t>你可以用这个工具检查你的游戏日志，https://888tron.com/api/getHistory?address= - After (=)，在(=)后面输入你的钱包地址</t>
+  </si>
+  <si>
+    <t>我的Tronlink钱包今天链接不上888tron.com网站上。</t>
+  </si>
+  <si>
+    <t>轻刷新网站或者重新链接，并确保你的钱包在主网下面，以及尝试在钱包“设置”中更换节点</t>
+  </si>
+  <si>
+    <t>我的888代币不能冻结(解冻)。</t>
+  </si>
+  <si>
+    <t>首先请确保你的钱包里面有5trx（因为每次冻结或者解冻时都需要消耗宽带和能量）然后等待5-10秒，以及尝试刷新页面、查看主网、更换节点等操作。</t>
+  </si>
+  <si>
+    <t>我的推荐链接无法使用。</t>
+  </si>
+  <si>
+    <t>由于你被另一位推荐人邀请参与到888tron.com，现在你的钱包已经和那个推荐人绑定在一起了，所以你不能使用自己的邀请了。</t>
+  </si>
+  <si>
+    <t>我如何从888领取股息（分红）?</t>
+  </si>
+  <si>
+    <t>按住游戏内的“解冻”按钮就可以得到他们，分红将立即转账到您的钱包，并确保你的账户上又3各trx，并且解冻完不要忘记再次再次冻结您的令牌，这样你就不会错过下一次分红了。</t>
+  </si>
+  <si>
+    <t>我如何参与到888游戏呢？</t>
+  </si>
+  <si>
+    <t>你需要Chrome浏览器，并注册TRONLink钱包在桌面上参与游戏，手机上可以在麦子钱包、稳拿派钱包上参与。</t>
+  </si>
+  <si>
+    <t>我可以在哪里兑换我的代币？</t>
+  </si>
+  <si>
+    <t>你可以在波场去中心化交易所兑换，地址在这里: https://trontrade.io</t>
+  </si>
+  <si>
+    <t>我可以在哪里查询有关您的令牌地址和平台的信息?</t>
+  </si>
+  <si>
+    <t>问题解答</t>
+  </si>
+  <si>
+    <t>在tronscan.org浏览器上查询代币地址TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3；&lt;br&gt;游戏智能合约地址：TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe；&lt;br&gt;源码地址：https://github.com/888tron/contracts/blob/master/；&lt;br&gt;https://github.com/888tron/contracts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9256,36 +9351,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ED9804DD-9D7B-4F0C-915B-DB9BBB4244BC}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{308007F8-75F5-48CB-9EC0-539FB54BDEA2}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{915F41E7-9174-4C25-9136-2CEAE3DA4909}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9563,10 +9661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10694,6 +10792,22 @@
         <v>782</v>
       </c>
     </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>785</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>786</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10702,10 +10816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+      <selection activeCell="A141" sqref="A141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11834,6 +11948,22 @@
         <v>784</v>
       </c>
     </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>785</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>786</v>
+      </c>
+      <c r="B142" t="s">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11842,10 +11972,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+      <selection activeCell="A141" sqref="A141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12973,6 +13103,22 @@
         <v>782</v>
       </c>
     </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>785</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>786</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12981,10 +13127,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13932,176 +14078,176 @@
       <c r="A118" t="s">
         <v>718</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>740</v>
+      <c r="B118" s="13" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>721</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>741</v>
+      <c r="B119" s="13" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>720</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>742</v>
+      <c r="B120" s="13" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>719</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>743</v>
+      <c r="B121" s="13" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>722</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>744</v>
+      <c r="B122" s="13" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>723</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>745</v>
+      <c r="B123" s="13" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>724</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>746</v>
+      <c r="B124" s="13" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>725</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>747</v>
+      <c r="B125" s="13" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>726</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>748</v>
+      <c r="B126" s="13" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>727</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>749</v>
+      <c r="B127" s="13" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>728</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>750</v>
+      <c r="B128" s="13" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>729</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>751</v>
+      <c r="B129" s="13" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>730</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>752</v>
+      <c r="B130" s="13" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>731</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>753</v>
+      <c r="B131" s="13" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>732</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>754</v>
+      <c r="B132" s="13" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>733</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>755</v>
+      <c r="B133" s="13" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>734</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>756</v>
+      <c r="B134" s="13" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>735</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>779</v>
+      <c r="B135" s="13" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>736</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>757</v>
+      <c r="B136" s="13" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>737</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>758</v>
+      <c r="B137" s="13" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>738</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>759</v>
+      <c r="B138" s="13" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>739</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>760</v>
+      <c r="B139" s="13" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -14109,7 +14255,23 @@
         <v>783</v>
       </c>
       <c r="B140" t="s">
-        <v>782</v>
+        <v>812</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>785</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>786</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -14120,10 +14282,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+      <selection activeCell="A141" sqref="A141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15251,6 +15413,22 @@
         <v>782</v>
       </c>
     </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>785</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>786</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15259,10 +15437,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140:XFD140"/>
+      <selection activeCell="A141" sqref="A141:B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -16390,6 +16568,22 @@
         <v>782</v>
       </c>
     </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>785</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>786</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756DB8B-4D45-4D8C-829E-DB04A24185CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B787232-99B3-4EA6-A586-92F1576D4924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="815">
   <si>
     <t>fairness</t>
   </si>
@@ -9197,6 +9197,9 @@
   </si>
   <si>
     <t>在tronscan.org浏览器上查询代币地址TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3；&lt;br&gt;游戏智能合约地址：TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe；&lt;br&gt;源码地址：https://github.com/888tron/contracts/blob/master/；&lt;br&gt;https://github.com/888tron/contracts</t>
+  </si>
+  <si>
+    <t>Get rewarded just by referring your friends! Enjoy lifetime rewards just by referring your friends! Receive 0.2% of all their BETS. All rewards are sent out automatically through our smart contracts. Just copy the link and share it to all your friends! Enjoy lifetime rewards just by referring your friends! Receive 0.2% of all their bets. All rewards are sent out automatically through our smart contracts. Just copy the link and share it to all your friends! The cost to create a referral link is 8.88 TRX and less than 1 TRX transaction fee. You can create new referral links as many times as you want. The old one will be replaced automatically.</t>
   </si>
 </sst>
 </file>
@@ -9358,7 +9361,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9376,7 +9379,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9663,8 +9665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:B142"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9845,7 +9847,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>814</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -13129,7 +13131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -14078,7 +14080,7 @@
       <c r="A118" t="s">
         <v>718</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" t="s">
         <v>791</v>
       </c>
     </row>
@@ -14086,7 +14088,7 @@
       <c r="A119" t="s">
         <v>721</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" t="s">
         <v>792</v>
       </c>
     </row>
@@ -14094,7 +14096,7 @@
       <c r="A120" t="s">
         <v>720</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" t="s">
         <v>793</v>
       </c>
     </row>
@@ -14102,7 +14104,7 @@
       <c r="A121" t="s">
         <v>719</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B121" t="s">
         <v>794</v>
       </c>
     </row>
@@ -14110,7 +14112,7 @@
       <c r="A122" t="s">
         <v>722</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" t="s">
         <v>795</v>
       </c>
     </row>
@@ -14118,7 +14120,7 @@
       <c r="A123" t="s">
         <v>723</v>
       </c>
-      <c r="B123" s="13" t="s">
+      <c r="B123" t="s">
         <v>796</v>
       </c>
     </row>
@@ -14126,7 +14128,7 @@
       <c r="A124" t="s">
         <v>724</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" t="s">
         <v>797</v>
       </c>
     </row>
@@ -14134,7 +14136,7 @@
       <c r="A125" t="s">
         <v>725</v>
       </c>
-      <c r="B125" s="13" t="s">
+      <c r="B125" t="s">
         <v>798</v>
       </c>
     </row>
@@ -14142,7 +14144,7 @@
       <c r="A126" t="s">
         <v>726</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" t="s">
         <v>799</v>
       </c>
     </row>
@@ -14150,7 +14152,7 @@
       <c r="A127" t="s">
         <v>727</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" t="s">
         <v>800</v>
       </c>
     </row>
@@ -14158,7 +14160,7 @@
       <c r="A128" t="s">
         <v>728</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="B128" t="s">
         <v>801</v>
       </c>
     </row>
@@ -14166,7 +14168,7 @@
       <c r="A129" t="s">
         <v>729</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="B129" t="s">
         <v>802</v>
       </c>
     </row>
@@ -14174,7 +14176,7 @@
       <c r="A130" t="s">
         <v>730</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" t="s">
         <v>803</v>
       </c>
     </row>
@@ -14182,7 +14184,7 @@
       <c r="A131" t="s">
         <v>731</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" t="s">
         <v>804</v>
       </c>
     </row>
@@ -14190,7 +14192,7 @@
       <c r="A132" t="s">
         <v>732</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" t="s">
         <v>805</v>
       </c>
     </row>
@@ -14198,7 +14200,7 @@
       <c r="A133" t="s">
         <v>733</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" t="s">
         <v>806</v>
       </c>
     </row>
@@ -14206,7 +14208,7 @@
       <c r="A134" t="s">
         <v>734</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" t="s">
         <v>807</v>
       </c>
     </row>
@@ -14214,7 +14216,7 @@
       <c r="A135" t="s">
         <v>735</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" t="s">
         <v>808</v>
       </c>
     </row>
@@ -14222,7 +14224,7 @@
       <c r="A136" t="s">
         <v>736</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" t="s">
         <v>809</v>
       </c>
     </row>
@@ -14230,7 +14232,7 @@
       <c r="A137" t="s">
         <v>737</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" t="s">
         <v>810</v>
       </c>
     </row>
@@ -14238,7 +14240,7 @@
       <c r="A138" t="s">
         <v>738</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" t="s">
         <v>811</v>
       </c>
     </row>
@@ -14246,7 +14248,7 @@
       <c r="A139" t="s">
         <v>739</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" t="s">
         <v>813</v>
       </c>
     </row>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B787232-99B3-4EA6-A586-92F1576D4924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2F46F-ACAA-42BA-BF38-8C9326063FAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="818">
   <si>
     <t>fairness</t>
   </si>
@@ -9200,6 +9200,15 @@
   </si>
   <si>
     <t>Get rewarded just by referring your friends! Enjoy lifetime rewards just by referring your friends! Receive 0.2% of all their BETS. All rewards are sent out automatically through our smart contracts. Just copy the link and share it to all your friends! Enjoy lifetime rewards just by referring your friends! Receive 0.2% of all their bets. All rewards are sent out automatically through our smart contracts. Just copy the link and share it to all your friends! The cost to create a referral link is 8.88 TRX and less than 1 TRX transaction fee. You can create new referral links as many times as you want. The old one will be replaced automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission is collected to avoid bots creating referral links. Commission goes to Div's smart contract for farther distribution between token holders. </t>
+  </si>
+  <si>
+    <t>referrals_alert</t>
+  </si>
+  <si>
+    <t>Комиссия взимается в целях исключения множественного создания реферальных ссылок ботами. Средства от комиссии идут на смарт контракт выплаты дивидендов.</t>
   </si>
 </sst>
 </file>
@@ -9663,10 +9672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10810,6 +10819,14 @@
         <v>787</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10818,10 +10835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:B142"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11966,6 +11983,14 @@
         <v>790</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11974,10 +11999,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:B142"/>
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13121,6 +13146,14 @@
         <v>787</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13129,10 +13162,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -14276,6 +14309,14 @@
         <v>787</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14284,10 +14325,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:B142"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15431,6 +15472,14 @@
         <v>787</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15439,10 +15488,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B142"/>
+  <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:B142"/>
+      <selection activeCell="A143" sqref="A143:XFD143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -16586,6 +16635,14 @@
         <v>787</v>
       </c>
     </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E2F46F-ACAA-42BA-BF38-8C9326063FAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F4592F-AD9E-479B-869D-D80E7EFEC582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="844">
   <si>
     <t>fairness</t>
   </si>
@@ -7237,7 +7237,7 @@
   </si>
   <si>
     <t>배당금</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7364,15 +7364,15 @@
   </si>
   <si>
     <t>지불</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>멀티플레이어</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>찬스</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -8536,7 +8536,7 @@
   </si>
   <si>
     <t>전체 수입</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>친구추천 이벤트! 전체 베팅금에서 2%에 상당한 장려금을 얻을수 있습니다. 모든 장려는 스마트 계약을 통해 자동으로 전송됩니다.링크를 복사하여 모든 친구들한테 공유하세요! 추천링크를 생성하는 비용은 8.88TRX이고 거래수수료는 1TRX이하입니다. 이전 링크가 새로운 링크로 바뀌기전까지 링크는 무제한으로 만들수 있습니다.</t>
@@ -9209,18 +9209,104 @@
   </si>
   <si>
     <t>Комиссия взимается в целях исключения множественного создания реферальных ссылок ботами. Средства от комиссии идут на смарт контракт выплаты дивидендов.</t>
+  </si>
+  <si>
+    <t>No recebí mis apuntes (ganancias)</t>
+  </si>
+  <si>
+    <t>Usando el número de su monedero TRX, verifique en tronscan.org - Sección de Transacciones Internas. Todos los pagos ganados recibe de esta dirección: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>No he recebido mis dividendos</t>
+  </si>
+  <si>
+    <t>Asegúrese de que sus tokens estaban bloqueados en el momento de la distribución de dividendos. Usando el número de su monedero TRX, verifique en tronscan.org - Sección de Transacciones Internas. Todos los pagos ganados recibe de esta dirección: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>Perdí TRX de mi balanza durante el juego</t>
+  </si>
+  <si>
+    <t>La plataforma 888Tron.com está completamente descentralizada y trabaja en smart contratos. Si su oferta es aceptada, se mostrará en el historia de transacciones de la cadena de bloques de Tron y puede consultarla en www.tronscan.org mediante el número de su monedera TRX en la secsión Transacciones Internas. Todos los pagos se realizan desde la dirección TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe. Las apuestas no aceptadas se devuelven al jugador automáticamente y no afectan el saldo de la monedera. En algunos casos, debido a una carga muy grande (~ 15-20 transacciones por segundo), un smart contrato puede no aceptar su oferta.</t>
+  </si>
+  <si>
+    <t>¿Dónde puedo enocntrar la historia de mi juego?</t>
+  </si>
+  <si>
+    <t>Puede usar este instrumento: https://888tron.com/api/getHistory?address= - después del signo ''='' necesita ingresar el número de su monedero.</t>
+  </si>
+  <si>
+    <t>Mi balanza no se muestra en el sitio 888TRON.com</t>
+  </si>
+  <si>
+    <t>Reinicie el sitio web. Después renicie su monedero o vuelva a iniciar el sesión si es necesario. Asegúrese de que su monedero trabaja en la red Mainnet. En el menú Configuración de monedero, intente cambiar el nodo de la lista existente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mis tokens no estan (des)bloqueadas </t>
+  </si>
+  <si>
+    <t>Asegúrese de que su monedero tenga un balance positivo (5 TRX). Cada vez que (des)bloqueas tokens, gastas energía. Después de hacer clic en el botón seleccionado, debe esperar 5-10 segundos hasta que la red Tron procese la transacción. Reinicie el sitio. Reinicie su monedero y, si es necesario, vuelva a iniciar la sesión. Asegúrese de que la cartera funciona en la red Mainnet. En el menú Configuración de monedero, intente cambiar el nodo de la lista existente.</t>
+  </si>
+  <si>
+    <t>Mi enlace de referencia no funciona.</t>
+  </si>
+  <si>
+    <t>Esto significa que usted llegó al sitio 888tron.com en el enlace de referencia de otra persona y ahora su monedero está añadido a su enlace de referencia. Es imposible cambiar el enlace. Jugar en su propio enlace desde esta billetera tampoco funcionará. Por eso necesita crear otra monedora</t>
+  </si>
+  <si>
+    <t>¿Cómo obtengo dividendos de mis 888 tokens?</t>
+  </si>
+  <si>
+    <t>En la sección Dividendos del sitio web 888tron.com, haga clic en el botón ''desbloquear'. Los dividendos serán acreditados a su monedora automáticamente. Asegúrese de que el balance de su billetera sea positivo (3-5 TRX). Después de desbloquear tokens, no olvide bloquearas nuevamente para participar en las siguientes rondas de distribución de dividendos.</t>
+  </si>
+  <si>
+    <t>¿Qué debo hacer para comenzar a jugar en 888tron.com?</t>
+  </si>
+  <si>
+    <t>Para jugar en tu computadora, usa el explorador Chrome. Registre su TRX Wallet TronLink. Para jugar con telefonos móviles, use las siguientes carteras: &lt;br&gt; Math Wallet (www.mathwallet.org), &lt;br&gt; TronWallet (www.TronWallet.me), &lt;br&gt; Banko wallet (www. Bankowallet.com).</t>
+  </si>
+  <si>
+    <t>¿Dónde puedo intercambiar mis tokens?</t>
+  </si>
+  <si>
+    <t>Puede intercambiar 888 tokens aquí: https://trontrade.io</t>
+  </si>
+  <si>
+    <t>¿Cómo puedo verificar la descentralización de la plataforma?</t>
+  </si>
+  <si>
+    <t>www.tronscan.org &lt;br&gt; Dirección del token 888: TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3 - Dirección de los juegos de 888tron: TGtGhthzyLBYPUKDysXX11gRKPYVTQuMe Github: https://github.com/888tron/contracts/blob/master/Token888.sol &lt;br&gt;https://github.com/888tron/contracts</t>
+  </si>
+  <si>
+    <t>TroublSolución de problemaseshooting</t>
+  </si>
+  <si>
+    <t>No puedo encontrar mis 888 tokens después de desbloquear.</t>
+  </si>
+  <si>
+    <t>Puede verificar todas las transacciones de tokens 888 por el número de su monedora en el sitio www.tronscan.org (sección TRC-20 Transfers section). Las entradas en la cadena de bloques reflejan todos los movimientos de los tokens y no se pueden cambiar.</t>
+  </si>
+  <si>
+    <t>La comisión se cobra para excluir la creación múltiple de enlaces de referencia por parte de bots. Los fondos de la comisión van al smart contratos para pagar los dividendos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9363,38 +9449,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ED9804DD-9D7B-4F0C-915B-DB9BBB4244BC}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{308007F8-75F5-48CB-9EC0-539FB54BDEA2}"/>
     <cellStyle name="Normal 3 2" xfId="4" xr:uid="{915F41E7-9174-4C25-9136-2CEAE3DA4909}"/>
+    <cellStyle name="Normal 3 2 2" xfId="6" xr:uid="{42ACC1C3-FFBB-41C9-A0B9-1DB2F45A3723}"/>
+    <cellStyle name="Normal 3 3" xfId="5" xr:uid="{57A1FE7B-B565-4457-B7B8-679C3E79440C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9674,7 +9768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
@@ -14327,8 +14421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD143"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15273,211 +15367,211 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="A118" s="13" t="s">
         <v>718</v>
       </c>
-      <c r="B118" s="11" t="s">
-        <v>740</v>
+      <c r="B118" s="14" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="A119" s="13" t="s">
         <v>721</v>
       </c>
-      <c r="B119" s="11" t="s">
-        <v>741</v>
+      <c r="B119" s="13" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" t="s">
+      <c r="A120" s="13" t="s">
         <v>720</v>
       </c>
-      <c r="B120" s="12" t="s">
-        <v>742</v>
+      <c r="B120" s="16" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" t="s">
+      <c r="A121" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="B121" s="11" t="s">
-        <v>743</v>
+      <c r="B121" s="14" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="A122" s="13" t="s">
         <v>722</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>744</v>
+      <c r="B122" s="16" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="A123" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="B123" s="11" t="s">
-        <v>745</v>
+      <c r="B123" s="14" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="A124" s="13" t="s">
         <v>724</v>
       </c>
-      <c r="B124" s="11" t="s">
-        <v>746</v>
+      <c r="B124" s="14" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="A125" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="B125" s="11" t="s">
-        <v>747</v>
+      <c r="B125" s="14" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="A126" s="13" t="s">
         <v>726</v>
       </c>
-      <c r="B126" s="12" t="s">
-        <v>748</v>
+      <c r="B126" s="16" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="A127" s="13" t="s">
         <v>727</v>
       </c>
-      <c r="B127" s="11" t="s">
-        <v>749</v>
+      <c r="B127" s="14" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="A128" s="13" t="s">
         <v>728</v>
       </c>
-      <c r="B128" s="11" t="s">
-        <v>750</v>
+      <c r="B128" s="14" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="A129" s="13" t="s">
         <v>729</v>
       </c>
-      <c r="B129" s="11" t="s">
-        <v>751</v>
+      <c r="B129" s="14" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="A130" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="B130" s="11" t="s">
-        <v>752</v>
+      <c r="B130" s="15" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="A131" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>753</v>
+      <c r="B131" s="14" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="A132" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="B132" s="11" t="s">
-        <v>754</v>
+      <c r="B132" s="14" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="A133" s="13" t="s">
         <v>733</v>
       </c>
-      <c r="B133" s="11" t="s">
-        <v>755</v>
+      <c r="B133" s="14" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="A134" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="B134" s="11" t="s">
-        <v>756</v>
+      <c r="B134" s="15" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="A135" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>779</v>
+      <c r="B135" s="14" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="A136" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="B136" s="11" t="s">
-        <v>757</v>
+      <c r="B136" s="14" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="A137" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>758</v>
+      <c r="B137" s="15" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="A138" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>759</v>
+      <c r="B138" s="14" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="A139" s="13" t="s">
         <v>739</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>760</v>
+      <c r="B139" s="14" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="A140" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="B140" t="s">
-        <v>782</v>
+      <c r="B140" s="13" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="A141" s="13" t="s">
         <v>785</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>788</v>
+      <c r="B141" s="14" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="A142" s="13" t="s">
         <v>786</v>
       </c>
-      <c r="B142" s="11" t="s">
-        <v>787</v>
+      <c r="B142" s="14" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="A143" s="13" t="s">
         <v>816</v>
       </c>
-      <c r="B143" t="s">
-        <v>815</v>
+      <c r="B143" s="13" t="s">
+        <v>843</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F4592F-AD9E-479B-869D-D80E7EFEC582}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238F7467-E493-4863-88E5-E02A1A1FD8E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
-    <sheet name="ru" sheetId="2" r:id="rId2"/>
-    <sheet name="kr" sheetId="3" r:id="rId3"/>
-    <sheet name="ch" sheetId="4" r:id="rId4"/>
-    <sheet name="es" sheetId="7" r:id="rId5"/>
-    <sheet name="tr" sheetId="9" r:id="rId6"/>
+    <sheet name="de" sheetId="10" r:id="rId2"/>
+    <sheet name="ru" sheetId="2" r:id="rId3"/>
+    <sheet name="kr" sheetId="3" r:id="rId4"/>
+    <sheet name="ch" sheetId="4" r:id="rId5"/>
+    <sheet name="es" sheetId="7" r:id="rId6"/>
+    <sheet name="tr" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="962">
   <si>
     <t>fairness</t>
   </si>
@@ -9287,6 +9288,360 @@
   </si>
   <si>
     <t>La comisión se cobra para excluir la creación múltiple de enlaces de referencia por parte de bots. Los fondos de la comisión van al smart contratos para pagar los dividendos.</t>
+  </si>
+  <si>
+    <t>Wie man spielt</t>
+  </si>
+  <si>
+    <t>Wetten gemacht</t>
+  </si>
+  <si>
+    <t>Insgesamt gewonnen</t>
+  </si>
+  <si>
+    <t>Wetteinsatz</t>
+  </si>
+  <si>
+    <t>Bitte Sektor auswählen</t>
+  </si>
+  <si>
+    <t>Bitte melden Sie sich an</t>
+  </si>
+  <si>
+    <t>WETTEN</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Spieler</t>
+  </si>
+  <si>
+    <t>Vorhersage</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
+  </si>
+  <si>
+    <t>Wette</t>
+  </si>
+  <si>
+    <t>Auszahlung</t>
+  </si>
+  <si>
+    <t>Die Gewinnzahlen sind zufällig und im Voraus nicht bekannt. Der Zufallszahlengenerator basiert auf den TRON hash block und wird durch einen smart contract im TRON Netzwerk betrieben. Du kannst deine Spieleradresse und die Blocknummer nutzen, um die Gewinnzahlen zu überprüfen.</t>
+  </si>
+  <si>
+    <t>Spieleradresse:</t>
+  </si>
+  <si>
+    <t>Block Nummer:</t>
+  </si>
+  <si>
+    <t>Ergebnis:</t>
+  </si>
+  <si>
+    <t>Senden</t>
+  </si>
+  <si>
+    <t>Anwerben</t>
+  </si>
+  <si>
+    <t>Werde einfach durch das Weiterempfehlen von Freunden. Genießen Sie lebenslange Belohnungen, indem Sie dies Ihren Freunden empfehlen. Erhalten Sie 0,2% aller Wetteinsätze. Alle Belohnungen werden automatisch durch unseren smart contract verschickt. Kopieren Sie einfach den Link und teilen Sie ihn allen Ihren Freunden! Die Kosten um einen Werbungslink zu erstellen beträgt 8.88 TRX und weniger als 1 TRX als Transaktionsgebühr. Sie können beliebig oft neue Werbungslinks erstellen. Alte Links werden dabei automatisch ersetzt.</t>
+  </si>
+  <si>
+    <t>1. Stellen Sie sicher, dass Sie einen TRONLink-Wallet besitzen. Weitere Informationen zur Erstellung finden Sie &lt;a href="https://chrome.google.com/webstore/detail/tronlink/ibnejdfjmmkpcnlpebklmnkoeoihofec" target="_blank"&gt;hier&lt;/a&gt;. Zum Spielen auf einem mobilen Gerät nutzen Sie &lt;a href="https://mathwallet.org/" target="_blank"&gt;Math Wallet&lt;/a&gt; oder &lt;a href="https://tronwallet.me/" target="_blank"&gt;TronWallet&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>2. Zum Spielen müssen Sie TRX besitzen, die zugrunde liegende Kryptowährung, die das Tron-Netzwerk antreibt.</t>
+  </si>
+  <si>
+    <t>3. Stellen Sie Ihren Wetteinsatz ein. Dies ist die Menge an TRX mit der Sie wetten.</t>
+  </si>
+  <si>
+    <t>4. Wählen Sie den SEKTOR aus.</t>
+  </si>
+  <si>
+    <t>5. Klicken Sie auf WETTEN, um Ihren Einsatz zu platzieren. Die smart contracts werden dann eine zufällige Sektornummer generieren.</t>
+  </si>
+  <si>
+    <t>6. Wenn die Sektornummer Ihrer Vorhersage entspricht, GEWINNEN Sie! Auszahlung = Wetteinsatz * Sektor.</t>
+  </si>
+  <si>
+    <t>Noch Fragen? Treten Sie unserer &lt;a href="https://t.me/tron888" target="_blank"&gt; Telegrammgruppe &lt;/a&gt; bei, wir helfen Ihnen gerne weiter!</t>
+  </si>
+  <si>
+    <t>Gewettet</t>
+  </si>
+  <si>
+    <t>Guthaben</t>
+  </si>
+  <si>
+    <t>Meine Wetten</t>
+  </si>
+  <si>
+    <t>Alle Wetten</t>
+  </si>
+  <si>
+    <t>Seltene Siege</t>
+  </si>
+  <si>
+    <t>Geld</t>
+  </si>
+  <si>
+    <t>Dividenden</t>
+  </si>
+  <si>
+    <t>bald</t>
+  </si>
+  <si>
+    <t>(Spiele</t>
+  </si>
+  <si>
+    <t>TRX um 1 Token 888 zu minen)</t>
+  </si>
+  <si>
+    <t>Phase:</t>
+  </si>
+  <si>
+    <t>Nächste Phase:</t>
+  </si>
+  <si>
+    <t>Verfügbare Dividenden</t>
+  </si>
+  <si>
+    <t>Insgesamt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sind im Netzwerk eingefroren. Du erhälst </t>
+  </si>
+  <si>
+    <t>Abgehoben</t>
+  </si>
+  <si>
+    <t>Einfrieren</t>
+  </si>
+  <si>
+    <t>Eingefrozen</t>
+  </si>
+  <si>
+    <t>Auftauen</t>
+  </si>
+  <si>
+    <t>Bitte melden Sie sich bei Ihrem TRONLink-Wallet an. Wenn Sie keine TRONLink-Geldbörse installiert haben, besuchen Sie &lt;a href="http://u6.gg/gmc5D" target="_blank"&gt; http://u6.gg/gmc5D &lt;/a&gt; und laden Sie die Chrome-Erweiterung herunter. (TRONbet ist vorerst nur über den Chrome-Browser verfügbar.)</t>
+  </si>
+  <si>
+    <t>1. Um Dividenden zu erhalten, sollten Sie Ihre 888 Token vor dem Ende eines Levels einfrieren und nach Ende des Levels wieder auftauen. 2. Dividenden werden nur für die eingefrorenen 888 Tokens gutgeschrieben. &lt;br&gt; 3. Eins ist die Mindestanzahl von 888 Token, die eingefroren werden sollten. 4. Wenn 888 Token nach dem Ende des Levels aufgetaut werden, werden Dividenden automatisch durch eine interne Transaktion über den smart contract ausgezahlt. 5. Wenn Sie beim Einfrieren einer neuen Anzahl von Tokens bereits einige eingefrorene Token auf Ihrem Konto haben, wird die vorherige Portion automatisch aufgetaut und dann die gesamte Anzahl der Token wieder eingefroren. Wenn Dividenden auf den vorherigen Teil der eingefroren Tokens sind, so werden sie durch eine interne Transaktion durch den smart contract automatisch in die Wallet des Spielers transferiert. 6. Das Einfrieren und Auftauen von 888 Tokens erfordert mehrere TRX. Aus diesem Grund müssen diese bei Transaktionen in der Wallet sein.</t>
+  </si>
+  <si>
+    <t>Abheben</t>
+  </si>
+  <si>
+    <t>Über 888 Token</t>
+  </si>
+  <si>
+    <t>Was ist 888 Token und wofür ist er da?</t>
+  </si>
+  <si>
+    <t>888 Token ist ein TRC20 Token auf der TRON blockchain. Insgesamt können 100,000,000 888 tokens abgebaut werden (Für Information über die Verteilung der 888 Tokens, schauen Sie sich unser Whitepaper an). 888 Token-Besitzer erhalten Dividenden in TRX, je nachdem, wie viele 888 Tokens Sie besitzen.</t>
+  </si>
+  <si>
+    <t>Was sind Dividenden? Und wieso schwankt sie?</t>
+  </si>
+  <si>
+    <t>Dividenden werden aus dem Erlös von 888TRON, also dem Hausvorteil, abgeleitet. Der Dividendenpool wird ständig schwanken, je nachdem, ob die Nutzer auf 888TRON.Com gewinnen oder verlieren.</t>
+  </si>
+  <si>
+    <t>Kann ich 888 Tokens kaufen?</t>
+  </si>
+  <si>
+    <t>888 kann nicht direkt gekauft werden und kann nur durch Spielen auf 888TRON.com abgebaut werden. In Zukunft werden 888 Tokens auf DEXs und andere Krypto-Vermittlungsstellen verfügbar sein.</t>
+  </si>
+  <si>
+    <t>Ich habe meine 888 Tokens abgehoben, wo kann ich sie sehen?</t>
+  </si>
+  <si>
+    <t>Sie können Ihre 888 Token zu Tron Link hinzufügen. Wählen Sie den Abschnitt Token und drücken Sie Adresse hinzufügen "TLvDJcvKJDi3QuHgFbJC6SeTj3UacmtQU3". Sobald Ihre 888 Token hinzugefügt wurden, können Sie sie nach Belieben verwalten.</t>
+  </si>
+  <si>
+    <t>Nachdem wir unsere Dividenden bekommen haben, werden die 888 Tokens verbrannt?</t>
+  </si>
+  <si>
+    <t>Nein! 888 Token werden für immer bei Ihnen sein, sofern Sie sich nicht für einen DEX-Austausch entscheiden. Solange Sie 888 Token in Ihrem Wallet haben, erhalten Sie Dividenden von 888TRON.com. Wenn sich die Anzahl der 888 Token, die Sie besitzen, im Laufe der Zeit nicht ändert, kann sich die Höhe der Dividenden, die Sie erhalten, im Laufe der Zeit verringern.</t>
+  </si>
+  <si>
+    <t>Wie viel sind 888 Token wert? Kann ich jetzt meine 888-Token austauschen?</t>
+  </si>
+  <si>
+    <t>Sie können auf der Registerkarte „Dividenden“ nach Informationen zu 888 in Echtzeit suchen. Der Wert von 888 hängt von der gesamten Plattform und der Community von 888TRON.com ab. 888 Token können zukünftig an DEX- und anderen Krypto-Börsen ausgetauscht werden.</t>
+  </si>
+  <si>
+    <t>Wie erhalte ich Dividenden auf meine 888 Token?</t>
+  </si>
+  <si>
+    <t>Um Dividenden zu erhalten, müssen Sie Ihre 888-Token abheben, sie einfrieren, bis die Dividendenausschüttungsperiode abgelaufen ist, und anschließend Ihre Tokens auftauen. Die Token, die am Ende jeder Bergbaustufe nicht eingefroren wurden, nehmen nicht an der Ausschüttung von Dividenden teil. Die Dividenden werden automatisch vom Smart-Vertrag auf Ihr Konto überwiesen, nachdem Ihre 888 Token nicht eingefroren wurden.</t>
+  </si>
+  <si>
+    <t>Existiert bereits!</t>
+  </si>
+  <si>
+    <t>Link kopieren</t>
+  </si>
+  <si>
+    <t>Nicht genug TRX im Wallet.</t>
+  </si>
+  <si>
+    <t>Belohnung:</t>
+  </si>
+  <si>
+    <t>Niedrigere Karte</t>
+  </si>
+  <si>
+    <t>Gleiche Karte</t>
+  </si>
+  <si>
+    <t>Höhere Karte</t>
+  </si>
+  <si>
+    <t>Auszahlung bei Gewinn:</t>
+  </si>
+  <si>
+    <t>Multiplikator:</t>
+  </si>
+  <si>
+    <t>Gewinn Chance</t>
+  </si>
+  <si>
+    <t>4. Das Deck enthält 52 Karten. Der niedrigste Rang ist 2 und der höchste Rang ist A (Ass). Der Spieler wählt eine beliebige Karte aus dem Deck. Der Spieler setzt dann eine Wette auf eines der folgenden drei Ergebnisse: Die nächste Karte (eine der 51 verbleibenden Karten), die zufällig ausgewählt wird, ist a) HÖHER, b) NIEDRIGER oder c) GLEICH im Rang als die erste Karte, die der Spieler aus dem Deck gezogen hat. Kartensymbole haben dabei eine Bedeutung im Spiel. Wenn der Spieler das Ergebnis erraten kann, gewinnt er oder sie die Wette multipliziert mit der Quote, die von der Karte und dem vom Spieler gewählten Ergebnis abhängt.</t>
+  </si>
+  <si>
+    <t>Insgesamt abgebaut</t>
+  </si>
+  <si>
+    <t>Auftauen der 888 Tokens um abzuheben</t>
+  </si>
+  <si>
+    <t>Abonnieren</t>
+  </si>
+  <si>
+    <t>Ihre Email</t>
+  </si>
+  <si>
+    <t>Haben Sie noch Fragen?</t>
+  </si>
+  <si>
+    <t>Senden Sie uns eine e-mail:</t>
+  </si>
+  <si>
+    <t>Kleine Wetten (TRX 50-100) benutzen die selbe Energie im Tron-Netzwerk wie hohe Wetten, aber bauen dabei weniger Tokens ab und sind somit weniger profitabel, wenn man gewinnt.</t>
+  </si>
+  <si>
+    <t>Börse</t>
+  </si>
+  <si>
+    <t>Bestenliste</t>
+  </si>
+  <si>
+    <t>März</t>
+  </si>
+  <si>
+    <t>Deutsche und Japanische Website Lokalisierung hinzufügen</t>
+  </si>
+  <si>
+    <t>Allgemeine Plattformverbesserungen und -optimierung (Geschwindigkeit und Transaktionskosten).</t>
+  </si>
+  <si>
+    <t>Start des europäischen Roulette-Spiels.</t>
+  </si>
+  <si>
+    <t>Vorstellung des 888 Ökosystemkonzepts und erste Schritte zum Entwicklungserfolg.</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Start des Black Jack Spiels.</t>
+  </si>
+  <si>
+    <t>Bester Dev.Team-Wettbewerbsstart mit Preisgeldern über USD 100.000.</t>
+  </si>
+  <si>
+    <t>Ab Juni</t>
+  </si>
+  <si>
+    <t>erste Integration von Spielen und DAPPs, erstellt von externen dev.teams.</t>
+  </si>
+  <si>
+    <t>Juli</t>
+  </si>
+  <si>
+    <t>Rechtsrecherche (Gegenstand: Lizenzierung von 888tron.com)</t>
+  </si>
+  <si>
+    <t>Ich habe meine Wette (Gewinne) nicht wiederbekommen.</t>
+  </si>
+  <si>
+    <t>Verwenden Sie Ihre TRX-Wallet-Nummer auf tronscan.org - Interne Transaktionen. Alle gewinnenden Auszahlungen stammen von dieser Adresse: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>Ich habe meine Dividende nicht erhalten.</t>
+  </si>
+  <si>
+    <t>Stellen Sie sicher, dass Ihre Token zum Zeitpunkt der Ausschüttung der Dividenden eingefroren wurden. Verwenden Sie Ihre TRX-Wallet-Nummer auf tronscan.org - Interne Transaktionen. Alle Divs-Auszahlungen stammen von dieser Adresse: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>Ich habe eine Menge TRX, die ich beim Spielen fehlen.</t>
+  </si>
+  <si>
+    <t>888Tron.com ist eine vollständig dezentralisierte Plattform. Wenn Ihre Wette von Smart Contract akzeptiert wurde, bedeutet dies, dass sie von Blockchain verarbeitet wurde und einfach über tronscan.org - Interne Transaktionen abgerufen werden kann. Alle gewinnenden Auszahlungen stammen von dieser Adresse: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe. Nicht akzeptierte Wetten haben keinen Einfluss auf Ihre Wallet und werden zurückgegeben. Aufgrund einer extrem hohen Anzahl von Wetten pro Sekunde (~ 15-20) können einige Wetten von Smart Contract abgelehnt werden.</t>
+  </si>
+  <si>
+    <t>Wie kann ich mein Spielprotokoll überprüfen?</t>
+  </si>
+  <si>
+    <t>Sie können dieses Instrument verwenden, um Ihr Spielprotokoll zu überprüfen. https://888tron.com/api/getHistory?address= - Nach (=) geben Sie Ihre Wallet-Nummer ein.</t>
+  </si>
+  <si>
+    <t>Meine Tronlink-Wallet wird heute nicht auf der 888tron.com-Website angezeigt.</t>
+  </si>
+  <si>
+    <t>Aktualisieren Sie die Website. Aktualisieren Sie Ihre Wallet oder melden Sie sich bei Bedarf erneut an. Stellen Sie sicher, dass Ihre Wallet unter dem Mainnet funktioniert. Wählen Sie im Wallet-Menü Einstellungen einen anderen benutzerdefinierten Knoten aus der verfügbaren Liste.</t>
+  </si>
+  <si>
+    <t>Meine 888 Tokens frieren nicht ein (auftauen).</t>
+  </si>
+  <si>
+    <t>Vergewissern Sie sich, dass Sie mindestens 5 TRX auf Ihrem Wallet haben. Jedes Mal, wenn Sie Ihre Token einfrieren oder auftauen, benötigen Sie Energie und Bandbreite. Warten Sie 5-10 Sekunden. Wenn nichts passiert ist, aktualisieren Sie die Website. Aktualisieren Sie Ihre Wallet oder melden Sie sich bei Bedarf erneut an. Stellen Sie sicher, dass Ihre Wallet unter dem Mainnet funktioniert. Wählen Sie im Wallet-Menü Einstellungen einen anderen benutzerdefinierten Knoten aus der verfügbaren Liste.</t>
+  </si>
+  <si>
+    <t>Mein Werbungslink funktioniert nicht.</t>
+  </si>
+  <si>
+    <t>Sie wurden zu einer anderen Empfehlung zu 888tron.com eingeladen. Nun ist Ihre Brieftasche an diese Überweisung gebunden und Sie können Ihren eigenen Ref.link nicht für sich selbst verwenden.</t>
+  </si>
+  <si>
+    <t>Wie kann ich meine Dividenden von 888 Token erhalten?</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf "Auftauen" auf 888tron.com (Abschnitt "Dividenden"), um sie zu erhalten. Dividenden werden sofort in Ihre Wallet transferiert. Vergewissern Sie sich, dass Sie 3 TRX auf Ihrem Wallet haben. Vergessen Sie nicht, Ihre Tokens erneut einzufrieren, damit Sie die nächste Dividenten-Ausschüttung nicht verpassen.</t>
+  </si>
+  <si>
+    <t>Was muss ich tun, um auf 888tron anfangen zu spielen?</t>
+  </si>
+  <si>
+    <t>Sie benötigen einen Chrome-Browser. Registrieren Sie die TRONLink-Wallet, um auf dem Desktop zu spielen. &lt;br&gt; Um auf dem Handy zu spielen, verwenden Sie bitte Math Wallet (www.mathwallet.org), &lt;br&gt; TronWallet (www.TronWallet.me), &lt;br&gt; Banko Wallet (www.bankowallet.com).</t>
+  </si>
+  <si>
+    <t>Wo kann ich meine Tokens tauschen?</t>
+  </si>
+  <si>
+    <t>Du kannst deine 888 Tokens hier tauschen: https://trontrade.io</t>
+  </si>
+  <si>
+    <t>Wo kann ich Informationen über Ihre Tokenadresse und Ihre Plattform abrufen?</t>
+  </si>
+  <si>
+    <t>Problemlösung</t>
   </si>
 </sst>
 </file>
@@ -9458,7 +9813,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9474,10 +9829,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -9769,7 +10120,7 @@
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="A141" sqref="A141:B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10928,6 +11279,1168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E6A467-D0AF-459C-BE00-51F2B53B650E}">
+  <dimension ref="A1:B143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B46" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>267</v>
+      </c>
+      <c r="B51" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B52" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>330</v>
+      </c>
+      <c r="B62" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>334</v>
+      </c>
+      <c r="B64" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>338</v>
+      </c>
+      <c r="B66" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>340</v>
+      </c>
+      <c r="B67" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>346</v>
+      </c>
+      <c r="B70" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>347</v>
+      </c>
+      <c r="B71" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>351</v>
+      </c>
+      <c r="B73" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>353</v>
+      </c>
+      <c r="B74" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>357</v>
+      </c>
+      <c r="B76" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>457</v>
+      </c>
+      <c r="B77" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>503</v>
+      </c>
+      <c r="B79" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>505</v>
+      </c>
+      <c r="B80" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>492</v>
+      </c>
+      <c r="B81" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>493</v>
+      </c>
+      <c r="B84" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>495</v>
+      </c>
+      <c r="B85" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>496</v>
+      </c>
+      <c r="B86" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>498</v>
+      </c>
+      <c r="B87" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>500</v>
+      </c>
+      <c r="B88" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>502</v>
+      </c>
+      <c r="B89" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>515</v>
+      </c>
+      <c r="B90" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>534</v>
+      </c>
+      <c r="B91" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>595</v>
+      </c>
+      <c r="B92" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>597</v>
+      </c>
+      <c r="B93" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>599</v>
+      </c>
+      <c r="B94" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>611</v>
+      </c>
+      <c r="B95" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>613</v>
+      </c>
+      <c r="B96" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>625</v>
+      </c>
+      <c r="B97" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>630</v>
+      </c>
+      <c r="B98" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>636</v>
+      </c>
+      <c r="B99" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>643</v>
+      </c>
+      <c r="B100" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>645</v>
+      </c>
+      <c r="B101" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>647</v>
+      </c>
+      <c r="B102" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>649</v>
+      </c>
+      <c r="B103" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>663</v>
+      </c>
+      <c r="B104" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>664</v>
+      </c>
+      <c r="B105" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>651</v>
+      </c>
+      <c r="B106" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>653</v>
+      </c>
+      <c r="B107" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>666</v>
+      </c>
+      <c r="B108" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>667</v>
+      </c>
+      <c r="B109" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>655</v>
+      </c>
+      <c r="B110" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>657</v>
+      </c>
+      <c r="B111" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>669</v>
+      </c>
+      <c r="B112" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>670</v>
+      </c>
+      <c r="B113" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>659</v>
+      </c>
+      <c r="B114" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>661</v>
+      </c>
+      <c r="B115" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>672</v>
+      </c>
+      <c r="B116" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>718</v>
+      </c>
+      <c r="B118" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>721</v>
+      </c>
+      <c r="B119" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>720</v>
+      </c>
+      <c r="B120" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>719</v>
+      </c>
+      <c r="B121" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>722</v>
+      </c>
+      <c r="B122" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>723</v>
+      </c>
+      <c r="B123" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>724</v>
+      </c>
+      <c r="B124" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>725</v>
+      </c>
+      <c r="B125" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>726</v>
+      </c>
+      <c r="B126" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>727</v>
+      </c>
+      <c r="B127" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>728</v>
+      </c>
+      <c r="B128" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>729</v>
+      </c>
+      <c r="B129" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>730</v>
+      </c>
+      <c r="B130" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>732</v>
+      </c>
+      <c r="B132" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>733</v>
+      </c>
+      <c r="B133" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>734</v>
+      </c>
+      <c r="B134" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>735</v>
+      </c>
+      <c r="B135" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>736</v>
+      </c>
+      <c r="B136" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>737</v>
+      </c>
+      <c r="B137" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>738</v>
+      </c>
+      <c r="B138" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>739</v>
+      </c>
+      <c r="B139" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>783</v>
+      </c>
+      <c r="B140" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>785</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>786</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>816</v>
+      </c>
+      <c r="B143" t="s">
+        <v>815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
@@ -12091,12 +13604,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD143"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13254,7 +14767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
@@ -14417,11 +15930,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="A118" sqref="A118:B143"/>
     </sheetView>
   </sheetViews>
@@ -15367,210 +16880,210 @@
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="13" t="s">
+      <c r="A118" t="s">
         <v>718</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="8" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="13" t="s">
+      <c r="A119" t="s">
         <v>721</v>
       </c>
-      <c r="B119" s="13" t="s">
+      <c r="B119" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="13" t="s">
+      <c r="A120" t="s">
         <v>720</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="12" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="13" t="s">
+      <c r="A121" t="s">
         <v>719</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="8" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="13" t="s">
+      <c r="A122" t="s">
         <v>722</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="12" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="13" t="s">
+      <c r="A123" t="s">
         <v>723</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="8" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="13" t="s">
+      <c r="A124" t="s">
         <v>724</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="8" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="13" t="s">
+      <c r="A125" t="s">
         <v>725</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="8" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="13" t="s">
+      <c r="A126" t="s">
         <v>726</v>
       </c>
-      <c r="B126" s="16" t="s">
+      <c r="B126" s="12" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="13" t="s">
+      <c r="A127" t="s">
         <v>727</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="8" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="13" t="s">
+      <c r="A128" t="s">
         <v>728</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="8" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="13" t="s">
+      <c r="A129" t="s">
         <v>729</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="8" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="13" t="s">
+      <c r="A130" t="s">
         <v>730</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="11" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="13" t="s">
+      <c r="A131" t="s">
         <v>731</v>
       </c>
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="8" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="13" t="s">
+      <c r="A132" t="s">
         <v>732</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="8" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="13" t="s">
+      <c r="A133" t="s">
         <v>733</v>
       </c>
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="8" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="13" t="s">
+      <c r="A134" t="s">
         <v>734</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="11" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="13" t="s">
+      <c r="A135" t="s">
         <v>735</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="8" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="13" t="s">
+      <c r="A136" t="s">
         <v>736</v>
       </c>
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="8" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="13" t="s">
+      <c r="A137" t="s">
         <v>737</v>
       </c>
-      <c r="B137" s="15" t="s">
+      <c r="B137" s="11" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="13" t="s">
+      <c r="A138" t="s">
         <v>738</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="8" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="13" t="s">
+      <c r="A139" t="s">
         <v>739</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="8" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="13" t="s">
+      <c r="A140" t="s">
         <v>783</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="13" t="s">
+      <c r="A141" t="s">
         <v>785</v>
       </c>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="8" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="13" t="s">
+      <c r="A142" t="s">
         <v>786</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="8" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="13" t="s">
+      <c r="A143" t="s">
         <v>816</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" t="s">
         <v>843</v>
       </c>
     </row>
@@ -15580,12 +17093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD143"/>
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430ACFC-3591-4D32-B7F1-68C61803AF94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE5D83-4928-4E51-8031-40A7EE8981FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1006">
   <si>
     <t>fairness</t>
   </si>
@@ -5501,6 +5501,24 @@
   </si>
   <si>
     <t>봇을 통해 추천링크를 만드는것을 방지하기위해 수수료가 발생합니다. 그 수수료는 토큰홀더들에게 스마트컨트렉트를 통해서 배분될 것입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will I receive dividends every round, even if I leave 888 frozen or I have to unfreeze to get TRX? </t>
+  </si>
+  <si>
+    <t>Divs will be credited to your internal 888 account automatically. There is no need to unfreeze your tokens every time. To transfer TRX on your wallet you need to unfreeze tokens.</t>
+  </si>
+  <si>
+    <t>question_13</t>
+  </si>
+  <si>
+    <t>answer_13</t>
+  </si>
+  <si>
+    <t>Дивиденды начисляются на ваш баланс внутри платформы 888 автоматически. Нет необходимости каждый раз размораживать токены. Для начисления ТРХ на баланс своего кошелька токены необходимо разморозить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мне нужно каждый раунд размораживать токены для получения дивидендов или можно оставить токены замороженными и ТРХ будут начисляться автоматически? </t>
   </si>
 </sst>
 </file>
@@ -5674,7 +5692,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5691,11 +5709,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5984,10 +5999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141:B143"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7139,6 +7154,22 @@
         <v>785</v>
       </c>
     </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7147,10 +7178,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E6A467-D0AF-459C-BE00-51F2B53B650E}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+      <selection activeCell="A144" sqref="A144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8302,6 +8333,22 @@
         <v>785</v>
       </c>
     </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8309,10 +8356,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD143"/>
+      <selection activeCell="A144" sqref="A144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9465,6 +9512,22 @@
         <v>787</v>
       </c>
     </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9473,1173 +9536,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B143"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A100" sqref="A1:B143"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="14" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="14" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="14" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="14" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="14" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="14" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="14" t="s">
-        <v>644</v>
-      </c>
-      <c r="B117" s="14" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="12" t="s">
-        <v>700</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="B137" s="15" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="B139" s="15" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="12" t="s">
-        <v>756</v>
-      </c>
-      <c r="B142" s="15" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="12" t="s">
-        <v>786</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143:XFD143"/>
+      <selection activeCell="A144" sqref="A144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10652,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -10660,7 +9560,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10668,7 +9568,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10676,7 +9576,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10684,7 +9584,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10692,7 +9592,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10700,7 +9600,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10708,7 +9608,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10724,7 +9624,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10732,7 +9632,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10740,7 +9640,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10748,7 +9648,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10756,7 +9656,7 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10764,7 +9664,7 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10772,7 +9672,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10780,7 +9680,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10788,7 +9688,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10796,7 +9696,7 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10804,7 +9704,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10812,15 +9712,15 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
-        <v>556</v>
+      <c r="B22" s="12" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10828,7 +9728,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10836,7 +9736,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10844,7 +9744,7 @@
         <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10852,7 +9752,7 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -10860,7 +9760,7 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10868,7 +9768,7 @@
         <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10876,7 +9776,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10884,7 +9784,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10892,7 +9792,7 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -10900,7 +9800,7 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10908,199 +9808,199 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
-        <v>397</v>
+      <c r="B34" s="12" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
-        <v>398</v>
+      <c r="B35" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>91</v>
       </c>
-      <c r="B36" t="s">
-        <v>399</v>
+      <c r="B36" s="12" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
-        <v>400</v>
+      <c r="B37" s="12" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
-        <v>401</v>
+      <c r="B38" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" t="s">
-        <v>402</v>
+      <c r="B39" s="12" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
-        <v>403</v>
+      <c r="B40" s="12" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
-        <v>404</v>
+      <c r="B41" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
-        <v>405</v>
+      <c r="B42" s="12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
-        <v>406</v>
+      <c r="B43" s="12" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" t="s">
-        <v>407</v>
+      <c r="B44" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" t="s">
-        <v>408</v>
+      <c r="B45" s="12" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" t="s">
-        <v>409</v>
+      <c r="B46" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>258</v>
       </c>
-      <c r="B47" t="s">
-        <v>410</v>
+      <c r="B47" s="12" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>260</v>
       </c>
-      <c r="B48" t="s">
-        <v>411</v>
+      <c r="B48" s="12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>261</v>
       </c>
-      <c r="B49" t="s">
-        <v>412</v>
+      <c r="B49" s="12" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>264</v>
       </c>
-      <c r="B50" t="s">
-        <v>413</v>
+      <c r="B50" s="12" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>266</v>
       </c>
-      <c r="B51" t="s">
-        <v>414</v>
+      <c r="B51" s="12" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>268</v>
       </c>
-      <c r="B52" t="s">
-        <v>415</v>
+      <c r="B52" s="12" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>253</v>
       </c>
-      <c r="B53" t="s">
-        <v>295</v>
+      <c r="B53" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>273</v>
       </c>
-      <c r="B54" t="s">
-        <v>416</v>
+      <c r="B54" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>274</v>
       </c>
-      <c r="B55" t="s">
-        <v>417</v>
+      <c r="B55" s="12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>275</v>
       </c>
-      <c r="B56" t="s">
-        <v>418</v>
+      <c r="B56" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>276</v>
       </c>
-      <c r="B57" t="s">
-        <v>419</v>
+      <c r="B57" s="12" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -11108,15 +10008,15 @@
         <v>279</v>
       </c>
       <c r="B58" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>278</v>
       </c>
-      <c r="B59" t="s">
-        <v>417</v>
+      <c r="B59" s="12" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -11124,15 +10024,15 @@
         <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>371</v>
+        <v>935</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>319</v>
       </c>
-      <c r="B61" t="s">
-        <v>421</v>
+      <c r="B61" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -11140,7 +10040,7 @@
         <v>329</v>
       </c>
       <c r="B62" t="s">
-        <v>422</v>
+        <v>936</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -11148,7 +10048,7 @@
         <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>937</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -11156,23 +10056,23 @@
         <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>938</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>335</v>
       </c>
-      <c r="B65" t="s">
-        <v>425</v>
+      <c r="B65" s="12" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>337</v>
       </c>
-      <c r="B66" t="s">
-        <v>426</v>
+      <c r="B66" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -11180,7 +10080,7 @@
         <v>339</v>
       </c>
       <c r="B67" t="s">
-        <v>427</v>
+        <v>940</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -11188,15 +10088,15 @@
         <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>428</v>
+        <v>941</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>343</v>
       </c>
-      <c r="B69" t="s">
-        <v>429</v>
+      <c r="B69" s="12" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -11204,87 +10104,87 @@
         <v>345</v>
       </c>
       <c r="B70" t="s">
-        <v>438</v>
+        <v>943</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>346</v>
       </c>
-      <c r="B71" t="s">
-        <v>430</v>
+      <c r="B71" s="12" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>348</v>
       </c>
-      <c r="B72" t="s">
-        <v>431</v>
+      <c r="B72" s="12" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>350</v>
       </c>
-      <c r="B73" t="s">
-        <v>432</v>
+      <c r="B73" s="12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>352</v>
       </c>
-      <c r="B74" t="s">
-        <v>433</v>
+      <c r="B74" s="12" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>354</v>
       </c>
-      <c r="B75" t="s">
-        <v>434</v>
+      <c r="B75" s="12" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>356</v>
       </c>
-      <c r="B76" t="s">
-        <v>435</v>
+      <c r="B76" s="12" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>442</v>
       </c>
-      <c r="B77" t="s">
-        <v>550</v>
+      <c r="B77" s="12" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>444</v>
       </c>
-      <c r="B78" t="s">
-        <v>551</v>
+      <c r="B78" s="12" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>488</v>
       </c>
-      <c r="B79" t="s">
-        <v>552</v>
+      <c r="B79" s="12" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>490</v>
       </c>
-      <c r="B80" t="s">
-        <v>553</v>
+      <c r="B80" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -11292,7 +10192,7 @@
         <v>477</v>
       </c>
       <c r="B81" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -11300,7 +10200,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>558</v>
+        <v>951</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -11308,15 +10208,15 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>952</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>478</v>
       </c>
-      <c r="B84" t="s">
-        <v>559</v>
+      <c r="B84" s="12" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -11324,55 +10224,55 @@
         <v>480</v>
       </c>
       <c r="B85" t="s">
-        <v>560</v>
+        <v>954</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>481</v>
       </c>
-      <c r="B86" t="s">
-        <v>561</v>
+      <c r="B86" s="12" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>483</v>
       </c>
-      <c r="B87" t="s">
-        <v>562</v>
+      <c r="B87" s="12" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>485</v>
       </c>
-      <c r="B88" t="s">
-        <v>563</v>
+      <c r="B88" s="12" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>487</v>
       </c>
-      <c r="B89" t="s">
-        <v>554</v>
+      <c r="B89" s="12" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>500</v>
       </c>
-      <c r="B90" t="s">
-        <v>555</v>
+      <c r="B90" s="12" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>519</v>
       </c>
-      <c r="B91" t="s">
-        <v>564</v>
+      <c r="B91" s="12" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -11388,7 +10288,7 @@
         <v>567</v>
       </c>
       <c r="B93" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -11396,7 +10296,7 @@
         <v>569</v>
       </c>
       <c r="B94" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -11404,7 +10304,7 @@
         <v>581</v>
       </c>
       <c r="B95" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -11412,7 +10312,7 @@
         <v>583</v>
       </c>
       <c r="B96" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -11420,7 +10320,7 @@
         <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -11428,7 +10328,7 @@
         <v>600</v>
       </c>
       <c r="B98" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -11436,7 +10336,7 @@
         <v>606</v>
       </c>
       <c r="B99" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -11444,319 +10344,319 @@
         <v>613</v>
       </c>
       <c r="B100" t="s">
-        <v>614</v>
+        <v>961</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>674</v>
+      <c r="B101" s="13" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>675</v>
+      <c r="B102" s="13" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>676</v>
+      <c r="B103" s="13" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>675</v>
+      <c r="B104" s="13" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>677</v>
+      <c r="B105" s="13" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>678</v>
+      <c r="B106" s="13" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>679</v>
+      <c r="B107" s="13" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>678</v>
+      <c r="B108" s="13" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>680</v>
+      <c r="B109" s="13" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>681</v>
+      <c r="B110" s="13" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>682</v>
+      <c r="B111" s="13" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>681</v>
+      <c r="B112" s="13" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>683</v>
+      <c r="B113" s="13" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>684</v>
+      <c r="B114" s="13" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>685</v>
+      <c r="B115" s="13" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>686</v>
+      <c r="B116" s="13" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>687</v>
+      <c r="B117" s="13" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>688</v>
       </c>
-      <c r="B118" t="s">
-        <v>761</v>
+      <c r="B118" s="10" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>691</v>
       </c>
-      <c r="B119" t="s">
-        <v>762</v>
+      <c r="B119" s="10" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>690</v>
       </c>
-      <c r="B120" t="s">
-        <v>763</v>
+      <c r="B120" s="11" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>689</v>
       </c>
-      <c r="B121" t="s">
-        <v>764</v>
+      <c r="B121" s="10" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>692</v>
       </c>
-      <c r="B122" t="s">
-        <v>765</v>
+      <c r="B122" s="11" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>693</v>
       </c>
-      <c r="B123" t="s">
-        <v>766</v>
+      <c r="B123" s="10" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>694</v>
       </c>
-      <c r="B124" t="s">
-        <v>767</v>
+      <c r="B124" s="10" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>695</v>
       </c>
-      <c r="B125" t="s">
-        <v>768</v>
+      <c r="B125" s="10" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>696</v>
       </c>
-      <c r="B126" t="s">
-        <v>769</v>
+      <c r="B126" s="11" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>697</v>
       </c>
-      <c r="B127" t="s">
-        <v>770</v>
+      <c r="B127" s="10" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>698</v>
       </c>
-      <c r="B128" t="s">
-        <v>771</v>
+      <c r="B128" s="10" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>699</v>
       </c>
-      <c r="B129" t="s">
-        <v>772</v>
+      <c r="B129" s="10" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>700</v>
       </c>
-      <c r="B130" t="s">
-        <v>773</v>
+      <c r="B130" s="10" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>701</v>
       </c>
-      <c r="B131" t="s">
-        <v>774</v>
+      <c r="B131" s="10" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>702</v>
       </c>
-      <c r="B132" t="s">
-        <v>775</v>
+      <c r="B132" s="10" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>703</v>
       </c>
-      <c r="B133" t="s">
-        <v>776</v>
+      <c r="B133" s="10" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>704</v>
       </c>
-      <c r="B134" t="s">
-        <v>777</v>
+      <c r="B134" s="10" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>705</v>
       </c>
-      <c r="B135" t="s">
-        <v>778</v>
+      <c r="B135" s="10" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>706</v>
       </c>
-      <c r="B136" t="s">
-        <v>779</v>
+      <c r="B136" s="10" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>707</v>
       </c>
-      <c r="B137" t="s">
-        <v>780</v>
+      <c r="B137" s="10" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>708</v>
       </c>
-      <c r="B138" t="s">
-        <v>781</v>
+      <c r="B138" s="10" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>709</v>
       </c>
-      <c r="B139" t="s">
-        <v>783</v>
+      <c r="B139" s="10" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -11764,7 +10664,7 @@
         <v>753</v>
       </c>
       <c r="B140" t="s">
-        <v>782</v>
+        <v>996</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -11772,7 +10672,7 @@
         <v>755</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>758</v>
+        <v>997</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -11780,7 +10680,7 @@
         <v>756</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>757</v>
+        <v>998</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -11788,7 +10688,23 @@
         <v>786</v>
       </c>
       <c r="B143" t="s">
-        <v>785</v>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -11797,12 +10713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B143"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118:B143"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11814,71 +10730,71 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>139</v>
+      <c r="B1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
+      <c r="B2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
+      <c r="B3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>142</v>
+      <c r="B4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>143</v>
+      <c r="B5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>144</v>
+      <c r="B6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>145</v>
+      <c r="B7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>146</v>
+      <c r="B8" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>522</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>523</v>
       </c>
     </row>
@@ -11886,192 +10802,192 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>147</v>
+      <c r="B10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>148</v>
+      <c r="B11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>149</v>
+      <c r="B12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>150</v>
+      <c r="B13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>151</v>
+      <c r="B14" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>152</v>
+      <c r="B15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>153</v>
+      <c r="B16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>154</v>
+      <c r="B17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>155</v>
+      <c r="B18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>156</v>
+      <c r="B19" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>157</v>
+      <c r="B20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>158</v>
+      <c r="B21" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>529</v>
+      <c r="B22" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>179</v>
+      <c r="B23" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>159</v>
+      <c r="B24" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>160</v>
+      <c r="B25" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>161</v>
+      <c r="B26" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>162</v>
+      <c r="B27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>163</v>
+      <c r="B28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>498</v>
+      <c r="B29" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>164</v>
+      <c r="B30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>165</v>
+      <c r="B31" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>166</v>
+      <c r="B32" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>167</v>
+      <c r="B33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -12079,7 +10995,7 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -12087,7 +11003,7 @@
         <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -12095,7 +11011,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -12103,7 +11019,7 @@
         <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -12111,7 +11027,7 @@
         <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -12119,7 +11035,7 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -12127,7 +11043,7 @@
         <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -12135,7 +11051,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -12143,159 +11059,159 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A44" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A45" s="2" t="s">
+      <c r="B44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A46" s="2" t="s">
+      <c r="B45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A47" s="2" t="s">
+      <c r="B46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A48" s="2" t="s">
+      <c r="B47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>260</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A49" s="2" t="s">
+      <c r="B48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A50" s="2" t="s">
+      <c r="B49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A51" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A52" s="2" t="s">
+      <c r="B50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A53" s="2" t="s">
+      <c r="B52" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A54" s="2" t="s">
+      <c r="B53" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A55" s="2" t="s">
+      <c r="B54" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A56" s="2" t="s">
+      <c r="B55" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A57" s="2" t="s">
+      <c r="B56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A58" s="2" t="s">
+      <c r="B57" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>279</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A59" s="2" t="s">
+      <c r="B58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A60" s="2" t="s">
+      <c r="B59" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A61" s="2" t="s">
+      <c r="B60" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>321</v>
+      <c r="B61" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -12303,7 +11219,7 @@
         <v>329</v>
       </c>
       <c r="B62" t="s">
-        <v>530</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -12311,7 +11227,7 @@
         <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>531</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -12319,7 +11235,7 @@
         <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -12327,7 +11243,7 @@
         <v>335</v>
       </c>
       <c r="B65" t="s">
-        <v>533</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -12335,7 +11251,7 @@
         <v>337</v>
       </c>
       <c r="B66" t="s">
-        <v>534</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -12343,7 +11259,7 @@
         <v>339</v>
       </c>
       <c r="B67" t="s">
-        <v>535</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -12351,7 +11267,7 @@
         <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>536</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -12359,7 +11275,7 @@
         <v>343</v>
       </c>
       <c r="B69" t="s">
-        <v>537</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -12367,7 +11283,7 @@
         <v>345</v>
       </c>
       <c r="B70" t="s">
-        <v>538</v>
+        <v>438</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -12375,7 +11291,7 @@
         <v>346</v>
       </c>
       <c r="B71" t="s">
-        <v>539</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -12383,7 +11299,7 @@
         <v>348</v>
       </c>
       <c r="B72" t="s">
-        <v>540</v>
+        <v>431</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -12391,7 +11307,7 @@
         <v>350</v>
       </c>
       <c r="B73" t="s">
-        <v>541</v>
+        <v>432</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -12399,7 +11315,7 @@
         <v>352</v>
       </c>
       <c r="B74" t="s">
-        <v>542</v>
+        <v>433</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -12407,7 +11323,7 @@
         <v>354</v>
       </c>
       <c r="B75" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -12415,7 +11331,7 @@
         <v>356</v>
       </c>
       <c r="B76" t="s">
-        <v>543</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -12423,7 +11339,7 @@
         <v>442</v>
       </c>
       <c r="B77" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -12431,7 +11347,7 @@
         <v>444</v>
       </c>
       <c r="B78" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -12439,7 +11355,7 @@
         <v>488</v>
       </c>
       <c r="B79" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -12447,7 +11363,7 @@
         <v>490</v>
       </c>
       <c r="B80" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -12455,7 +11371,7 @@
         <v>477</v>
       </c>
       <c r="B81" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -12463,7 +11379,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>513</v>
+        <v>558</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -12471,7 +11387,7 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -12479,7 +11395,7 @@
         <v>478</v>
       </c>
       <c r="B84" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -12487,7 +11403,7 @@
         <v>480</v>
       </c>
       <c r="B85" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -12495,7 +11411,7 @@
         <v>481</v>
       </c>
       <c r="B86" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -12503,7 +11419,7 @@
         <v>483</v>
       </c>
       <c r="B87" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -12511,7 +11427,7 @@
         <v>485</v>
       </c>
       <c r="B88" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -12519,7 +11435,7 @@
         <v>487</v>
       </c>
       <c r="B89" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -12527,7 +11443,7 @@
         <v>500</v>
       </c>
       <c r="B90" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -12535,7 +11451,7 @@
         <v>519</v>
       </c>
       <c r="B91" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -12551,7 +11467,7 @@
         <v>567</v>
       </c>
       <c r="B93" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -12559,7 +11475,7 @@
         <v>569</v>
       </c>
       <c r="B94" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -12567,7 +11483,7 @@
         <v>581</v>
       </c>
       <c r="B95" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -12575,7 +11491,7 @@
         <v>583</v>
       </c>
       <c r="B96" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -12583,7 +11499,7 @@
         <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -12591,7 +11507,7 @@
         <v>600</v>
       </c>
       <c r="B98" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -12599,7 +11515,7 @@
         <v>606</v>
       </c>
       <c r="B99" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -12614,8 +11530,8 @@
       <c r="A101" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>661</v>
+      <c r="B101" s="9" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -12623,7 +11539,7 @@
         <v>617</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -12631,7 +11547,7 @@
         <v>619</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -12639,15 +11555,15 @@
         <v>633</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>667</v>
+      <c r="B105" s="8" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -12655,7 +11571,7 @@
         <v>621</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -12663,7 +11579,7 @@
         <v>623</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -12671,7 +11587,7 @@
         <v>636</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -12679,15 +11595,15 @@
         <v>637</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>663</v>
+      <c r="B110" s="9" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -12695,23 +11611,23 @@
         <v>627</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>663</v>
+      <c r="B112" s="8" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>671</v>
+      <c r="B113" s="8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -12719,7 +11635,7 @@
         <v>629</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -12727,7 +11643,7 @@
         <v>631</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -12735,7 +11651,7 @@
         <v>642</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>665</v>
+        <v>686</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -12743,15 +11659,15 @@
         <v>644</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>688</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>788</v>
+      <c r="B118" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -12759,167 +11675,167 @@
         <v>691</v>
       </c>
       <c r="B119" t="s">
-        <v>789</v>
+        <v>762</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>690</v>
       </c>
-      <c r="B120" s="11" t="s">
-        <v>790</v>
+      <c r="B120" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>689</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>791</v>
+      <c r="B121" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>692</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>792</v>
+      <c r="B122" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>693</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>793</v>
+      <c r="B123" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>694</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>794</v>
+      <c r="B124" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>695</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>795</v>
+      <c r="B125" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>696</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>796</v>
+      <c r="B126" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>697</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>797</v>
+      <c r="B127" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>698</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>798</v>
+      <c r="B128" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>699</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>799</v>
+      <c r="B129" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>700</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>800</v>
+      <c r="B130" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>701</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>801</v>
+      <c r="B131" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>702</v>
       </c>
-      <c r="B132" s="7" t="s">
-        <v>802</v>
+      <c r="B132" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>703</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>803</v>
+      <c r="B133" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>704</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>804</v>
+      <c r="B134" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>705</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>805</v>
+      <c r="B135" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>706</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>806</v>
+      <c r="B136" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>707</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>807</v>
+      <c r="B137" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>708</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>808</v>
+      <c r="B138" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>709</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>809</v>
+      <c r="B139" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -12927,23 +11843,23 @@
         <v>753</v>
       </c>
       <c r="B140" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>755</v>
       </c>
-      <c r="B141" s="7" t="s">
-        <v>811</v>
+      <c r="B141" s="10" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>756</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>812</v>
+      <c r="B142" s="10" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -12951,7 +11867,23 @@
         <v>786</v>
       </c>
       <c r="B143" t="s">
-        <v>813</v>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -12960,12 +11892,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B143"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12978,7 +11910,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>212</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12986,7 +11918,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -12994,7 +11926,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -13002,7 +11934,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -13010,7 +11942,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13018,7 +11950,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -13026,7 +11958,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>218</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -13034,7 +11966,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -13050,7 +11982,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>220</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -13058,7 +11990,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -13066,7 +11998,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -13074,7 +12006,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -13082,7 +12014,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -13090,7 +12022,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -13098,7 +12030,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -13106,7 +12038,7 @@
         <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -13114,7 +12046,7 @@
         <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -13122,7 +12054,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -13130,7 +12062,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -13138,7 +12070,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -13146,7 +12078,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>446</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -13154,7 +12086,7 @@
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>232</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -13162,7 +12094,7 @@
         <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -13170,7 +12102,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -13178,7 +12110,7 @@
         <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -13186,7 +12118,7 @@
         <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>236</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -13194,7 +12126,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -13202,7 +12134,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -13210,7 +12142,7 @@
         <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -13218,7 +12150,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -13226,15 +12158,15 @@
         <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>241</v>
+      <c r="B33" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -13242,7 +12174,7 @@
         <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -13250,7 +12182,7 @@
         <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -13258,7 +12190,7 @@
         <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -13266,7 +12198,7 @@
         <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -13274,7 +12206,7 @@
         <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -13282,7 +12214,7 @@
         <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -13290,7 +12222,7 @@
         <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -13298,7 +12230,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -13306,6 +12238,1185 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A46" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A56" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A57" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A58" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A61" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>337</v>
+      </c>
+      <c r="B66" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>343</v>
+      </c>
+      <c r="B69" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>354</v>
+      </c>
+      <c r="B75" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>442</v>
+      </c>
+      <c r="B77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>488</v>
+      </c>
+      <c r="B79" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B80" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>477</v>
+      </c>
+      <c r="B81" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>21</v>
+      </c>
+      <c r="B83" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>480</v>
+      </c>
+      <c r="B85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>481</v>
+      </c>
+      <c r="B86" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>483</v>
+      </c>
+      <c r="B87" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>487</v>
+      </c>
+      <c r="B89" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>500</v>
+      </c>
+      <c r="B90" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>519</v>
+      </c>
+      <c r="B91" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>565</v>
+      </c>
+      <c r="B92" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>567</v>
+      </c>
+      <c r="B93" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>569</v>
+      </c>
+      <c r="B94" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>581</v>
+      </c>
+      <c r="B95" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>583</v>
+      </c>
+      <c r="B96" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>595</v>
+      </c>
+      <c r="B97" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>600</v>
+      </c>
+      <c r="B98" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>606</v>
+      </c>
+      <c r="B99" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>613</v>
+      </c>
+      <c r="B100" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>688</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>691</v>
+      </c>
+      <c r="B119" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>690</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>689</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>692</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>693</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>694</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>695</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>696</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>697</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>698</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>699</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>700</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>701</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>702</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>703</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>704</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>705</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>706</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>707</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>708</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>709</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>753</v>
+      </c>
+      <c r="B140" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>755</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>756</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>786</v>
+      </c>
+      <c r="B143" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B145"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:B145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
         <v>250</v>
       </c>
     </row>
@@ -14115,6 +14226,22 @@
       </c>
       <c r="B143" t="s">
         <v>785</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DE5D83-4928-4E51-8031-40A7EE8981FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7396C5E0-1BC0-45E2-A75C-58A348DD3467}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1058">
   <si>
     <t>fairness</t>
   </si>
@@ -3225,9 +3225,6 @@
     <t xml:space="preserve">Small bets (TRX 50-100) use the same energy ~0.5 TRX as higher bets, but mine less tokens and are less profitable in case of win. </t>
   </si>
   <si>
-    <t xml:space="preserve">Маленькие ставки (50-100 ТРХ) потребляют такую же энергию как и большие (~0,5 TRX), но приносят меньше токенов и доход. </t>
-  </si>
-  <si>
     <t>Las apuestas pequeñas (50-100 TRX) consumen la misma energía que las grandes (~ 0.5 TRX), pero generan menos tokens e ingresos.</t>
   </si>
   <si>
@@ -3879,9 +3876,6 @@
     <t>Wie man spielt</t>
   </si>
   <si>
-    <t>Wetten gemacht</t>
-  </si>
-  <si>
     <t>Insgesamt gewonnen</t>
   </si>
   <si>
@@ -4008,9 +4002,6 @@
     <t>Einfrieren</t>
   </si>
   <si>
-    <t>Eingefrozen</t>
-  </si>
-  <si>
     <t>Auftauen</t>
   </si>
   <si>
@@ -5519,18 +5510,191 @@
   </si>
   <si>
     <t xml:space="preserve">Мне нужно каждый раунд размораживать токены для получения дивидендов или можно оставить токены замороженными и ТРХ будут начисляться автоматически? </t>
+  </si>
+  <si>
+    <t>Abgeschlossene Wetten</t>
+  </si>
+  <si>
+    <t>Hohe Einsätze</t>
+  </si>
+  <si>
+    <t>Verlauf</t>
+  </si>
+  <si>
+    <t>Verfügbar</t>
+  </si>
+  <si>
+    <t>Eingefroren</t>
+  </si>
+  <si>
+    <t>Cüzdanında yeterli TRX yok.</t>
+  </si>
+  <si>
+    <t>Ödüllendirme:</t>
+  </si>
+  <si>
+    <t>Altında çekilmiş</t>
+  </si>
+  <si>
+    <t>Tam çekilmiş</t>
+  </si>
+  <si>
+    <t>Fazla çekilmiş</t>
+  </si>
+  <si>
+    <t>Kazanmada Ödeme:</t>
+  </si>
+  <si>
+    <t>Çoklu oyuncu</t>
+  </si>
+  <si>
+    <t>Yenme fırsatı</t>
+  </si>
+  <si>
+    <t>toplam elde edilen</t>
+  </si>
+  <si>
+    <t>Çözmek için 888 Jetonlarını çöz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Küçük oranlar (50-100 TPH), büyük olanlarla aynı enerjiyi kullanır (~ 0.5 TRX), ancak daha az belirteç ve gelir getirir. </t>
+  </si>
+  <si>
+    <t>Destek:</t>
+  </si>
+  <si>
+    <t>Borsa</t>
+  </si>
+  <si>
+    <t>lider tahtası</t>
+  </si>
+  <si>
+    <t>Yol haritası</t>
+  </si>
+  <si>
+    <t>Mart</t>
+  </si>
+  <si>
+    <t>Almanca ve Japonca web sitesi yerelleştirmeleri ekleme.</t>
+  </si>
+  <si>
+    <t>Genel platform iyileştirmeleri ve optimizasyonu (hız ve işlem maliyetleri).</t>
+  </si>
+  <si>
+    <t>Nisan</t>
+  </si>
+  <si>
+    <t>Avrupa Ruleti oyun lansmanı.</t>
+  </si>
+  <si>
+    <t>888 ekosistem kavramının tanıtımı ve gelişim başarısının ilk adımları.</t>
+  </si>
+  <si>
+    <t>Mayıs</t>
+  </si>
+  <si>
+    <t>Black Jack oyun lansmanı.</t>
+  </si>
+  <si>
+    <t>100 K USD üzerindeki ödül fonuyla en iyi temettü ekip yarışması lansmanı.</t>
+  </si>
+  <si>
+    <t>Haziran başlangıcı</t>
+  </si>
+  <si>
+    <t>Outsource dev.teams tarafından oluşturulan ilk oyun ve APP entegrasyonu.</t>
+  </si>
+  <si>
+    <t>Temmuz</t>
+  </si>
+  <si>
+    <t>Yasal araştırma (Subject: 888tron.com licensing)</t>
+  </si>
+  <si>
+    <t>Bahsimi (kazançları) geri alamadım.</t>
+  </si>
+  <si>
+    <t>TRX cüzdan numaranızı kullanarak tronscan.org - Dahili İşlemler bölümünü kontrol edin. Kazanan tüm ödemeler bu adresten geliyor: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>Temettülerimi alamadım.</t>
+  </si>
+  <si>
+    <t>Jetonlarınızın dağıtıldığı sırada jetonlarınızın donmuş olduğundan emin olun. TRX cüzdan numaranızı kullanarak tronscan.org - Dahili İşlemler bölümünü kontrol edin. Tüm temettüler ödemeleri bu adresten gelir: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe</t>
+  </si>
+  <si>
+    <t>Oyunu kaçıran bir sürü TRX lerim bulunmakta.</t>
+  </si>
+  <si>
+    <t>888Tron.com tamamen merkezi olmayan bir platformdur. Eğer bahsiniz akıllı bir sözleşme ile kabul edilmişse, bu, blockchain tarafından işlendiğini ve tronscan.org - Dahili İşlemler bölümünden kolayca kontrol edilebildiği anlamına gelir. Kazanan tüm ödemeler bu adresten geliyor: TGtGhthzyLBYPUKDysXX1YSgRKPYVTQuMe. Kabul edilmeyen bahisler cüzdan bakiyenizi etkilemez ve iade edilir. Saniyede çok yüksek miktarda bahis yapıldığından (~ 15-20), bazı bahisler akıllı kontratlarla reddedilebilir.</t>
+  </si>
+  <si>
+    <t>Oyun günlüğümü nasıl kontrol edebilirim.</t>
+  </si>
+  <si>
+    <t>Oyun kayıtlarını kontrol etmek için bu cihazı kullanabilirsin. https://888tron.com/api/getHistory?address= - (=) işaretinden sonra cüzdan numaranızı girmelisiniz.</t>
+  </si>
+  <si>
+    <t>Tronlink cüzdanım bugün 888tron.com web sitesinde görünmüyor.</t>
+  </si>
+  <si>
+    <t>Web sitesini yenile Cüzdanınızı yenileyin veya gerekirse yeniden giriş yapın. Cüzdanınızın Mainnet’in altında çalıştığından emin olun. M-cüzdan Ayarları menüsünde, mevcut listeden başka bir Müşteri düğüm seçmeyi deneyin.</t>
+  </si>
+  <si>
+    <t>888 nominal paralarım donmuyor (serbest bırak)</t>
+  </si>
+  <si>
+    <t>Cüzdan hesabınızda en az TRX 5 olduğundan emin olun. Simgelerinizi her dondurduğunuzda veya çözdüğünüzde enerji ve bant genişliğine ihtiyacınız vardır. 5-10 saniye bekleyin. Hiçbir şey olmadıysa web sitesini yenileyin. Cüzdanınızı yenileyin veya gerekirse yeniden giriş yapın. Cüzdanınızın Mainnet’in altında çalıştığından emin olun. M-cüzdan Ayarları menüsünde, mevcut listeden başka bir Müşteri düğümü seçmeyi deneyin.</t>
+  </si>
+  <si>
+    <t>Benim yönlendirme linkim çalışmıyor</t>
+  </si>
+  <si>
+    <t>888tron.com'a başka bir tavsiye tarafından davet edildiniz. Şimdi cüzdanınız bu yönlendirmeye bağlandı ve kendi referans linkinizi kendiniz kullanamazsınız.</t>
+  </si>
+  <si>
+    <t>888 token den temettülerimi nasıl alabilirim?</t>
+  </si>
+  <si>
+    <t>Onları almak için 888tron.com'da (Temettüler bölümü) “çöz” butonuna basın. Temettüler derhal cüzdanınıza aktarılacak. Hesabınızda TRX 3 olduğundan emin olun. İşlem bittiğinde jetonlarınızı tekrar dondurmayı unutmayın ki bir sonraki temettü dağıtımını kaçırmayın.</t>
+  </si>
+  <si>
+    <t>888tron üzerinde oynamaya başlamak için neler yapmam gerekir?</t>
+  </si>
+  <si>
+    <t>Chrome internet tarayacısına ihtiyacınız var. Masaüstünde oynamak için TRONLink cüzdanına ihtiyacınız var. &lt;br&gt;To play on mobile please use&lt;br&gt; Math Wallet (www. mathwallet.org), &lt;br&gt;TronWallet (www.TronWallet.me),&lt;br&gt; Banko wallet (www.bankowallet.com).</t>
+  </si>
+  <si>
+    <t>Tokenlerimi nerede satabilirim ?</t>
+  </si>
+  <si>
+    <t>888 tokenlerini burada satabilirsin: https://trontrade.io</t>
+  </si>
+  <si>
+    <t>Token adresim ve senin platformun hakkındaki bilgiyi nerede kontrol edebilirim?</t>
+  </si>
+  <si>
+    <t>Sorunlu atış</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5648,6 +5812,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5681,38 +5850,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{ED9804DD-9D7B-4F0C-915B-DB9BBB4244BC}"/>
@@ -5722,6 +5898,7 @@
     <cellStyle name="Normal 3 2 3" xfId="8" xr:uid="{99B49CEC-1449-4033-96B1-CDBAA352B69D}"/>
     <cellStyle name="Normal 3 3" xfId="5" xr:uid="{57A1FE7B-B565-4457-B7B8-679C3E79440C}"/>
     <cellStyle name="Normal 3 4" xfId="7" xr:uid="{D82A2ED9-D23D-4518-A82D-5B1E2FEC642B}"/>
+    <cellStyle name="Normal 3 5" xfId="9" xr:uid="{E4299A41-DF86-49EE-B94E-FC42CCC35BF0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6001,8 +6178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -6183,7 +6360,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6788,386 +6965,386 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
+        <v>599</v>
+      </c>
+      <c r="B98" t="s">
         <v>600</v>
-      </c>
-      <c r="B98" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
+        <v>605</v>
+      </c>
+      <c r="B99" t="s">
         <v>606</v>
-      </c>
-      <c r="B99" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>612</v>
+      </c>
+      <c r="B100" t="s">
         <v>613</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B101" s="8" t="s">
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="8" t="s">
+      <c r="B102" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B102" s="8" t="s">
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
+      <c r="B103" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B103" s="8" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" s="8" t="s">
+      <c r="B106" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="8" t="s">
+      <c r="B108" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" s="8" t="s">
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="8" t="s">
+      <c r="B112" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" s="8" t="s">
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" s="8" t="s">
+      <c r="B114" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="8" t="s">
+      <c r="B116" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B116" s="8" t="s">
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
+      <c r="B117" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>688</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>710</v>
+        <v>687</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>691</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>711</v>
+        <v>690</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>712</v>
+        <v>689</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>689</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>713</v>
+        <v>688</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>692</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>714</v>
+        <v>691</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>693</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>715</v>
+        <v>692</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>694</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>716</v>
+        <v>693</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>695</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>717</v>
+        <v>694</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>696</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>718</v>
+        <v>695</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>697</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>719</v>
+        <v>696</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>698</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>720</v>
+        <v>697</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>699</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>721</v>
+        <v>698</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>700</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>722</v>
+        <v>699</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>701</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>723</v>
+        <v>700</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>702</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>724</v>
+        <v>701</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>703</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>725</v>
+        <v>702</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>704</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>726</v>
+        <v>703</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>705</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>749</v>
+        <v>704</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>706</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>727</v>
+        <v>705</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>707</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>728</v>
+        <v>706</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>708</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>729</v>
+        <v>707</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>709</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>730</v>
+        <v>708</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B140" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>755</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B143" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B144" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -7180,8 +7357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E6A467-D0AF-459C-BE00-51F2B53B650E}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B145"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7190,1163 +7367,1163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>522</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="B82" s="12" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>255</v>
-      </c>
-      <c r="B46" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>258</v>
-      </c>
-      <c r="B47" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B49" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>264</v>
-      </c>
-      <c r="B50" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>266</v>
-      </c>
-      <c r="B51" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>268</v>
-      </c>
-      <c r="B52" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>253</v>
-      </c>
-      <c r="B53" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>274</v>
-      </c>
-      <c r="B55" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>275</v>
-      </c>
-      <c r="B56" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>276</v>
-      </c>
-      <c r="B57" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>279</v>
-      </c>
-      <c r="B58" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>278</v>
-      </c>
-      <c r="B59" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>280</v>
-      </c>
-      <c r="B60" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>319</v>
-      </c>
-      <c r="B61" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>329</v>
-      </c>
-      <c r="B62" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>331</v>
-      </c>
-      <c r="B63" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>333</v>
-      </c>
-      <c r="B64" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B65" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>337</v>
-      </c>
-      <c r="B66" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>339</v>
-      </c>
-      <c r="B67" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>341</v>
-      </c>
-      <c r="B68" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>343</v>
-      </c>
-      <c r="B69" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>345</v>
-      </c>
-      <c r="B70" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>346</v>
-      </c>
-      <c r="B71" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>348</v>
-      </c>
-      <c r="B72" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>352</v>
-      </c>
-      <c r="B74" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>354</v>
-      </c>
-      <c r="B75" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>356</v>
-      </c>
-      <c r="B76" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>442</v>
-      </c>
-      <c r="B77" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>444</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="B83" s="12" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>488</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>490</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B86" s="12" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>477</v>
-      </c>
-      <c r="B81" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>478</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B87" s="12" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>480</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>481</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B89" s="12" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>483</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B90" s="12" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>485</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>487</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>500</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B93" s="12" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>519</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>565</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B95" s="12" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>567</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>569</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>581</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>583</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>595</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="B102" s="17" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>600</v>
-      </c>
-      <c r="B98" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>606</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="B103" s="17" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>613</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="17" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="17" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="17" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="17" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" s="17" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>621</v>
-      </c>
-      <c r="B106" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="17" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="17" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" s="17" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="17" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B116" s="17" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117" s="17" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B119" s="18" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>644</v>
-      </c>
-      <c r="B117" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B120" s="19" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B121" s="18" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B122" s="19" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="B123" s="18" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>689</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="B124" s="18" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>692</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B125" s="18" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>693</v>
-      </c>
-      <c r="B123" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B126" s="19" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>694</v>
-      </c>
-      <c r="B124" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="B127" s="18" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>695</v>
-      </c>
-      <c r="B125" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="B128" s="18" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>696</v>
-      </c>
-      <c r="B126" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B129" s="18" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>697</v>
-      </c>
-      <c r="B127" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B130" s="18" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>698</v>
-      </c>
-      <c r="B128" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B131" s="18" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>699</v>
-      </c>
-      <c r="B129" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B132" s="18" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>700</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B133" s="18" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>701</v>
-      </c>
-      <c r="B131" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="B134" s="18" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>702</v>
-      </c>
-      <c r="B132" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B135" s="18" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>703</v>
-      </c>
-      <c r="B133" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B136" s="18" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>704</v>
-      </c>
-      <c r="B134" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="B137" s="18" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>705</v>
-      </c>
-      <c r="B135" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="B138" s="18" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>706</v>
-      </c>
-      <c r="B136" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="B139" s="18" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B140" s="12" t="s">
         <v>928</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>707</v>
-      </c>
-      <c r="B137" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>708</v>
-      </c>
-      <c r="B138" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>709</v>
-      </c>
-      <c r="B139" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>753</v>
-      </c>
-      <c r="B140" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>755</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B143" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B144" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -9012,7 +9189,7 @@
       <c r="A81" t="s">
         <v>477</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="4" t="s">
         <v>504</v>
       </c>
     </row>
@@ -9020,7 +9197,7 @@
       <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -9028,7 +9205,7 @@
       <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9036,7 +9213,7 @@
       <c r="A84" t="s">
         <v>478</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="4" t="s">
         <v>505</v>
       </c>
     </row>
@@ -9044,7 +9221,7 @@
       <c r="A85" t="s">
         <v>480</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="4" t="s">
         <v>506</v>
       </c>
     </row>
@@ -9052,7 +9229,7 @@
       <c r="A86" t="s">
         <v>481</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="4" t="s">
         <v>507</v>
       </c>
     </row>
@@ -9060,7 +9237,7 @@
       <c r="A87" t="s">
         <v>483</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="4" t="s">
         <v>517</v>
       </c>
     </row>
@@ -9068,7 +9245,7 @@
       <c r="A88" t="s">
         <v>485</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="4" t="s">
         <v>508</v>
       </c>
     </row>
@@ -9076,7 +9253,7 @@
       <c r="A89" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="4" t="s">
         <v>518</v>
       </c>
     </row>
@@ -9146,386 +9323,386 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B99" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>612</v>
+      </c>
+      <c r="B100" t="s">
         <v>613</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>688</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>731</v>
+        <v>687</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>691</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>732</v>
+        <v>690</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>733</v>
+        <v>689</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>689</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>734</v>
+        <v>688</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>692</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>735</v>
+        <v>691</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>693</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>736</v>
+        <v>692</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>694</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>743</v>
+        <v>693</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>695</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>744</v>
+        <v>694</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>696</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>737</v>
+        <v>695</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>697</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>738</v>
+        <v>696</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>698</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>739</v>
+        <v>697</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>699</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>740</v>
+        <v>698</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>700</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>741</v>
+        <v>699</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>701</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>742</v>
+        <v>700</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>702</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>745</v>
+        <v>701</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>703</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>746</v>
+        <v>702</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>704</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>747</v>
+        <v>703</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>705</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>748</v>
+        <v>704</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>706</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>727</v>
+        <v>705</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>707</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>728</v>
+        <v>706</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>708</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>750</v>
+        <v>707</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>709</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>751</v>
+        <v>708</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
+        <v>752</v>
+      </c>
+      <c r="B140" t="s">
         <v>753</v>
-      </c>
-      <c r="B140" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>759</v>
+        <v>754</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B142" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
+        <v>785</v>
+      </c>
+      <c r="B143" t="s">
         <v>786</v>
-      </c>
-      <c r="B143" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>999</v>
+      </c>
+      <c r="B144" t="s">
         <v>1002</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -9719,8 +9896,8 @@
       <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>932</v>
+      <c r="B22" s="9" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9792,7 +9969,7 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -9815,7 +9992,7 @@
       <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="9" t="s">
         <v>374</v>
       </c>
     </row>
@@ -9823,7 +10000,7 @@
       <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="9" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9831,7 +10008,7 @@
       <c r="A36" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9839,7 +10016,7 @@
       <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="9" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9847,7 +10024,7 @@
       <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="9" t="s">
         <v>378</v>
       </c>
     </row>
@@ -9855,7 +10032,7 @@
       <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="9" t="s">
         <v>379</v>
       </c>
     </row>
@@ -9863,7 +10040,7 @@
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="9" t="s">
         <v>380</v>
       </c>
     </row>
@@ -9871,7 +10048,7 @@
       <c r="A41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>180</v>
       </c>
     </row>
@@ -9879,7 +10056,7 @@
       <c r="A42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>381</v>
       </c>
     </row>
@@ -9887,7 +10064,7 @@
       <c r="A43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>382</v>
       </c>
     </row>
@@ -9895,7 +10072,7 @@
       <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>291</v>
       </c>
     </row>
@@ -9903,15 +10080,15 @@
       <c r="A45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>934</v>
+      <c r="B45" s="9" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
         <v>383</v>
       </c>
     </row>
@@ -9919,7 +10096,7 @@
       <c r="A47" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9927,7 +10104,7 @@
       <c r="A48" t="s">
         <v>260</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="9" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9935,7 +10112,7 @@
       <c r="A49" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="9" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9943,7 +10120,7 @@
       <c r="A50" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="9" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9951,7 +10128,7 @@
       <c r="A51" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="9" t="s">
         <v>292</v>
       </c>
     </row>
@@ -9959,7 +10136,7 @@
       <c r="A52" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="9" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9967,7 +10144,7 @@
       <c r="A53" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="9" t="s">
         <v>293</v>
       </c>
     </row>
@@ -9975,7 +10152,7 @@
       <c r="A54" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="9" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9983,7 +10160,7 @@
       <c r="A55" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -9991,7 +10168,7 @@
       <c r="A56" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="9" t="s">
         <v>390</v>
       </c>
     </row>
@@ -9999,7 +10176,7 @@
       <c r="A57" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="9" t="s">
         <v>391</v>
       </c>
     </row>
@@ -10015,7 +10192,7 @@
       <c r="A59" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="9" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10024,14 +10201,14 @@
         <v>280</v>
       </c>
       <c r="B60" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="9" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10040,7 +10217,7 @@
         <v>329</v>
       </c>
       <c r="B62" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -10048,7 +10225,7 @@
         <v>331</v>
       </c>
       <c r="B63" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -10056,22 +10233,22 @@
         <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>335</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>939</v>
+      <c r="B65" s="9" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>337</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="9" t="s">
         <v>394</v>
       </c>
     </row>
@@ -10080,7 +10257,7 @@
         <v>339</v>
       </c>
       <c r="B67" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -10088,15 +10265,15 @@
         <v>341</v>
       </c>
       <c r="B68" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>343</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>942</v>
+      <c r="B69" s="9" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -10104,30 +10281,30 @@
         <v>345</v>
       </c>
       <c r="B70" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>346</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>944</v>
+      <c r="B71" s="9" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>348</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>945</v>
+      <c r="B72" s="9" t="s">
+        <v>942</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>350</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="9" t="s">
         <v>395</v>
       </c>
     </row>
@@ -10135,15 +10312,15 @@
       <c r="A74" t="s">
         <v>352</v>
       </c>
-      <c r="B74" s="12" t="s">
-        <v>946</v>
+      <c r="B74" s="9" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>354</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="9" t="s">
         <v>396</v>
       </c>
     </row>
@@ -10151,39 +10328,39 @@
       <c r="A76" t="s">
         <v>356</v>
       </c>
-      <c r="B76" s="12" t="s">
-        <v>947</v>
+      <c r="B76" s="9" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>442</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>948</v>
+      <c r="B77" s="9" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>444</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>949</v>
+      <c r="B78" s="9" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>488</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>950</v>
+      <c r="B79" s="9" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>490</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="9" t="s">
         <v>291</v>
       </c>
     </row>
@@ -10200,7 +10377,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -10208,15 +10385,15 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>478</v>
       </c>
-      <c r="B84" s="12" t="s">
-        <v>953</v>
+      <c r="B84" s="9" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -10224,55 +10401,55 @@
         <v>480</v>
       </c>
       <c r="B85" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>481</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>955</v>
+      <c r="B86" s="9" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>483</v>
       </c>
-      <c r="B87" s="12" t="s">
-        <v>956</v>
+      <c r="B87" s="9" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>485</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>957</v>
+      <c r="B88" s="9" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="12" t="s">
-        <v>958</v>
+      <c r="B89" s="9" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>500</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>959</v>
+      <c r="B90" s="9" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>519</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>960</v>
+      <c r="B91" s="9" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -10320,391 +10497,391 @@
         <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B99" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B100" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B103" s="10" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="13" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" s="13" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="13" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" s="13" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="10" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106" s="10" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" s="13" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="10" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="13" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" s="13" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="B106" s="13" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" s="13" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="10" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="13" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" s="13" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="13" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="13" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" s="13" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" s="10" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="13" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" s="13" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B116" s="10" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="13" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" s="13" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117" s="10" t="s">
         <v>971</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="13" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="13" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="13" t="s">
-        <v>644</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>688</v>
-      </c>
-      <c r="B118" s="10" t="s">
-        <v>975</v>
+        <v>687</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>691</v>
-      </c>
-      <c r="B119" s="10" t="s">
-        <v>976</v>
+        <v>690</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>977</v>
+        <v>689</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>689</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>978</v>
+        <v>688</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>692</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>979</v>
+        <v>691</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>693</v>
-      </c>
-      <c r="B123" s="10" t="s">
-        <v>980</v>
+        <v>692</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>694</v>
-      </c>
-      <c r="B124" s="10" t="s">
-        <v>981</v>
+        <v>693</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>695</v>
-      </c>
-      <c r="B125" s="10" t="s">
-        <v>982</v>
+        <v>694</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>696</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>983</v>
+        <v>695</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>697</v>
-      </c>
-      <c r="B127" s="10" t="s">
-        <v>984</v>
+        <v>696</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>698</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>985</v>
+        <v>697</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>699</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>986</v>
+        <v>698</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>700</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>987</v>
+        <v>699</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>701</v>
-      </c>
-      <c r="B131" s="10" t="s">
-        <v>988</v>
+        <v>700</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>702</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>989</v>
+        <v>701</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>703</v>
-      </c>
-      <c r="B133" s="10" t="s">
-        <v>990</v>
+        <v>702</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>704</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>991</v>
+        <v>703</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>705</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>992</v>
+        <v>704</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>706</v>
-      </c>
-      <c r="B136" s="10" t="s">
-        <v>993</v>
+        <v>705</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>707</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>994</v>
+        <v>706</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>708</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>995</v>
+        <v>707</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>992</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>709</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>730</v>
+        <v>708</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B140" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>997</v>
+        <v>754</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>756</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>998</v>
+        <v>755</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B143" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B144" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -10717,8 +10894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B145"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11499,391 +11676,391 @@
         <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B99" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>612</v>
+      </c>
+      <c r="B100" t="s">
         <v>613</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" s="8" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" s="8" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" s="8" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B106" s="8" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" s="8" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="8" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" s="6" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" s="9" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" s="8" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" s="8" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="8" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="8" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" s="8" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>686</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B118" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B119" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B120" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B121" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B122" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B123" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B124" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B125" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B126" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B127" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B128" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B129" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B130" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B131" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B132" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B133" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B134" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B135" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B136" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B137" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B138" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B139" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B140" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>755</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B143" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B144" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -12678,391 +12855,391 @@
         <v>595</v>
       </c>
       <c r="B97" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B98" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B99" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
+        <v>612</v>
+      </c>
+      <c r="B100" t="s">
         <v>613</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" s="9" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B106" s="8" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" s="8" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" s="8" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" s="9" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="8" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="8" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B117" s="5" t="s">
         <v>672</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>688</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>788</v>
+        <v>687</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B119" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>790</v>
+        <v>689</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>689</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>791</v>
+        <v>688</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>692</v>
-      </c>
-      <c r="B122" s="11" t="s">
-        <v>792</v>
+        <v>691</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>693</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>793</v>
+        <v>692</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>694</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>794</v>
+        <v>693</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>695</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>795</v>
+        <v>694</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>696</v>
-      </c>
-      <c r="B126" s="11" t="s">
-        <v>796</v>
+        <v>695</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>697</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>797</v>
+        <v>696</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>698</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>798</v>
+        <v>697</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>699</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>799</v>
+        <v>698</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>700</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>800</v>
+        <v>699</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>701</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>801</v>
+        <v>700</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>702</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>802</v>
+        <v>701</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>703</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>803</v>
+        <v>702</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>704</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>804</v>
+        <v>703</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>705</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>805</v>
+        <v>704</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>706</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>806</v>
+        <v>705</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>707</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>807</v>
+        <v>706</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>708</v>
-      </c>
-      <c r="B138" s="7" t="s">
-        <v>808</v>
+        <v>707</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>709</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>809</v>
+        <v>708</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B140" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>811</v>
+        <v>754</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>756</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>812</v>
+        <v>755</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B143" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B144" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
@@ -13075,8 +13252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B145"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13085,1163 +13262,1163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="13" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="13" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="13" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="13" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="13" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="13" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="13" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="13" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="13" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="13" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="13" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="13" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="13" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A32" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="13" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="A36" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="12" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="A37" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="A39" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="A40" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="A42" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="A44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="12" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="A45" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="A46" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="A47" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="12" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="A48" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="12" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="A49" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="A50" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="12" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="A51" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="12" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="A52" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="A53" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="12" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="A54" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="12" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="A55" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="12" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="A56" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="12" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="A57" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="A58" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="12" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" t="s">
+      <c r="A59" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="12" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="A60" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="12" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="A61" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="12" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="A62" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="12" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="A63" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="12" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="A64" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="15" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="A65" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="A66" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="15" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" t="s">
+      <c r="A67" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="12" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="A68" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="A69" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="12" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="A70" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="16" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="A71" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="12" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="A72" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="15" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="A73" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="12" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="A74" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="15" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="A75" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="12" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="A76" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="15" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="A77" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="12" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="A78" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="12" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="A79" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B79" t="s">
-        <v>492</v>
+      <c r="B79" s="12" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="A80" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="B80" t="s">
-        <v>493</v>
+      <c r="B80" s="12" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="A81" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="12" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" t="s">
+      <c r="A82" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B82" t="s">
-        <v>20</v>
+      <c r="B82" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="A83" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B83" t="s">
-        <v>22</v>
+      <c r="B83" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" t="s">
+      <c r="A84" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B84" t="s">
-        <v>479</v>
+      <c r="B84" s="12" t="s">
+        <v>1010</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="A85" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B85" t="s">
-        <v>527</v>
+      <c r="B85" s="12" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="A86" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B86" t="s">
-        <v>482</v>
+      <c r="B86" s="12" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="A87" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="B87" t="s">
-        <v>484</v>
+      <c r="B87" s="12" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="A88" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B88" t="s">
-        <v>528</v>
+      <c r="B88" s="12" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" t="s">
+      <c r="A89" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B89" t="s">
-        <v>486</v>
+      <c r="B89" s="12" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" t="s">
+      <c r="A90" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="12" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="A91" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B91" t="s">
-        <v>520</v>
+      <c r="B91" s="12" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" t="s">
+      <c r="A92" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="B92" t="s">
-        <v>566</v>
+      <c r="B92" s="12" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="A93" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="12" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="A94" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="12" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="A95" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="12" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="A96" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="12" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="A97" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="B97" t="s">
-        <v>597</v>
+      <c r="B97" s="12" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>600</v>
-      </c>
-      <c r="B98" t="s">
-        <v>601</v>
+      <c r="A98" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>606</v>
-      </c>
-      <c r="B99" t="s">
-        <v>607</v>
+      <c r="A99" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>613</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="A100" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="17" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>657</v>
+      <c r="B101" s="11" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B102" s="8" t="s">
+      <c r="A102" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="17" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="17" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="17" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="17" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="B105" s="8" t="s">
+      <c r="B106" s="11" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="17" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B107" s="8" t="s">
+      <c r="B108" s="11" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="17" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="8" t="s">
+      <c r="B110" s="11" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="17" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="B111" s="8" t="s">
+      <c r="B112" s="11" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="17" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" s="8" t="s">
+      <c r="B114" s="11" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="17" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="11" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="17" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>645</v>
+      <c r="B117" s="11" t="s">
+        <v>1035</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" t="s">
+      <c r="A118" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+      <c r="B121" s="18" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>690</v>
-      </c>
-      <c r="B120" s="11" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>689</v>
-      </c>
-      <c r="B121" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+      <c r="B122" s="19" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="B122" s="11" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+      <c r="B123" s="18" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+      <c r="B124" s="18" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+      <c r="B125" s="18" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="B125" s="10" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+      <c r="B126" s="19" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="B126" s="11" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+      <c r="B127" s="18" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+      <c r="B128" s="18" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B129" s="18" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B130" s="18" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B131" s="18" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B132" s="18" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="B132" s="10" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B133" s="18" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B134" s="18" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="B134" s="10" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B135" s="18" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B136" s="18" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+      <c r="B137" s="18" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B138" s="18" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B139" s="12" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>709</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>730</v>
-      </c>
-    </row>
     <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>753</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="A140" s="12" t="s">
         <v>752</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>755</v>
-      </c>
-      <c r="B141" s="10" t="s">
-        <v>758</v>
+        <v>754</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>755</v>
+      </c>
+      <c r="B142" s="7" t="s">
         <v>756</v>
-      </c>
-      <c r="B142" s="10" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B143" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B144" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="B145" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>

--- a/locale/888tron_locale.xlsx
+++ b/locale/888tron_locale.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7396C5E0-1BC0-45E2-A75C-58A348DD3467}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33E3911-444A-47DB-97B1-C372579BFCA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1066">
   <si>
     <t>fairness</t>
   </si>
@@ -5675,6 +5675,30 @@
   </si>
   <si>
     <t>Sorunlu atış</t>
+  </si>
+  <si>
+    <t>overview</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Обзор</t>
+  </si>
+  <si>
+    <t>Überblick</t>
+  </si>
+  <si>
+    <t>개요</t>
+  </si>
+  <si>
+    <t>概觀</t>
+  </si>
+  <si>
+    <t>Visión general</t>
+  </si>
+  <si>
+    <t>Genel bakış</t>
   </si>
 </sst>
 </file>
@@ -5862,7 +5886,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5878,15 +5902,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6176,10 +6196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7347,6 +7367,14 @@
         <v>998</v>
       </c>
     </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1059</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7355,10 +7383,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E6A467-D0AF-459C-BE00-51F2B53B650E}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7367,1122 +7395,1122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" t="s">
         <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>522</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" t="s">
         <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" t="s">
         <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" t="s">
         <v>841</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" t="s">
         <v>260</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" t="s">
         <v>849</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" t="s">
         <v>851</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>279</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="12" t="s">
+      <c r="A60" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" t="s">
         <v>319</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="12" t="s">
+      <c r="A62" t="s">
         <v>329</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" t="s">
         <v>331</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="12" t="s">
+      <c r="A64" t="s">
         <v>333</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="12" t="s">
+      <c r="A65" t="s">
         <v>335</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" t="s">
         <v>863</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="12" t="s">
+      <c r="A66" t="s">
         <v>337</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="12" t="s">
+      <c r="A67" t="s">
         <v>339</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="12" t="s">
+      <c r="A68" t="s">
         <v>341</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" t="s">
         <v>343</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="12" t="s">
+      <c r="A70" t="s">
         <v>345</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="12" t="s">
+      <c r="A71" t="s">
         <v>346</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="12" t="s">
+      <c r="A72" t="s">
         <v>348</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="12" t="s">
+      <c r="A73" t="s">
         <v>350</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" t="s">
         <v>352</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="12" t="s">
+      <c r="A75" t="s">
         <v>354</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="12" t="s">
+      <c r="A76" t="s">
         <v>356</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="12" t="s">
+      <c r="A77" t="s">
         <v>442</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" t="s">
         <v>444</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="12" t="s">
+      <c r="A79" t="s">
         <v>488</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="12" t="s">
+      <c r="A80" t="s">
         <v>490</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="12" t="s">
+      <c r="A81" t="s">
         <v>477</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="12" t="s">
+      <c r="A82" t="s">
         <v>19</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="12" t="s">
+      <c r="A83" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="12" t="s">
+      <c r="A84" t="s">
         <v>478</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="12" t="s">
+      <c r="A85" t="s">
         <v>480</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="12" t="s">
+      <c r="A86" t="s">
         <v>481</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="12" t="s">
+      <c r="A87" t="s">
         <v>483</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="12" t="s">
+      <c r="A88" t="s">
         <v>485</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="12" t="s">
+      <c r="A89" t="s">
         <v>487</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="12" t="s">
+      <c r="A90" t="s">
         <v>500</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="12" t="s">
+      <c r="A91" t="s">
         <v>519</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="12" t="s">
+      <c r="A92" t="s">
         <v>565</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="12" t="s">
+      <c r="A93" t="s">
         <v>567</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="12" t="s">
+      <c r="A94" t="s">
         <v>569</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="12" t="s">
+      <c r="A95" t="s">
         <v>581</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="12" t="s">
+      <c r="A96" t="s">
         <v>583</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="12" t="s">
+      <c r="A97" t="s">
         <v>595</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="12" t="s">
+      <c r="A98" t="s">
         <v>599</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="12" t="s">
+      <c r="A99" t="s">
         <v>605</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="12" t="s">
+      <c r="A100" t="s">
         <v>612</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="11" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="11" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="17" t="s">
+      <c r="A103" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="11" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="B104" s="17" t="s">
+      <c r="B104" s="11" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="11" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="11" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="11" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="11" t="s">
         <v>635</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="11" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="11" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="B110" s="17" t="s">
+      <c r="B110" s="11" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="11" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B112" s="17" t="s">
+      <c r="B112" s="11" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="11" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B114" s="17" t="s">
+      <c r="B114" s="11" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B115" s="11" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="11" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="11" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="12" t="s">
+      <c r="A118" t="s">
         <v>687</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="7" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="12" t="s">
+      <c r="A119" t="s">
         <v>690</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="7" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="12" t="s">
+      <c r="A120" t="s">
         <v>689</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="8" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="12" t="s">
+      <c r="A121" t="s">
         <v>688</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="7" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="12" t="s">
+      <c r="A122" t="s">
         <v>691</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="8" t="s">
         <v>911</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="12" t="s">
+      <c r="A123" t="s">
         <v>692</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="7" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="12" t="s">
+      <c r="A124" t="s">
         <v>693</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="7" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="12" t="s">
+      <c r="A125" t="s">
         <v>694</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="7" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="12" t="s">
+      <c r="A126" t="s">
         <v>695</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="8" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="12" t="s">
+      <c r="A127" t="s">
         <v>696</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="7" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="12" t="s">
+      <c r="A128" t="s">
         <v>697</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="7" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="12" t="s">
+      <c r="A129" t="s">
         <v>698</v>
       </c>
-      <c r="B129" s="18" t="s">
+      <c r="B129" s="7" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="12" t="s">
+      <c r="A130" t="s">
         <v>699</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="7" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="12" t="s">
+      <c r="A131" t="s">
         <v>700</v>
       </c>
-      <c r="B131" s="18" t="s">
+      <c r="B131" s="7" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="12" t="s">
+      <c r="A132" t="s">
         <v>701</v>
       </c>
-      <c r="B132" s="18" t="s">
+      <c r="B132" s="7" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="12" t="s">
+      <c r="A133" t="s">
         <v>702</v>
       </c>
-      <c r="B133" s="18" t="s">
+      <c r="B133" s="7" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="12" t="s">
+      <c r="A134" t="s">
         <v>703</v>
       </c>
-      <c r="B134" s="18" t="s">
+      <c r="B134" s="7" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="12" t="s">
+      <c r="A135" t="s">
         <v>704</v>
       </c>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="7" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="12" t="s">
+      <c r="A136" t="s">
         <v>705</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="7" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="12" t="s">
+      <c r="A137" t="s">
         <v>706</v>
       </c>
-      <c r="B137" s="18" t="s">
+      <c r="B137" s="7" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="12" t="s">
+      <c r="A138" t="s">
         <v>707</v>
       </c>
-      <c r="B138" s="18" t="s">
+      <c r="B138" s="7" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="12" t="s">
+      <c r="A139" t="s">
         <v>708</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="7" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="12" t="s">
+      <c r="A140" t="s">
         <v>752</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" t="s">
         <v>928</v>
       </c>
     </row>
@@ -8524,6 +8552,14 @@
       </c>
       <c r="B145" t="s">
         <v>998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -8533,10 +8569,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B145"/>
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9705,6 +9741,14 @@
         <v>1001</v>
       </c>
     </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1060</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9713,10 +9757,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B145"/>
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10884,6 +10928,14 @@
         <v>998</v>
       </c>
     </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1062</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10892,10 +10944,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12063,6 +12115,14 @@
         <v>998</v>
       </c>
     </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1063</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12071,10 +12131,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B145"/>
+      <selection activeCell="A146" sqref="A146:XFD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13242,6 +13302,14 @@
         <v>998</v>
       </c>
     </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13250,10 +13318,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13262,807 +13330,807 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>522</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12" t="s">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="12" t="s">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="12" t="s">
+      <c r="A35" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="12" t="s">
+      <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12" t="s">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="12" t="s">
+      <c r="A45" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="12" t="s">
+      <c r="A46" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="12" t="s">
+      <c r="A47" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="12" t="s">
+      <c r="A48" t="s">
         <v>260</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="12" t="s">
+      <c r="A49" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="12" t="s">
+      <c r="A50" t="s">
         <v>264</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="12" t="s">
+      <c r="A51" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="12" t="s">
+      <c r="A52" t="s">
         <v>268</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="12" t="s">
+      <c r="A53" t="s">
         <v>253</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" t="s">
         <v>273</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" t="s">
         <v>274</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" t="s">
         <v>275</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="12" t="s">
+      <c r="A57" t="s">
         <v>276</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>279</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="12" t="s">
+      <c r="A59" t="s">
         <v>278</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="12" t="s">
+      <c r="A60" t="s">
         <v>280</v>
       </c>
-      <c r="B60" s=